--- a/GU112 CGM raw.xlsx
+++ b/GU112 CGM raw.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="GU112_MODIFIEDSENSORDA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -976,7 +976,7 @@
   <dimension ref="A1:AE892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="P17" sqref="P17:P891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,6 +1652,10 @@
       <c r="O15" t="s">
         <v>33</v>
       </c>
+      <c r="P15">
+        <f>AVERAGE(N14,N16,N17)</f>
+        <v>124</v>
+      </c>
       <c r="AC15" t="s">
         <v>35</v>
       </c>
@@ -1699,6 +1703,10 @@
       <c r="O16" t="s">
         <v>33</v>
       </c>
+      <c r="P16">
+        <f>AVERAGE(N14,N15,N17,N18)</f>
+        <v>124.5</v>
+      </c>
       <c r="AC16" t="s">
         <v>35</v>
       </c>
@@ -1746,6 +1754,10 @@
       <c r="O17" t="s">
         <v>33</v>
       </c>
+      <c r="P17">
+        <f>AVERAGE(N15,N16,N18,N19)</f>
+        <v>128.25</v>
+      </c>
       <c r="AC17" t="s">
         <v>35</v>
       </c>
@@ -1793,6 +1805,10 @@
       <c r="O18" t="s">
         <v>33</v>
       </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P81" si="0">AVERAGE(N16,N17,N19,N20)</f>
+        <v>126.5</v>
+      </c>
       <c r="AC18" t="s">
         <v>35</v>
       </c>
@@ -1840,6 +1856,10 @@
       <c r="O19" t="s">
         <v>33</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
       <c r="AC19" t="s">
         <v>35</v>
       </c>
@@ -1887,6 +1907,10 @@
       <c r="O20" t="s">
         <v>33</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
       <c r="AC20" t="s">
         <v>35</v>
       </c>
@@ -1934,6 +1958,10 @@
       <c r="O21" t="s">
         <v>33</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>109.25</v>
+      </c>
       <c r="AC21" t="s">
         <v>35</v>
       </c>
@@ -1981,6 +2009,10 @@
       <c r="O22" t="s">
         <v>33</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>106.75</v>
+      </c>
       <c r="AC22" t="s">
         <v>35</v>
       </c>
@@ -2028,6 +2060,10 @@
       <c r="O23" t="s">
         <v>33</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>109.5</v>
+      </c>
       <c r="AC23" t="s">
         <v>35</v>
       </c>
@@ -2075,6 +2111,10 @@
       <c r="O24" t="s">
         <v>33</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
       <c r="AC24" t="s">
         <v>35</v>
       </c>
@@ -2122,6 +2162,10 @@
       <c r="O25" t="s">
         <v>33</v>
       </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>106.25</v>
+      </c>
       <c r="AC25" t="s">
         <v>35</v>
       </c>
@@ -2169,6 +2213,10 @@
       <c r="O26" t="s">
         <v>33</v>
       </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>110.75</v>
+      </c>
       <c r="AC26" t="s">
         <v>35</v>
       </c>
@@ -2216,6 +2264,10 @@
       <c r="O27" t="s">
         <v>33</v>
       </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>114.5</v>
+      </c>
       <c r="AC27" t="s">
         <v>35</v>
       </c>
@@ -2263,6 +2315,10 @@
       <c r="O28" t="s">
         <v>33</v>
       </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>108.75</v>
+      </c>
       <c r="AC28" t="s">
         <v>35</v>
       </c>
@@ -2310,6 +2366,10 @@
       <c r="O29" t="s">
         <v>33</v>
       </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="AC29" t="s">
         <v>35</v>
       </c>
@@ -2357,6 +2417,10 @@
       <c r="O30" t="s">
         <v>33</v>
       </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>95.5</v>
+      </c>
       <c r="AC30" t="s">
         <v>35</v>
       </c>
@@ -2404,6 +2468,10 @@
       <c r="O31" t="s">
         <v>33</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>96.5</v>
+      </c>
       <c r="AC31" t="s">
         <v>35</v>
       </c>
@@ -2451,6 +2519,10 @@
       <c r="O32" t="s">
         <v>33</v>
       </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
       <c r="AC32" t="s">
         <v>35</v>
       </c>
@@ -2498,6 +2570,10 @@
       <c r="O33" t="s">
         <v>33</v>
       </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>103.5</v>
+      </c>
       <c r="AC33" t="s">
         <v>35</v>
       </c>
@@ -2545,6 +2621,10 @@
       <c r="O34" t="s">
         <v>33</v>
       </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>104.5</v>
+      </c>
       <c r="AC34" t="s">
         <v>35</v>
       </c>
@@ -2592,6 +2672,10 @@
       <c r="O35" t="s">
         <v>33</v>
       </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>114.5</v>
+      </c>
       <c r="AC35" t="s">
         <v>35</v>
       </c>
@@ -2639,6 +2723,10 @@
       <c r="O36" t="s">
         <v>33</v>
       </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>116.5</v>
+      </c>
       <c r="AC36" t="s">
         <v>35</v>
       </c>
@@ -2686,6 +2774,10 @@
       <c r="O37" t="s">
         <v>33</v>
       </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>111.5</v>
+      </c>
       <c r="AC37" t="s">
         <v>35</v>
       </c>
@@ -2733,6 +2825,10 @@
       <c r="O38" t="s">
         <v>33</v>
       </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>107.5</v>
+      </c>
       <c r="AC38" t="s">
         <v>35</v>
       </c>
@@ -2786,6 +2882,10 @@
       <c r="O39" t="s">
         <v>33</v>
       </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>103.25</v>
+      </c>
       <c r="AC39" t="s">
         <v>35</v>
       </c>
@@ -2833,6 +2933,10 @@
       <c r="O40" t="s">
         <v>33</v>
       </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="AC40" t="s">
         <v>35</v>
       </c>
@@ -2880,6 +2984,10 @@
       <c r="O41" t="s">
         <v>33</v>
       </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>98.5</v>
+      </c>
       <c r="AC41" t="s">
         <v>35</v>
       </c>
@@ -2927,6 +3035,10 @@
       <c r="O42" t="s">
         <v>33</v>
       </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
       <c r="AC42" t="s">
         <v>35</v>
       </c>
@@ -2974,6 +3086,10 @@
       <c r="O43" t="s">
         <v>33</v>
       </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>105.75</v>
+      </c>
       <c r="AC43" t="s">
         <v>35</v>
       </c>
@@ -3021,6 +3137,10 @@
       <c r="O44" t="s">
         <v>33</v>
       </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
       <c r="AC44" t="s">
         <v>35</v>
       </c>
@@ -3068,6 +3188,10 @@
       <c r="O45" t="s">
         <v>33</v>
       </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
       <c r="AC45" t="s">
         <v>35</v>
       </c>
@@ -3115,6 +3239,10 @@
       <c r="O46" t="s">
         <v>33</v>
       </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>109.75</v>
+      </c>
       <c r="AC46" t="s">
         <v>35</v>
       </c>
@@ -3162,6 +3290,10 @@
       <c r="O47" t="s">
         <v>33</v>
       </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>116.25</v>
+      </c>
       <c r="AC47" t="s">
         <v>35</v>
       </c>
@@ -3209,6 +3341,10 @@
       <c r="O48" t="s">
         <v>33</v>
       </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>117.5</v>
+      </c>
       <c r="AC48" t="s">
         <v>35</v>
       </c>
@@ -3256,6 +3392,10 @@
       <c r="O49" t="s">
         <v>33</v>
       </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>116.25</v>
+      </c>
       <c r="AC49" t="s">
         <v>35</v>
       </c>
@@ -3303,6 +3443,10 @@
       <c r="O50" t="s">
         <v>33</v>
       </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
       <c r="AC50" t="s">
         <v>35</v>
       </c>
@@ -3350,6 +3494,10 @@
       <c r="O51" t="s">
         <v>33</v>
       </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>117.75</v>
+      </c>
       <c r="AC51" t="s">
         <v>35</v>
       </c>
@@ -3397,6 +3545,10 @@
       <c r="O52" t="s">
         <v>33</v>
       </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>116.5</v>
+      </c>
       <c r="AC52" t="s">
         <v>35</v>
       </c>
@@ -3444,6 +3596,10 @@
       <c r="O53" t="s">
         <v>33</v>
       </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>111.5</v>
+      </c>
       <c r="AC53" t="s">
         <v>35</v>
       </c>
@@ -3491,6 +3647,10 @@
       <c r="O54" t="s">
         <v>33</v>
       </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>104.25</v>
+      </c>
       <c r="AC54" t="s">
         <v>35</v>
       </c>
@@ -3538,6 +3698,10 @@
       <c r="O55" t="s">
         <v>33</v>
       </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>100.75</v>
+      </c>
       <c r="AC55" t="s">
         <v>35</v>
       </c>
@@ -3585,6 +3749,10 @@
       <c r="O56" t="s">
         <v>33</v>
       </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>100.25</v>
+      </c>
       <c r="AC56" t="s">
         <v>35</v>
       </c>
@@ -3632,6 +3800,10 @@
       <c r="O57" t="s">
         <v>33</v>
       </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
       <c r="AC57" t="s">
         <v>35</v>
       </c>
@@ -3679,6 +3851,10 @@
       <c r="O58" t="s">
         <v>33</v>
       </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>95.5</v>
+      </c>
       <c r="AC58" t="s">
         <v>35</v>
       </c>
@@ -3726,6 +3902,10 @@
       <c r="O59" t="s">
         <v>33</v>
       </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="AC59" t="s">
         <v>35</v>
       </c>
@@ -3773,6 +3953,10 @@
       <c r="O60" t="s">
         <v>33</v>
       </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
       <c r="AC60" t="s">
         <v>35</v>
       </c>
@@ -3820,6 +4004,10 @@
       <c r="O61" t="s">
         <v>33</v>
       </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
       <c r="AC61" t="s">
         <v>35</v>
       </c>
@@ -3867,6 +4055,10 @@
       <c r="O62" t="s">
         <v>33</v>
       </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>89.25</v>
+      </c>
       <c r="AC62" t="s">
         <v>35</v>
       </c>
@@ -3914,6 +4106,10 @@
       <c r="O63" t="s">
         <v>33</v>
       </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>84.75</v>
+      </c>
       <c r="AC63" t="s">
         <v>35</v>
       </c>
@@ -3961,6 +4157,10 @@
       <c r="O64" t="s">
         <v>33</v>
       </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>82.25</v>
+      </c>
       <c r="AC64" t="s">
         <v>35</v>
       </c>
@@ -4008,6 +4208,10 @@
       <c r="O65" t="s">
         <v>33</v>
       </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="AC65" t="s">
         <v>35</v>
       </c>
@@ -4061,6 +4265,10 @@
       <c r="O66" t="s">
         <v>33</v>
       </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>78.5</v>
+      </c>
       <c r="AC66" t="s">
         <v>35</v>
       </c>
@@ -4108,6 +4316,10 @@
       <c r="O67" t="s">
         <v>33</v>
       </c>
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>77.75</v>
+      </c>
       <c r="AC67" t="s">
         <v>35</v>
       </c>
@@ -4155,6 +4367,10 @@
       <c r="O68" t="s">
         <v>33</v>
       </c>
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>78.5</v>
+      </c>
       <c r="AC68" t="s">
         <v>35</v>
       </c>
@@ -4202,6 +4418,10 @@
       <c r="O69" t="s">
         <v>33</v>
       </c>
+      <c r="P69">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
       <c r="AC69" t="s">
         <v>35</v>
       </c>
@@ -4249,6 +4469,10 @@
       <c r="O70" t="s">
         <v>33</v>
       </c>
+      <c r="P70">
+        <f t="shared" si="0"/>
+        <v>84.75</v>
+      </c>
       <c r="AC70" t="s">
         <v>35</v>
       </c>
@@ -4296,6 +4520,10 @@
       <c r="O71" t="s">
         <v>33</v>
       </c>
+      <c r="P71">
+        <f t="shared" si="0"/>
+        <v>88.25</v>
+      </c>
       <c r="AC71" t="s">
         <v>35</v>
       </c>
@@ -4343,6 +4571,10 @@
       <c r="O72" t="s">
         <v>33</v>
       </c>
+      <c r="P72">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
       <c r="AC72" t="s">
         <v>35</v>
       </c>
@@ -4390,6 +4622,10 @@
       <c r="O73" t="s">
         <v>33</v>
       </c>
+      <c r="P73">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
       <c r="AC73" t="s">
         <v>35</v>
       </c>
@@ -4437,6 +4673,10 @@
       <c r="O74" t="s">
         <v>33</v>
       </c>
+      <c r="P74">
+        <f t="shared" si="0"/>
+        <v>91.75</v>
+      </c>
       <c r="AC74" t="s">
         <v>35</v>
       </c>
@@ -4484,6 +4724,10 @@
       <c r="O75" t="s">
         <v>33</v>
       </c>
+      <c r="P75">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="AC75" t="s">
         <v>35</v>
       </c>
@@ -4531,6 +4775,10 @@
       <c r="O76" t="s">
         <v>33</v>
       </c>
+      <c r="P76">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
       <c r="AC76" t="s">
         <v>35</v>
       </c>
@@ -4578,6 +4826,10 @@
       <c r="O77" t="s">
         <v>33</v>
       </c>
+      <c r="P77">
+        <f t="shared" si="0"/>
+        <v>84.75</v>
+      </c>
       <c r="AC77" t="s">
         <v>35</v>
       </c>
@@ -4625,6 +4877,10 @@
       <c r="O78" t="s">
         <v>33</v>
       </c>
+      <c r="P78">
+        <f t="shared" si="0"/>
+        <v>83.25</v>
+      </c>
       <c r="AC78" t="s">
         <v>35</v>
       </c>
@@ -4672,6 +4928,10 @@
       <c r="O79" t="s">
         <v>33</v>
       </c>
+      <c r="P79">
+        <f t="shared" si="0"/>
+        <v>81.25</v>
+      </c>
       <c r="AC79" t="s">
         <v>35</v>
       </c>
@@ -4719,6 +4979,10 @@
       <c r="O80" t="s">
         <v>33</v>
       </c>
+      <c r="P80">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
       <c r="AC80" t="s">
         <v>35</v>
       </c>
@@ -4766,6 +5030,10 @@
       <c r="O81" t="s">
         <v>33</v>
       </c>
+      <c r="P81">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
       <c r="AC81" t="s">
         <v>35</v>
       </c>
@@ -4813,6 +5081,10 @@
       <c r="O82" t="s">
         <v>33</v>
       </c>
+      <c r="P82">
+        <f t="shared" ref="P82:P145" si="1">AVERAGE(N80,N81,N83,N84)</f>
+        <v>85</v>
+      </c>
       <c r="AC82" t="s">
         <v>35</v>
       </c>
@@ -4860,6 +5132,10 @@
       <c r="O83" t="s">
         <v>33</v>
       </c>
+      <c r="P83">
+        <f t="shared" si="1"/>
+        <v>86.25</v>
+      </c>
       <c r="AC83" t="s">
         <v>35</v>
       </c>
@@ -4907,6 +5183,10 @@
       <c r="O84" t="s">
         <v>33</v>
       </c>
+      <c r="P84">
+        <f t="shared" si="1"/>
+        <v>89.75</v>
+      </c>
       <c r="AC84" t="s">
         <v>35</v>
       </c>
@@ -4954,6 +5234,10 @@
       <c r="O85" t="s">
         <v>33</v>
       </c>
+      <c r="P85">
+        <f t="shared" si="1"/>
+        <v>95.5</v>
+      </c>
       <c r="AC85" t="s">
         <v>35</v>
       </c>
@@ -5001,6 +5285,10 @@
       <c r="O86" t="s">
         <v>33</v>
       </c>
+      <c r="P86">
+        <f t="shared" si="1"/>
+        <v>102.75</v>
+      </c>
       <c r="AC86" t="s">
         <v>35</v>
       </c>
@@ -5048,6 +5336,10 @@
       <c r="O87" t="s">
         <v>33</v>
       </c>
+      <c r="P87">
+        <f t="shared" si="1"/>
+        <v>106.25</v>
+      </c>
       <c r="AC87" t="s">
         <v>35</v>
       </c>
@@ -5095,6 +5387,10 @@
       <c r="O88" t="s">
         <v>33</v>
       </c>
+      <c r="P88">
+        <f t="shared" si="1"/>
+        <v>109.5</v>
+      </c>
       <c r="AC88" t="s">
         <v>35</v>
       </c>
@@ -5142,6 +5438,10 @@
       <c r="O89" t="s">
         <v>33</v>
       </c>
+      <c r="P89">
+        <f t="shared" si="1"/>
+        <v>114.75</v>
+      </c>
       <c r="AC89" t="s">
         <v>35</v>
       </c>
@@ -5189,6 +5489,10 @@
       <c r="O90" t="s">
         <v>33</v>
       </c>
+      <c r="P90">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="AC90" t="s">
         <v>35</v>
       </c>
@@ -5236,6 +5540,10 @@
       <c r="O91" t="s">
         <v>33</v>
       </c>
+      <c r="P91">
+        <f t="shared" si="1"/>
+        <v>109.25</v>
+      </c>
       <c r="AC91" t="s">
         <v>35</v>
       </c>
@@ -5283,6 +5591,10 @@
       <c r="O92" t="s">
         <v>33</v>
       </c>
+      <c r="P92">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
       <c r="AC92" t="s">
         <v>35</v>
       </c>
@@ -5330,6 +5642,10 @@
       <c r="O93" t="s">
         <v>33</v>
       </c>
+      <c r="P93">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
       <c r="AC93" t="s">
         <v>35</v>
       </c>
@@ -5383,6 +5699,10 @@
       <c r="O94" t="s">
         <v>33</v>
       </c>
+      <c r="P94">
+        <f t="shared" si="1"/>
+        <v>99.75</v>
+      </c>
       <c r="AC94" t="s">
         <v>35</v>
       </c>
@@ -5430,6 +5750,10 @@
       <c r="O95" t="s">
         <v>33</v>
       </c>
+      <c r="P95">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
       <c r="AC95" t="s">
         <v>35</v>
       </c>
@@ -5477,6 +5801,10 @@
       <c r="O96" t="s">
         <v>33</v>
       </c>
+      <c r="P96">
+        <f t="shared" si="1"/>
+        <v>97.25</v>
+      </c>
       <c r="AC96" t="s">
         <v>35</v>
       </c>
@@ -5524,6 +5852,10 @@
       <c r="O97" t="s">
         <v>33</v>
       </c>
+      <c r="P97">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
       <c r="AC97" t="s">
         <v>35</v>
       </c>
@@ -5571,6 +5903,10 @@
       <c r="O98" t="s">
         <v>33</v>
       </c>
+      <c r="P98">
+        <f t="shared" si="1"/>
+        <v>91.25</v>
+      </c>
       <c r="AC98" t="s">
         <v>35</v>
       </c>
@@ -5618,6 +5954,10 @@
       <c r="O99" t="s">
         <v>33</v>
       </c>
+      <c r="P99">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
       <c r="AC99" t="s">
         <v>35</v>
       </c>
@@ -5665,6 +6005,10 @@
       <c r="O100" t="s">
         <v>33</v>
       </c>
+      <c r="P100">
+        <f t="shared" si="1"/>
+        <v>85.75</v>
+      </c>
       <c r="AC100" t="s">
         <v>35</v>
       </c>
@@ -5712,6 +6056,10 @@
       <c r="O101" t="s">
         <v>33</v>
       </c>
+      <c r="P101">
+        <f t="shared" si="1"/>
+        <v>84.5</v>
+      </c>
       <c r="AC101" t="s">
         <v>35</v>
       </c>
@@ -5759,6 +6107,10 @@
       <c r="O102" t="s">
         <v>33</v>
       </c>
+      <c r="P102">
+        <f t="shared" si="1"/>
+        <v>85.75</v>
+      </c>
       <c r="AC102" t="s">
         <v>35</v>
       </c>
@@ -5806,6 +6158,10 @@
       <c r="O103" t="s">
         <v>33</v>
       </c>
+      <c r="P103">
+        <f t="shared" si="1"/>
+        <v>85.75</v>
+      </c>
       <c r="AC103" t="s">
         <v>35</v>
       </c>
@@ -5853,6 +6209,10 @@
       <c r="O104" t="s">
         <v>33</v>
       </c>
+      <c r="P104">
+        <f t="shared" si="1"/>
+        <v>85.75</v>
+      </c>
       <c r="AC104" t="s">
         <v>35</v>
       </c>
@@ -5900,6 +6260,10 @@
       <c r="O105" t="s">
         <v>33</v>
       </c>
+      <c r="P105">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
       <c r="AC105" t="s">
         <v>35</v>
       </c>
@@ -5947,6 +6311,10 @@
       <c r="O106" t="s">
         <v>33</v>
       </c>
+      <c r="P106">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
       <c r="AC106" t="s">
         <v>35</v>
       </c>
@@ -5994,6 +6362,10 @@
       <c r="O107" t="s">
         <v>33</v>
       </c>
+      <c r="P107">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
       <c r="AC107" t="s">
         <v>35</v>
       </c>
@@ -6041,6 +6413,10 @@
       <c r="O108" t="s">
         <v>33</v>
       </c>
+      <c r="P108">
+        <f t="shared" si="1"/>
+        <v>84.5</v>
+      </c>
       <c r="AC108" t="s">
         <v>35</v>
       </c>
@@ -6088,6 +6464,10 @@
       <c r="O109" t="s">
         <v>33</v>
       </c>
+      <c r="P109">
+        <f t="shared" si="1"/>
+        <v>85.5</v>
+      </c>
       <c r="AC109" t="s">
         <v>35</v>
       </c>
@@ -6135,6 +6515,10 @@
       <c r="O110" t="s">
         <v>33</v>
       </c>
+      <c r="P110">
+        <f t="shared" si="1"/>
+        <v>85.75</v>
+      </c>
       <c r="AC110" t="s">
         <v>35</v>
       </c>
@@ -6188,6 +6572,10 @@
       <c r="O111" t="s">
         <v>33</v>
       </c>
+      <c r="P111">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
       <c r="AC111" t="s">
         <v>35</v>
       </c>
@@ -6235,6 +6623,10 @@
       <c r="O112" t="s">
         <v>33</v>
       </c>
+      <c r="P112">
+        <f t="shared" si="1"/>
+        <v>92.25</v>
+      </c>
       <c r="AC112" t="s">
         <v>35</v>
       </c>
@@ -6282,6 +6674,10 @@
       <c r="O113" t="s">
         <v>33</v>
       </c>
+      <c r="P113">
+        <f t="shared" si="1"/>
+        <v>99.5</v>
+      </c>
       <c r="AC113" t="s">
         <v>35</v>
       </c>
@@ -6329,6 +6725,10 @@
       <c r="O114" t="s">
         <v>33</v>
       </c>
+      <c r="P114">
+        <f t="shared" si="1"/>
+        <v>109.75</v>
+      </c>
       <c r="AC114" t="s">
         <v>35</v>
       </c>
@@ -6376,6 +6776,10 @@
       <c r="O115" t="s">
         <v>33</v>
       </c>
+      <c r="P115">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
       <c r="AC115" t="s">
         <v>35</v>
       </c>
@@ -6423,6 +6827,10 @@
       <c r="O116" t="s">
         <v>33</v>
       </c>
+      <c r="P116">
+        <f t="shared" si="1"/>
+        <v>128.75</v>
+      </c>
       <c r="AC116" t="s">
         <v>35</v>
       </c>
@@ -6470,6 +6878,10 @@
       <c r="O117" t="s">
         <v>33</v>
       </c>
+      <c r="P117">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
       <c r="AC117" t="s">
         <v>35</v>
       </c>
@@ -6517,6 +6929,10 @@
       <c r="O118" t="s">
         <v>33</v>
       </c>
+      <c r="P118">
+        <f t="shared" si="1"/>
+        <v>143.75</v>
+      </c>
       <c r="AC118" t="s">
         <v>35</v>
       </c>
@@ -6564,6 +6980,10 @@
       <c r="O119" t="s">
         <v>33</v>
       </c>
+      <c r="P119">
+        <f t="shared" si="1"/>
+        <v>147.75</v>
+      </c>
       <c r="AC119" t="s">
         <v>35</v>
       </c>
@@ -6611,6 +7031,10 @@
       <c r="O120" t="s">
         <v>33</v>
       </c>
+      <c r="P120">
+        <f t="shared" si="1"/>
+        <v>153.25</v>
+      </c>
       <c r="AC120" t="s">
         <v>35</v>
       </c>
@@ -6658,6 +7082,10 @@
       <c r="O121" t="s">
         <v>33</v>
       </c>
+      <c r="P121">
+        <f t="shared" si="1"/>
+        <v>152.25</v>
+      </c>
       <c r="AC121" t="s">
         <v>35</v>
       </c>
@@ -6705,6 +7133,10 @@
       <c r="O122" t="s">
         <v>33</v>
       </c>
+      <c r="P122">
+        <f t="shared" si="1"/>
+        <v>149.25</v>
+      </c>
       <c r="AC122" t="s">
         <v>35</v>
       </c>
@@ -6752,6 +7184,10 @@
       <c r="O123" t="s">
         <v>33</v>
       </c>
+      <c r="P123">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
       <c r="AC123" t="s">
         <v>35</v>
       </c>
@@ -6799,6 +7235,10 @@
       <c r="O124" t="s">
         <v>33</v>
       </c>
+      <c r="P124">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
       <c r="AC124" t="s">
         <v>35</v>
       </c>
@@ -6846,6 +7286,10 @@
       <c r="O125" t="s">
         <v>33</v>
       </c>
+      <c r="P125">
+        <f t="shared" si="1"/>
+        <v>137.25</v>
+      </c>
       <c r="AC125" t="s">
         <v>35</v>
       </c>
@@ -6893,6 +7337,10 @@
       <c r="O126" t="s">
         <v>33</v>
       </c>
+      <c r="P126">
+        <f t="shared" si="1"/>
+        <v>129.5</v>
+      </c>
       <c r="AC126" t="s">
         <v>35</v>
       </c>
@@ -6940,6 +7388,10 @@
       <c r="O127" t="s">
         <v>33</v>
       </c>
+      <c r="P127">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
       <c r="AC127" t="s">
         <v>35</v>
       </c>
@@ -6987,6 +7439,10 @@
       <c r="O128" t="s">
         <v>33</v>
       </c>
+      <c r="P128">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
       <c r="AC128" t="s">
         <v>35</v>
       </c>
@@ -7034,6 +7490,10 @@
       <c r="O129" t="s">
         <v>33</v>
       </c>
+      <c r="P129">
+        <f t="shared" si="1"/>
+        <v>115.5</v>
+      </c>
       <c r="AC129" t="s">
         <v>35</v>
       </c>
@@ -7081,6 +7541,10 @@
       <c r="O130" t="s">
         <v>33</v>
       </c>
+      <c r="P130">
+        <f t="shared" si="1"/>
+        <v>113.25</v>
+      </c>
       <c r="AC130" t="s">
         <v>35</v>
       </c>
@@ -7128,6 +7592,10 @@
       <c r="O131" t="s">
         <v>33</v>
       </c>
+      <c r="P131">
+        <f t="shared" si="1"/>
+        <v>112.75</v>
+      </c>
       <c r="AC131" t="s">
         <v>35</v>
       </c>
@@ -7175,6 +7643,10 @@
       <c r="O132" t="s">
         <v>33</v>
       </c>
+      <c r="P132">
+        <f t="shared" si="1"/>
+        <v>112.75</v>
+      </c>
       <c r="AC132" t="s">
         <v>35</v>
       </c>
@@ -7222,6 +7694,10 @@
       <c r="O133" t="s">
         <v>33</v>
       </c>
+      <c r="P133">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
       <c r="AC133" t="s">
         <v>35</v>
       </c>
@@ -7269,6 +7745,10 @@
       <c r="O134" t="s">
         <v>33</v>
       </c>
+      <c r="P134">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
       <c r="AC134" t="s">
         <v>35</v>
       </c>
@@ -7316,6 +7796,10 @@
       <c r="O135" t="s">
         <v>33</v>
       </c>
+      <c r="P135">
+        <f t="shared" si="1"/>
+        <v>113.5</v>
+      </c>
       <c r="AC135" t="s">
         <v>35</v>
       </c>
@@ -7363,6 +7847,10 @@
       <c r="O136" t="s">
         <v>33</v>
       </c>
+      <c r="P136">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
       <c r="AC136" t="s">
         <v>35</v>
       </c>
@@ -7410,6 +7898,10 @@
       <c r="O137" t="s">
         <v>33</v>
       </c>
+      <c r="P137">
+        <f t="shared" si="1"/>
+        <v>111.25</v>
+      </c>
       <c r="AC137" t="s">
         <v>35</v>
       </c>
@@ -7457,6 +7949,10 @@
       <c r="O138" t="s">
         <v>33</v>
       </c>
+      <c r="P138">
+        <f t="shared" si="1"/>
+        <v>110.75</v>
+      </c>
       <c r="AC138" t="s">
         <v>35</v>
       </c>
@@ -7504,6 +8000,10 @@
       <c r="O139" t="s">
         <v>33</v>
       </c>
+      <c r="P139">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
       <c r="AC139" t="s">
         <v>35</v>
       </c>
@@ -7557,6 +8057,10 @@
       <c r="O140" t="s">
         <v>33</v>
       </c>
+      <c r="P140">
+        <f t="shared" si="1"/>
+        <v>107.5</v>
+      </c>
       <c r="AC140" t="s">
         <v>35</v>
       </c>
@@ -7604,6 +8108,10 @@
       <c r="O141" t="s">
         <v>33</v>
       </c>
+      <c r="P141">
+        <f t="shared" si="1"/>
+        <v>110.25</v>
+      </c>
       <c r="AC141" t="s">
         <v>35</v>
       </c>
@@ -7651,6 +8159,10 @@
       <c r="O142" t="s">
         <v>33</v>
       </c>
+      <c r="P142">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
       <c r="AC142" t="s">
         <v>35</v>
       </c>
@@ -7698,6 +8210,10 @@
       <c r="O143" t="s">
         <v>33</v>
       </c>
+      <c r="P143">
+        <f t="shared" si="1"/>
+        <v>119.75</v>
+      </c>
       <c r="AC143" t="s">
         <v>35</v>
       </c>
@@ -7745,6 +8261,10 @@
       <c r="O144" t="s">
         <v>33</v>
       </c>
+      <c r="P144">
+        <f t="shared" si="1"/>
+        <v>120.75</v>
+      </c>
       <c r="AC144" t="s">
         <v>35</v>
       </c>
@@ -7792,6 +8312,10 @@
       <c r="O145" t="s">
         <v>33</v>
       </c>
+      <c r="P145">
+        <f t="shared" si="1"/>
+        <v>122.25</v>
+      </c>
       <c r="AC145" t="s">
         <v>35</v>
       </c>
@@ -7839,6 +8363,10 @@
       <c r="O146" t="s">
         <v>33</v>
       </c>
+      <c r="P146">
+        <f t="shared" ref="P146:P209" si="2">AVERAGE(N144,N145,N147,N148)</f>
+        <v>128.25</v>
+      </c>
       <c r="AC146" t="s">
         <v>35</v>
       </c>
@@ -7886,6 +8414,10 @@
       <c r="O147" t="s">
         <v>33</v>
       </c>
+      <c r="P147">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
       <c r="AC147" t="s">
         <v>35</v>
       </c>
@@ -7933,6 +8465,10 @@
       <c r="O148" t="s">
         <v>33</v>
       </c>
+      <c r="P148">
+        <f t="shared" si="2"/>
+        <v>129.75</v>
+      </c>
       <c r="AC148" t="s">
         <v>35</v>
       </c>
@@ -7980,6 +8516,10 @@
       <c r="O149" t="s">
         <v>33</v>
       </c>
+      <c r="P149">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
       <c r="AC149" t="s">
         <v>35</v>
       </c>
@@ -8027,6 +8567,10 @@
       <c r="O150" t="s">
         <v>33</v>
       </c>
+      <c r="P150">
+        <f t="shared" si="2"/>
+        <v>130.75</v>
+      </c>
       <c r="AC150" t="s">
         <v>35</v>
       </c>
@@ -8074,6 +8618,10 @@
       <c r="O151" t="s">
         <v>33</v>
       </c>
+      <c r="P151">
+        <f t="shared" si="2"/>
+        <v>129.25</v>
+      </c>
       <c r="AC151" t="s">
         <v>35</v>
       </c>
@@ -8121,6 +8669,10 @@
       <c r="O152" t="s">
         <v>33</v>
       </c>
+      <c r="P152">
+        <f t="shared" si="2"/>
+        <v>126.5</v>
+      </c>
       <c r="AC152" t="s">
         <v>35</v>
       </c>
@@ -8168,6 +8720,10 @@
       <c r="O153" t="s">
         <v>33</v>
       </c>
+      <c r="P153">
+        <f t="shared" si="2"/>
+        <v>123.5</v>
+      </c>
       <c r="AC153" t="s">
         <v>35</v>
       </c>
@@ -8215,6 +8771,10 @@
       <c r="O154" t="s">
         <v>33</v>
       </c>
+      <c r="P154">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
       <c r="AC154" t="s">
         <v>35</v>
       </c>
@@ -8262,6 +8822,10 @@
       <c r="O155" t="s">
         <v>33</v>
       </c>
+      <c r="P155">
+        <f t="shared" si="2"/>
+        <v>115.75</v>
+      </c>
       <c r="AC155" t="s">
         <v>35</v>
       </c>
@@ -8309,6 +8873,10 @@
       <c r="O156" t="s">
         <v>33</v>
       </c>
+      <c r="P156">
+        <f t="shared" si="2"/>
+        <v>112.75</v>
+      </c>
       <c r="AC156" t="s">
         <v>35</v>
       </c>
@@ -8356,6 +8924,10 @@
       <c r="O157" t="s">
         <v>33</v>
       </c>
+      <c r="P157">
+        <f t="shared" si="2"/>
+        <v>112.25</v>
+      </c>
       <c r="AC157" t="s">
         <v>35</v>
       </c>
@@ -8403,6 +8975,10 @@
       <c r="O158" t="s">
         <v>33</v>
       </c>
+      <c r="P158">
+        <f t="shared" si="2"/>
+        <v>111.25</v>
+      </c>
       <c r="AC158" t="s">
         <v>35</v>
       </c>
@@ -8450,6 +9026,10 @@
       <c r="O159" t="s">
         <v>33</v>
       </c>
+      <c r="P159">
+        <f t="shared" si="2"/>
+        <v>109.75</v>
+      </c>
       <c r="AC159" t="s">
         <v>35</v>
       </c>
@@ -8497,6 +9077,10 @@
       <c r="O160" t="s">
         <v>33</v>
       </c>
+      <c r="P160">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
       <c r="AC160" t="s">
         <v>35</v>
       </c>
@@ -8544,6 +9128,10 @@
       <c r="O161" t="s">
         <v>33</v>
       </c>
+      <c r="P161">
+        <f t="shared" si="2"/>
+        <v>112.5</v>
+      </c>
       <c r="AC161" t="s">
         <v>35</v>
       </c>
@@ -8591,6 +9179,10 @@
       <c r="O162" t="s">
         <v>33</v>
       </c>
+      <c r="P162">
+        <f t="shared" si="2"/>
+        <v>111.25</v>
+      </c>
       <c r="AC162" t="s">
         <v>35</v>
       </c>
@@ -8638,6 +9230,10 @@
       <c r="O163" t="s">
         <v>33</v>
       </c>
+      <c r="P163">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
       <c r="AC163" t="s">
         <v>35</v>
       </c>
@@ -8685,6 +9281,10 @@
       <c r="O164" t="s">
         <v>33</v>
       </c>
+      <c r="P164">
+        <f t="shared" si="2"/>
+        <v>111.5</v>
+      </c>
       <c r="AC164" t="s">
         <v>35</v>
       </c>
@@ -8732,6 +9332,10 @@
       <c r="O165" t="s">
         <v>33</v>
       </c>
+      <c r="P165">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
       <c r="AC165" t="s">
         <v>35</v>
       </c>
@@ -8779,6 +9383,10 @@
       <c r="O166" t="s">
         <v>33</v>
       </c>
+      <c r="P166">
+        <f t="shared" si="2"/>
+        <v>112.25</v>
+      </c>
       <c r="AC166" t="s">
         <v>35</v>
       </c>
@@ -8826,6 +9434,10 @@
       <c r="O167" t="s">
         <v>33</v>
       </c>
+      <c r="P167">
+        <f t="shared" si="2"/>
+        <v>112.25</v>
+      </c>
       <c r="AC167" t="s">
         <v>35</v>
       </c>
@@ -8873,6 +9485,10 @@
       <c r="O168" t="s">
         <v>33</v>
       </c>
+      <c r="P168">
+        <f t="shared" si="2"/>
+        <v>113.75</v>
+      </c>
       <c r="AC168" t="s">
         <v>35</v>
       </c>
@@ -8920,6 +9536,10 @@
       <c r="O169" t="s">
         <v>33</v>
       </c>
+      <c r="P169">
+        <f t="shared" si="2"/>
+        <v>113.75</v>
+      </c>
       <c r="AC169" t="s">
         <v>35</v>
       </c>
@@ -8967,6 +9587,10 @@
       <c r="O170" t="s">
         <v>33</v>
       </c>
+      <c r="P170">
+        <f t="shared" si="2"/>
+        <v>112.5</v>
+      </c>
       <c r="AC170" t="s">
         <v>35</v>
       </c>
@@ -9014,6 +9638,10 @@
       <c r="O171" t="s">
         <v>33</v>
       </c>
+      <c r="P171">
+        <f t="shared" si="2"/>
+        <v>111.5</v>
+      </c>
       <c r="AC171" t="s">
         <v>35</v>
       </c>
@@ -9061,6 +9689,10 @@
       <c r="O172" t="s">
         <v>33</v>
       </c>
+      <c r="P172">
+        <f t="shared" si="2"/>
+        <v>111.75</v>
+      </c>
       <c r="AC172" t="s">
         <v>35</v>
       </c>
@@ -9108,6 +9740,10 @@
       <c r="O173" t="s">
         <v>33</v>
       </c>
+      <c r="P173">
+        <f t="shared" si="2"/>
+        <v>113.75</v>
+      </c>
       <c r="AC173" t="s">
         <v>35</v>
       </c>
@@ -9155,6 +9791,10 @@
       <c r="O174" t="s">
         <v>33</v>
       </c>
+      <c r="P174">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
       <c r="AC174" t="s">
         <v>35</v>
       </c>
@@ -9202,6 +9842,10 @@
       <c r="O175" t="s">
         <v>33</v>
       </c>
+      <c r="P175">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
       <c r="AC175" t="s">
         <v>35</v>
       </c>
@@ -9249,6 +9893,10 @@
       <c r="O176" t="s">
         <v>33</v>
       </c>
+      <c r="P176">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
       <c r="AC176" t="s">
         <v>35</v>
       </c>
@@ -9296,6 +9944,10 @@
       <c r="O177" t="s">
         <v>33</v>
       </c>
+      <c r="P177">
+        <f t="shared" si="2"/>
+        <v>118.25</v>
+      </c>
       <c r="AC177" t="s">
         <v>35</v>
       </c>
@@ -9343,6 +9995,10 @@
       <c r="O178" t="s">
         <v>33</v>
       </c>
+      <c r="P178">
+        <f t="shared" si="2"/>
+        <v>115.5</v>
+      </c>
       <c r="AC178" t="s">
         <v>35</v>
       </c>
@@ -9390,6 +10046,10 @@
       <c r="O179" t="s">
         <v>33</v>
       </c>
+      <c r="P179">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
       <c r="AC179" t="s">
         <v>35</v>
       </c>
@@ -9437,6 +10097,10 @@
       <c r="O180" t="s">
         <v>33</v>
       </c>
+      <c r="P180">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
       <c r="AC180" t="s">
         <v>35</v>
       </c>
@@ -9484,6 +10148,10 @@
       <c r="O181" t="s">
         <v>33</v>
       </c>
+      <c r="P181">
+        <f t="shared" si="2"/>
+        <v>105.75</v>
+      </c>
       <c r="AC181" t="s">
         <v>35</v>
       </c>
@@ -9531,6 +10199,10 @@
       <c r="O182" t="s">
         <v>33</v>
       </c>
+      <c r="P182">
+        <f t="shared" si="2"/>
+        <v>101.5</v>
+      </c>
       <c r="AC182" t="s">
         <v>35</v>
       </c>
@@ -9578,6 +10250,10 @@
       <c r="O183" t="s">
         <v>33</v>
       </c>
+      <c r="P183">
+        <f t="shared" si="2"/>
+        <v>99.75</v>
+      </c>
       <c r="AC183" t="s">
         <v>35</v>
       </c>
@@ -9625,6 +10301,10 @@
       <c r="O184" t="s">
         <v>33</v>
       </c>
+      <c r="P184">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
       <c r="AC184" t="s">
         <v>35</v>
       </c>
@@ -9672,6 +10352,10 @@
       <c r="O185" t="s">
         <v>33</v>
       </c>
+      <c r="P185">
+        <f t="shared" si="2"/>
+        <v>100.25</v>
+      </c>
       <c r="AC185" t="s">
         <v>35</v>
       </c>
@@ -9719,6 +10403,10 @@
       <c r="O186" t="s">
         <v>33</v>
       </c>
+      <c r="P186">
+        <f t="shared" si="2"/>
+        <v>98.25</v>
+      </c>
       <c r="AC186" t="s">
         <v>35</v>
       </c>
@@ -9766,6 +10454,10 @@
       <c r="O187" t="s">
         <v>33</v>
       </c>
+      <c r="P187">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
       <c r="AC187" t="s">
         <v>35</v>
       </c>
@@ -9813,6 +10505,10 @@
       <c r="O188" t="s">
         <v>33</v>
       </c>
+      <c r="P188">
+        <f t="shared" si="2"/>
+        <v>95.5</v>
+      </c>
       <c r="AC188" t="s">
         <v>35</v>
       </c>
@@ -9860,6 +10556,10 @@
       <c r="O189" t="s">
         <v>33</v>
       </c>
+      <c r="P189">
+        <f t="shared" si="2"/>
+        <v>94.5</v>
+      </c>
       <c r="AC189" t="s">
         <v>35</v>
       </c>
@@ -9907,6 +10607,10 @@
       <c r="O190" t="s">
         <v>33</v>
       </c>
+      <c r="P190">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
       <c r="AC190" t="s">
         <v>35</v>
       </c>
@@ -9954,6 +10658,10 @@
       <c r="O191" t="s">
         <v>33</v>
       </c>
+      <c r="P191">
+        <f t="shared" si="2"/>
+        <v>93.5</v>
+      </c>
       <c r="AC191" t="s">
         <v>35</v>
       </c>
@@ -10001,6 +10709,10 @@
       <c r="O192" t="s">
         <v>33</v>
       </c>
+      <c r="P192">
+        <f t="shared" si="2"/>
+        <v>96.25</v>
+      </c>
       <c r="AC192" t="s">
         <v>35</v>
       </c>
@@ -10048,6 +10760,10 @@
       <c r="O193" t="s">
         <v>33</v>
       </c>
+      <c r="P193">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
       <c r="AC193" t="s">
         <v>35</v>
       </c>
@@ -10095,6 +10811,10 @@
       <c r="O194" t="s">
         <v>33</v>
       </c>
+      <c r="P194">
+        <f t="shared" si="2"/>
+        <v>99.25</v>
+      </c>
       <c r="AC194" t="s">
         <v>35</v>
       </c>
@@ -10142,6 +10862,10 @@
       <c r="O195" t="s">
         <v>33</v>
       </c>
+      <c r="P195">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
       <c r="AC195" t="s">
         <v>35</v>
       </c>
@@ -10189,6 +10913,10 @@
       <c r="O196" t="s">
         <v>33</v>
       </c>
+      <c r="P196">
+        <f t="shared" si="2"/>
+        <v>102.75</v>
+      </c>
       <c r="AC196" t="s">
         <v>35</v>
       </c>
@@ -10236,6 +10964,10 @@
       <c r="O197" t="s">
         <v>33</v>
       </c>
+      <c r="P197">
+        <f t="shared" si="2"/>
+        <v>102.5</v>
+      </c>
       <c r="AC197" t="s">
         <v>35</v>
       </c>
@@ -10283,6 +11015,10 @@
       <c r="O198" t="s">
         <v>33</v>
       </c>
+      <c r="P198">
+        <f t="shared" si="2"/>
+        <v>105.75</v>
+      </c>
       <c r="AC198" t="s">
         <v>35</v>
       </c>
@@ -10330,6 +11066,10 @@
       <c r="O199" t="s">
         <v>33</v>
       </c>
+      <c r="P199">
+        <f t="shared" si="2"/>
+        <v>104.25</v>
+      </c>
       <c r="AC199" t="s">
         <v>35</v>
       </c>
@@ -10377,6 +11117,10 @@
       <c r="O200" t="s">
         <v>33</v>
       </c>
+      <c r="P200">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
       <c r="AC200" t="s">
         <v>35</v>
       </c>
@@ -10424,6 +11168,10 @@
       <c r="O201" t="s">
         <v>33</v>
       </c>
+      <c r="P201">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
       <c r="AC201" t="s">
         <v>35</v>
       </c>
@@ -10471,6 +11219,10 @@
       <c r="O202" t="s">
         <v>33</v>
       </c>
+      <c r="P202">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
       <c r="AC202" t="s">
         <v>35</v>
       </c>
@@ -10518,6 +11270,10 @@
       <c r="O203" t="s">
         <v>33</v>
       </c>
+      <c r="P203">
+        <f t="shared" si="2"/>
+        <v>97.5</v>
+      </c>
       <c r="AC203" t="s">
         <v>35</v>
       </c>
@@ -10565,6 +11321,10 @@
       <c r="O204" t="s">
         <v>33</v>
       </c>
+      <c r="P204">
+        <f t="shared" si="2"/>
+        <v>93.75</v>
+      </c>
       <c r="AC204" t="s">
         <v>35</v>
       </c>
@@ -10612,6 +11372,10 @@
       <c r="O205" t="s">
         <v>33</v>
       </c>
+      <c r="P205">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
       <c r="AC205" t="s">
         <v>35</v>
       </c>
@@ -10659,6 +11423,10 @@
       <c r="O206" t="s">
         <v>33</v>
       </c>
+      <c r="P206">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
       <c r="AC206" t="s">
         <v>35</v>
       </c>
@@ -10706,6 +11474,10 @@
       <c r="O207" t="s">
         <v>33</v>
       </c>
+      <c r="P207">
+        <f t="shared" si="2"/>
+        <v>86.5</v>
+      </c>
       <c r="AC207" t="s">
         <v>35</v>
       </c>
@@ -10753,6 +11525,10 @@
       <c r="O208" t="s">
         <v>33</v>
       </c>
+      <c r="P208">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
       <c r="AC208" t="s">
         <v>35</v>
       </c>
@@ -10800,6 +11576,10 @@
       <c r="O209" t="s">
         <v>33</v>
       </c>
+      <c r="P209">
+        <f t="shared" si="2"/>
+        <v>84.25</v>
+      </c>
       <c r="AC209" t="s">
         <v>35</v>
       </c>
@@ -10847,6 +11627,10 @@
       <c r="O210" t="s">
         <v>33</v>
       </c>
+      <c r="P210">
+        <f t="shared" ref="P210:P273" si="3">AVERAGE(N208,N209,N211,N212)</f>
+        <v>83.25</v>
+      </c>
       <c r="AC210" t="s">
         <v>35</v>
       </c>
@@ -10894,6 +11678,10 @@
       <c r="O211" t="s">
         <v>33</v>
       </c>
+      <c r="P211">
+        <f t="shared" si="3"/>
+        <v>82.25</v>
+      </c>
       <c r="AC211" t="s">
         <v>35</v>
       </c>
@@ -10941,6 +11729,10 @@
       <c r="O212" t="s">
         <v>33</v>
       </c>
+      <c r="P212">
+        <f t="shared" si="3"/>
+        <v>81.5</v>
+      </c>
       <c r="AC212" t="s">
         <v>35</v>
       </c>
@@ -10988,6 +11780,10 @@
       <c r="O213" t="s">
         <v>33</v>
       </c>
+      <c r="P213">
+        <f t="shared" si="3"/>
+        <v>82.25</v>
+      </c>
       <c r="AC213" t="s">
         <v>35</v>
       </c>
@@ -11035,6 +11831,10 @@
       <c r="O214" t="s">
         <v>33</v>
       </c>
+      <c r="P214">
+        <f t="shared" si="3"/>
+        <v>83.25</v>
+      </c>
       <c r="AC214" t="s">
         <v>35</v>
       </c>
@@ -11082,6 +11882,10 @@
       <c r="O215" t="s">
         <v>33</v>
       </c>
+      <c r="P215">
+        <f t="shared" si="3"/>
+        <v>83.5</v>
+      </c>
       <c r="AC215" t="s">
         <v>35</v>
       </c>
@@ -11129,6 +11933,10 @@
       <c r="O216" t="s">
         <v>33</v>
       </c>
+      <c r="P216">
+        <f t="shared" si="3"/>
+        <v>85.25</v>
+      </c>
       <c r="AC216" t="s">
         <v>35</v>
       </c>
@@ -11176,6 +11984,10 @@
       <c r="O217" t="s">
         <v>33</v>
       </c>
+      <c r="P217">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
       <c r="AC217" t="s">
         <v>35</v>
       </c>
@@ -11223,6 +12035,10 @@
       <c r="O218" t="s">
         <v>33</v>
       </c>
+      <c r="P218">
+        <f t="shared" si="3"/>
+        <v>87.75</v>
+      </c>
       <c r="AC218" t="s">
         <v>35</v>
       </c>
@@ -11270,6 +12086,10 @@
       <c r="O219" t="s">
         <v>33</v>
       </c>
+      <c r="P219">
+        <f t="shared" si="3"/>
+        <v>87.25</v>
+      </c>
       <c r="AC219" t="s">
         <v>35</v>
       </c>
@@ -11317,6 +12137,10 @@
       <c r="O220" t="s">
         <v>33</v>
       </c>
+      <c r="P220">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
       <c r="AC220" t="s">
         <v>35</v>
       </c>
@@ -11364,6 +12188,10 @@
       <c r="O221" t="s">
         <v>33</v>
       </c>
+      <c r="P221">
+        <f t="shared" si="3"/>
+        <v>88.5</v>
+      </c>
       <c r="AC221" t="s">
         <v>35</v>
       </c>
@@ -11411,6 +12239,10 @@
       <c r="O222" t="s">
         <v>33</v>
       </c>
+      <c r="P222">
+        <f t="shared" si="3"/>
+        <v>88.5</v>
+      </c>
       <c r="AC222" t="s">
         <v>35</v>
       </c>
@@ -11458,6 +12290,10 @@
       <c r="O223" t="s">
         <v>33</v>
       </c>
+      <c r="P223">
+        <f t="shared" si="3"/>
+        <v>87.75</v>
+      </c>
       <c r="AC223" t="s">
         <v>35</v>
       </c>
@@ -11505,6 +12341,10 @@
       <c r="O224" t="s">
         <v>33</v>
       </c>
+      <c r="P224">
+        <f t="shared" si="3"/>
+        <v>89.25</v>
+      </c>
       <c r="AC224" t="s">
         <v>35</v>
       </c>
@@ -11552,6 +12392,10 @@
       <c r="O225" t="s">
         <v>33</v>
       </c>
+      <c r="P225">
+        <f t="shared" si="3"/>
+        <v>89.75</v>
+      </c>
       <c r="AC225" t="s">
         <v>35</v>
       </c>
@@ -11599,6 +12443,10 @@
       <c r="O226" t="s">
         <v>33</v>
       </c>
+      <c r="P226">
+        <f t="shared" si="3"/>
+        <v>89.5</v>
+      </c>
       <c r="AC226" t="s">
         <v>35</v>
       </c>
@@ -11646,6 +12494,10 @@
       <c r="O227" t="s">
         <v>33</v>
       </c>
+      <c r="P227">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
       <c r="AC227" t="s">
         <v>35</v>
       </c>
@@ -11693,6 +12545,10 @@
       <c r="O228" t="s">
         <v>33</v>
       </c>
+      <c r="P228">
+        <f t="shared" si="3"/>
+        <v>87.75</v>
+      </c>
       <c r="AC228" t="s">
         <v>35</v>
       </c>
@@ -11740,6 +12596,10 @@
       <c r="O229" t="s">
         <v>33</v>
       </c>
+      <c r="P229">
+        <f t="shared" si="3"/>
+        <v>87.75</v>
+      </c>
       <c r="AC229" t="s">
         <v>35</v>
       </c>
@@ -11787,6 +12647,10 @@
       <c r="O230" t="s">
         <v>33</v>
       </c>
+      <c r="P230">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
       <c r="AC230" t="s">
         <v>35</v>
       </c>
@@ -11834,6 +12698,10 @@
       <c r="O231" t="s">
         <v>33</v>
       </c>
+      <c r="P231">
+        <f t="shared" si="3"/>
+        <v>85.25</v>
+      </c>
       <c r="AC231" t="s">
         <v>35</v>
       </c>
@@ -11881,6 +12749,10 @@
       <c r="O232" t="s">
         <v>33</v>
       </c>
+      <c r="P232">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
       <c r="AC232" t="s">
         <v>35</v>
       </c>
@@ -11928,6 +12800,10 @@
       <c r="O233" t="s">
         <v>33</v>
       </c>
+      <c r="P233">
+        <f t="shared" si="3"/>
+        <v>86.75</v>
+      </c>
       <c r="AC233" t="s">
         <v>35</v>
       </c>
@@ -11975,6 +12851,10 @@
       <c r="O234" t="s">
         <v>33</v>
       </c>
+      <c r="P234">
+        <f t="shared" si="3"/>
+        <v>90.5</v>
+      </c>
       <c r="AC234" t="s">
         <v>35</v>
       </c>
@@ -12022,6 +12902,10 @@
       <c r="O235" t="s">
         <v>33</v>
       </c>
+      <c r="P235">
+        <f t="shared" si="3"/>
+        <v>85.75</v>
+      </c>
       <c r="AC235" t="s">
         <v>35</v>
       </c>
@@ -12069,6 +12953,10 @@
       <c r="O236" t="s">
         <v>33</v>
       </c>
+      <c r="P236">
+        <f t="shared" si="3"/>
+        <v>85.25</v>
+      </c>
       <c r="AC236" t="s">
         <v>35</v>
       </c>
@@ -12116,6 +13004,10 @@
       <c r="O237" t="s">
         <v>33</v>
       </c>
+      <c r="P237">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
       <c r="AC237" t="s">
         <v>35</v>
       </c>
@@ -12163,6 +13055,10 @@
       <c r="O238" t="s">
         <v>33</v>
       </c>
+      <c r="P238">
+        <f t="shared" si="3"/>
+        <v>84.25</v>
+      </c>
       <c r="AC238" t="s">
         <v>35</v>
       </c>
@@ -12210,6 +13106,10 @@
       <c r="O239" t="s">
         <v>33</v>
       </c>
+      <c r="P239">
+        <f t="shared" si="3"/>
+        <v>82.75</v>
+      </c>
       <c r="AC239" t="s">
         <v>35</v>
       </c>
@@ -12257,6 +13157,10 @@
       <c r="O240" t="s">
         <v>33</v>
       </c>
+      <c r="P240">
+        <f t="shared" si="3"/>
+        <v>85.5</v>
+      </c>
       <c r="AC240" t="s">
         <v>35</v>
       </c>
@@ -12304,6 +13208,10 @@
       <c r="O241" t="s">
         <v>33</v>
       </c>
+      <c r="P241">
+        <f t="shared" si="3"/>
+        <v>86.25</v>
+      </c>
       <c r="AC241" t="s">
         <v>35</v>
       </c>
@@ -12351,6 +13259,10 @@
       <c r="O242" t="s">
         <v>33</v>
       </c>
+      <c r="P242">
+        <f t="shared" si="3"/>
+        <v>86.75</v>
+      </c>
       <c r="AC242" t="s">
         <v>35</v>
       </c>
@@ -12398,6 +13310,10 @@
       <c r="O243" t="s">
         <v>33</v>
       </c>
+      <c r="P243">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
       <c r="AC243" t="s">
         <v>35</v>
       </c>
@@ -12445,6 +13361,10 @@
       <c r="O244" t="s">
         <v>33</v>
       </c>
+      <c r="P244">
+        <f t="shared" si="3"/>
+        <v>96.5</v>
+      </c>
       <c r="AC244" t="s">
         <v>35</v>
       </c>
@@ -12492,6 +13412,10 @@
       <c r="O245" t="s">
         <v>33</v>
       </c>
+      <c r="P245">
+        <f t="shared" si="3"/>
+        <v>93.5</v>
+      </c>
       <c r="AC245" t="s">
         <v>35</v>
       </c>
@@ -12539,6 +13463,10 @@
       <c r="O246" t="s">
         <v>33</v>
       </c>
+      <c r="P246">
+        <f t="shared" si="3"/>
+        <v>94.25</v>
+      </c>
       <c r="AC246" t="s">
         <v>35</v>
       </c>
@@ -12586,6 +13514,10 @@
       <c r="O247" t="s">
         <v>33</v>
       </c>
+      <c r="P247">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
       <c r="AC247" t="s">
         <v>35</v>
       </c>
@@ -12633,6 +13565,10 @@
       <c r="O248" t="s">
         <v>33</v>
       </c>
+      <c r="P248">
+        <f t="shared" si="3"/>
+        <v>97.25</v>
+      </c>
       <c r="AC248" t="s">
         <v>35</v>
       </c>
@@ -12680,6 +13616,10 @@
       <c r="O249" t="s">
         <v>33</v>
       </c>
+      <c r="P249">
+        <f t="shared" si="3"/>
+        <v>97.75</v>
+      </c>
       <c r="AC249" t="s">
         <v>35</v>
       </c>
@@ -12727,6 +13667,10 @@
       <c r="O250" t="s">
         <v>33</v>
       </c>
+      <c r="P250">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
       <c r="AC250" t="s">
         <v>35</v>
       </c>
@@ -12774,6 +13718,10 @@
       <c r="O251" t="s">
         <v>33</v>
       </c>
+      <c r="P251">
+        <f t="shared" si="3"/>
+        <v>95.25</v>
+      </c>
       <c r="AC251" t="s">
         <v>35</v>
       </c>
@@ -12821,6 +13769,10 @@
       <c r="O252" t="s">
         <v>33</v>
       </c>
+      <c r="P252">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
       <c r="AC252" t="s">
         <v>35</v>
       </c>
@@ -12868,6 +13820,10 @@
       <c r="O253" t="s">
         <v>33</v>
       </c>
+      <c r="P253">
+        <f t="shared" si="3"/>
+        <v>92.25</v>
+      </c>
       <c r="AC253" t="s">
         <v>35</v>
       </c>
@@ -12921,6 +13877,10 @@
       <c r="O254" t="s">
         <v>33</v>
       </c>
+      <c r="P254">
+        <f t="shared" si="3"/>
+        <v>90.75</v>
+      </c>
       <c r="AC254" t="s">
         <v>35</v>
       </c>
@@ -12968,6 +13928,10 @@
       <c r="O255" t="s">
         <v>33</v>
       </c>
+      <c r="P255">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
       <c r="AC255" t="s">
         <v>35</v>
       </c>
@@ -13015,6 +13979,10 @@
       <c r="O256" t="s">
         <v>33</v>
       </c>
+      <c r="P256">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
       <c r="AC256" t="s">
         <v>35</v>
       </c>
@@ -13062,6 +14030,10 @@
       <c r="O257" t="s">
         <v>33</v>
       </c>
+      <c r="P257">
+        <f t="shared" si="3"/>
+        <v>95.75</v>
+      </c>
       <c r="AC257" t="s">
         <v>35</v>
       </c>
@@ -13109,6 +14081,10 @@
       <c r="O258" t="s">
         <v>33</v>
       </c>
+      <c r="P258">
+        <f t="shared" si="3"/>
+        <v>100.25</v>
+      </c>
       <c r="AC258" t="s">
         <v>35</v>
       </c>
@@ -13156,6 +14132,10 @@
       <c r="O259" t="s">
         <v>33</v>
       </c>
+      <c r="P259">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
       <c r="AC259" t="s">
         <v>35</v>
       </c>
@@ -13203,6 +14183,10 @@
       <c r="O260" t="s">
         <v>33</v>
       </c>
+      <c r="P260">
+        <f t="shared" si="3"/>
+        <v>107.75</v>
+      </c>
       <c r="AC260" t="s">
         <v>35</v>
       </c>
@@ -13250,6 +14234,10 @@
       <c r="O261" t="s">
         <v>33</v>
       </c>
+      <c r="P261">
+        <f t="shared" si="3"/>
+        <v>111.25</v>
+      </c>
       <c r="AC261" t="s">
         <v>35</v>
       </c>
@@ -13297,6 +14285,10 @@
       <c r="O262" t="s">
         <v>33</v>
       </c>
+      <c r="P262">
+        <f t="shared" si="3"/>
+        <v>114.25</v>
+      </c>
       <c r="AC262" t="s">
         <v>35</v>
       </c>
@@ -13344,6 +14336,10 @@
       <c r="O263" t="s">
         <v>33</v>
       </c>
+      <c r="P263">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
       <c r="AC263" t="s">
         <v>35</v>
       </c>
@@ -13391,6 +14387,10 @@
       <c r="O264" t="s">
         <v>33</v>
       </c>
+      <c r="P264">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
       <c r="AC264" t="s">
         <v>35</v>
       </c>
@@ -13438,6 +14438,10 @@
       <c r="O265" t="s">
         <v>33</v>
       </c>
+      <c r="P265">
+        <f t="shared" si="3"/>
+        <v>116.25</v>
+      </c>
       <c r="AC265" t="s">
         <v>35</v>
       </c>
@@ -13485,6 +14489,10 @@
       <c r="O266" t="s">
         <v>33</v>
       </c>
+      <c r="P266">
+        <f t="shared" si="3"/>
+        <v>115.25</v>
+      </c>
       <c r="AC266" t="s">
         <v>35</v>
       </c>
@@ -13532,6 +14540,10 @@
       <c r="O267" t="s">
         <v>33</v>
       </c>
+      <c r="P267">
+        <f t="shared" si="3"/>
+        <v>113.5</v>
+      </c>
       <c r="AC267" t="s">
         <v>35</v>
       </c>
@@ -13579,6 +14591,10 @@
       <c r="O268" t="s">
         <v>33</v>
       </c>
+      <c r="P268">
+        <f t="shared" si="3"/>
+        <v>111.5</v>
+      </c>
       <c r="AC268" t="s">
         <v>35</v>
       </c>
@@ -13626,6 +14642,10 @@
       <c r="O269" t="s">
         <v>33</v>
       </c>
+      <c r="P269">
+        <f t="shared" si="3"/>
+        <v>109.5</v>
+      </c>
       <c r="AC269" t="s">
         <v>35</v>
       </c>
@@ -13673,6 +14693,10 @@
       <c r="O270" t="s">
         <v>33</v>
       </c>
+      <c r="P270">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
       <c r="AC270" t="s">
         <v>35</v>
       </c>
@@ -13720,6 +14744,10 @@
       <c r="O271" t="s">
         <v>33</v>
       </c>
+      <c r="P271">
+        <f t="shared" si="3"/>
+        <v>101.25</v>
+      </c>
       <c r="AC271" t="s">
         <v>35</v>
       </c>
@@ -13767,6 +14795,10 @@
       <c r="O272" t="s">
         <v>33</v>
       </c>
+      <c r="P272">
+        <f t="shared" si="3"/>
+        <v>98.75</v>
+      </c>
       <c r="AC272" t="s">
         <v>35</v>
       </c>
@@ -13814,6 +14846,10 @@
       <c r="O273" t="s">
         <v>33</v>
       </c>
+      <c r="P273">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
       <c r="AC273" t="s">
         <v>35</v>
       </c>
@@ -13861,6 +14897,10 @@
       <c r="O274" t="s">
         <v>33</v>
       </c>
+      <c r="P274">
+        <f t="shared" ref="P274:P337" si="4">AVERAGE(N272,N273,N275,N276)</f>
+        <v>98.5</v>
+      </c>
       <c r="AC274" t="s">
         <v>35</v>
       </c>
@@ -13908,6 +14948,10 @@
       <c r="O275" t="s">
         <v>33</v>
       </c>
+      <c r="P275">
+        <f t="shared" si="4"/>
+        <v>97.75</v>
+      </c>
       <c r="AC275" t="s">
         <v>35</v>
       </c>
@@ -13955,6 +14999,10 @@
       <c r="O276" t="s">
         <v>33</v>
       </c>
+      <c r="P276">
+        <f t="shared" si="4"/>
+        <v>100.25</v>
+      </c>
       <c r="AC276" t="s">
         <v>35</v>
       </c>
@@ -14002,6 +15050,10 @@
       <c r="O277" t="s">
         <v>33</v>
       </c>
+      <c r="P277">
+        <f t="shared" si="4"/>
+        <v>101.5</v>
+      </c>
       <c r="AC277" t="s">
         <v>35</v>
       </c>
@@ -14049,6 +15101,10 @@
       <c r="O278" t="s">
         <v>33</v>
       </c>
+      <c r="P278">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
       <c r="AC278" t="s">
         <v>35</v>
       </c>
@@ -14102,6 +15158,10 @@
       <c r="O279" t="s">
         <v>33</v>
       </c>
+      <c r="P279">
+        <f t="shared" si="4"/>
+        <v>99.5</v>
+      </c>
       <c r="AC279" t="s">
         <v>35</v>
       </c>
@@ -14149,6 +15209,10 @@
       <c r="O280" t="s">
         <v>33</v>
       </c>
+      <c r="P280">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
       <c r="AC280" t="s">
         <v>35</v>
       </c>
@@ -14196,6 +15260,10 @@
       <c r="O281" t="s">
         <v>33</v>
       </c>
+      <c r="P281">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
       <c r="AC281" t="s">
         <v>35</v>
       </c>
@@ -14243,6 +15311,10 @@
       <c r="O282" t="s">
         <v>33</v>
       </c>
+      <c r="P282">
+        <f t="shared" si="4"/>
+        <v>92.25</v>
+      </c>
       <c r="AC282" t="s">
         <v>35</v>
       </c>
@@ -14290,6 +15362,10 @@
       <c r="O283" t="s">
         <v>33</v>
       </c>
+      <c r="P283">
+        <f t="shared" si="4"/>
+        <v>90.75</v>
+      </c>
       <c r="AC283" t="s">
         <v>35</v>
       </c>
@@ -14337,6 +15413,10 @@
       <c r="O284" t="s">
         <v>33</v>
       </c>
+      <c r="P284">
+        <f t="shared" si="4"/>
+        <v>90.25</v>
+      </c>
       <c r="AC284" t="s">
         <v>35</v>
       </c>
@@ -14384,6 +15464,10 @@
       <c r="O285" t="s">
         <v>33</v>
       </c>
+      <c r="P285">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
       <c r="AC285" t="s">
         <v>35</v>
       </c>
@@ -14431,6 +15515,10 @@
       <c r="O286" t="s">
         <v>33</v>
       </c>
+      <c r="P286">
+        <f t="shared" si="4"/>
+        <v>87.75</v>
+      </c>
       <c r="AC286" t="s">
         <v>35</v>
       </c>
@@ -14478,6 +15566,10 @@
       <c r="O287" t="s">
         <v>33</v>
       </c>
+      <c r="P287">
+        <f t="shared" si="4"/>
+        <v>86.5</v>
+      </c>
       <c r="AC287" t="s">
         <v>35</v>
       </c>
@@ -14525,6 +15617,10 @@
       <c r="O288" t="s">
         <v>33</v>
       </c>
+      <c r="P288">
+        <f t="shared" si="4"/>
+        <v>86.75</v>
+      </c>
       <c r="AC288" t="s">
         <v>35</v>
       </c>
@@ -14572,6 +15668,10 @@
       <c r="O289" t="s">
         <v>33</v>
       </c>
+      <c r="P289">
+        <f t="shared" si="4"/>
+        <v>87.25</v>
+      </c>
       <c r="AC289" t="s">
         <v>35</v>
       </c>
@@ -14619,6 +15719,10 @@
       <c r="O290" t="s">
         <v>33</v>
       </c>
+      <c r="P290">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
       <c r="AC290" t="s">
         <v>35</v>
       </c>
@@ -14666,6 +15770,10 @@
       <c r="O291" t="s">
         <v>33</v>
       </c>
+      <c r="P291">
+        <f t="shared" si="4"/>
+        <v>84.75</v>
+      </c>
       <c r="AC291" t="s">
         <v>35</v>
       </c>
@@ -14713,6 +15821,10 @@
       <c r="O292" t="s">
         <v>33</v>
       </c>
+      <c r="P292">
+        <f t="shared" si="4"/>
+        <v>85.75</v>
+      </c>
       <c r="AC292" t="s">
         <v>35</v>
       </c>
@@ -14760,6 +15872,10 @@
       <c r="O293" t="s">
         <v>33</v>
       </c>
+      <c r="P293">
+        <f t="shared" si="4"/>
+        <v>85.75</v>
+      </c>
       <c r="AC293" t="s">
         <v>35</v>
       </c>
@@ -14807,6 +15923,10 @@
       <c r="O294" t="s">
         <v>33</v>
       </c>
+      <c r="P294">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
       <c r="AC294" t="s">
         <v>35</v>
       </c>
@@ -14854,6 +15974,10 @@
       <c r="O295" t="s">
         <v>33</v>
       </c>
+      <c r="P295">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
       <c r="AC295" t="s">
         <v>35</v>
       </c>
@@ -14901,6 +16025,10 @@
       <c r="O296" t="s">
         <v>33</v>
       </c>
+      <c r="P296">
+        <f t="shared" si="4"/>
+        <v>82.25</v>
+      </c>
       <c r="AC296" t="s">
         <v>35</v>
       </c>
@@ -14948,6 +16076,10 @@
       <c r="O297" t="s">
         <v>33</v>
       </c>
+      <c r="P297">
+        <f t="shared" si="4"/>
+        <v>82.75</v>
+      </c>
       <c r="AC297" t="s">
         <v>35</v>
       </c>
@@ -14995,6 +16127,10 @@
       <c r="O298" t="s">
         <v>33</v>
       </c>
+      <c r="P298">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
       <c r="AC298" t="s">
         <v>35</v>
       </c>
@@ -15042,6 +16178,10 @@
       <c r="O299" t="s">
         <v>33</v>
       </c>
+      <c r="P299">
+        <f t="shared" si="4"/>
+        <v>84.25</v>
+      </c>
       <c r="AC299" t="s">
         <v>35</v>
       </c>
@@ -15089,6 +16229,10 @@
       <c r="O300" t="s">
         <v>33</v>
       </c>
+      <c r="P300">
+        <f t="shared" si="4"/>
+        <v>86.75</v>
+      </c>
       <c r="AC300" t="s">
         <v>35</v>
       </c>
@@ -15136,6 +16280,10 @@
       <c r="O301" t="s">
         <v>33</v>
       </c>
+      <c r="P301">
+        <f t="shared" si="4"/>
+        <v>89.25</v>
+      </c>
       <c r="AC301" t="s">
         <v>35</v>
       </c>
@@ -15183,6 +16331,10 @@
       <c r="O302" t="s">
         <v>33</v>
       </c>
+      <c r="P302">
+        <f t="shared" si="4"/>
+        <v>91.75</v>
+      </c>
       <c r="AC302" t="s">
         <v>35</v>
       </c>
@@ -15230,6 +16382,10 @@
       <c r="O303" t="s">
         <v>33</v>
       </c>
+      <c r="P303">
+        <f t="shared" si="4"/>
+        <v>92.5</v>
+      </c>
       <c r="AC303" t="s">
         <v>35</v>
       </c>
@@ -15277,6 +16433,10 @@
       <c r="O304" t="s">
         <v>33</v>
       </c>
+      <c r="P304">
+        <f t="shared" si="4"/>
+        <v>91.25</v>
+      </c>
       <c r="AC304" t="s">
         <v>35</v>
       </c>
@@ -15324,6 +16484,10 @@
       <c r="O305" t="s">
         <v>33</v>
       </c>
+      <c r="P305">
+        <f t="shared" si="4"/>
+        <v>90.25</v>
+      </c>
       <c r="AC305" t="s">
         <v>35</v>
       </c>
@@ -15371,6 +16535,10 @@
       <c r="O306" t="s">
         <v>33</v>
       </c>
+      <c r="P306">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
       <c r="AC306" t="s">
         <v>35</v>
       </c>
@@ -15418,6 +16586,10 @@
       <c r="O307" t="s">
         <v>33</v>
       </c>
+      <c r="P307">
+        <f t="shared" si="4"/>
+        <v>86.75</v>
+      </c>
       <c r="AC307" t="s">
         <v>35</v>
       </c>
@@ -15465,6 +16637,10 @@
       <c r="O308" t="s">
         <v>33</v>
       </c>
+      <c r="P308">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
       <c r="AC308" t="s">
         <v>35</v>
       </c>
@@ -15512,6 +16688,10 @@
       <c r="O309" t="s">
         <v>33</v>
       </c>
+      <c r="P309">
+        <f t="shared" si="4"/>
+        <v>84.75</v>
+      </c>
       <c r="AC309" t="s">
         <v>35</v>
       </c>
@@ -15559,6 +16739,10 @@
       <c r="O310" t="s">
         <v>33</v>
       </c>
+      <c r="P310">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
       <c r="AC310" t="s">
         <v>35</v>
       </c>
@@ -15606,6 +16790,10 @@
       <c r="O311" t="s">
         <v>33</v>
       </c>
+      <c r="P311">
+        <f t="shared" si="4"/>
+        <v>84.75</v>
+      </c>
       <c r="AC311" t="s">
         <v>35</v>
       </c>
@@ -15653,6 +16841,10 @@
       <c r="O312" t="s">
         <v>33</v>
       </c>
+      <c r="P312">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
       <c r="AC312" t="s">
         <v>35</v>
       </c>
@@ -15700,6 +16892,10 @@
       <c r="O313" t="s">
         <v>33</v>
       </c>
+      <c r="P313">
+        <f t="shared" si="4"/>
+        <v>85.5</v>
+      </c>
       <c r="AC313" t="s">
         <v>35</v>
       </c>
@@ -15747,6 +16943,10 @@
       <c r="O314" t="s">
         <v>33</v>
       </c>
+      <c r="P314">
+        <f t="shared" si="4"/>
+        <v>84.75</v>
+      </c>
       <c r="AC314" t="s">
         <v>35</v>
       </c>
@@ -15794,6 +16994,10 @@
       <c r="O315" t="s">
         <v>33</v>
       </c>
+      <c r="P315">
+        <f t="shared" si="4"/>
+        <v>84.5</v>
+      </c>
       <c r="AC315" t="s">
         <v>35</v>
       </c>
@@ -15841,6 +17045,10 @@
       <c r="O316" t="s">
         <v>33</v>
       </c>
+      <c r="P316">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
       <c r="AC316" t="s">
         <v>35</v>
       </c>
@@ -15888,6 +17096,10 @@
       <c r="O317" t="s">
         <v>33</v>
       </c>
+      <c r="P317">
+        <f t="shared" si="4"/>
+        <v>83.75</v>
+      </c>
       <c r="AC317" t="s">
         <v>35</v>
       </c>
@@ -15941,6 +17153,10 @@
       <c r="O318" t="s">
         <v>33</v>
       </c>
+      <c r="P318">
+        <f t="shared" si="4"/>
+        <v>83.5</v>
+      </c>
       <c r="AC318" t="s">
         <v>35</v>
       </c>
@@ -15988,6 +17204,10 @@
       <c r="O319" t="s">
         <v>33</v>
       </c>
+      <c r="P319">
+        <f t="shared" si="4"/>
+        <v>85.75</v>
+      </c>
       <c r="AC319" t="s">
         <v>35</v>
       </c>
@@ -16035,6 +17255,10 @@
       <c r="O320" t="s">
         <v>33</v>
       </c>
+      <c r="P320">
+        <f t="shared" si="4"/>
+        <v>88.5</v>
+      </c>
       <c r="AC320" t="s">
         <v>35</v>
       </c>
@@ -16082,6 +17306,10 @@
       <c r="O321" t="s">
         <v>33</v>
       </c>
+      <c r="P321">
+        <f t="shared" si="4"/>
+        <v>92.5</v>
+      </c>
       <c r="AC321" t="s">
         <v>35</v>
       </c>
@@ -16129,6 +17357,10 @@
       <c r="O322" t="s">
         <v>33</v>
       </c>
+      <c r="P322">
+        <f t="shared" si="4"/>
+        <v>96.25</v>
+      </c>
       <c r="AC322" t="s">
         <v>35</v>
       </c>
@@ -16176,6 +17408,10 @@
       <c r="O323" t="s">
         <v>33</v>
       </c>
+      <c r="P323">
+        <f t="shared" si="4"/>
+        <v>98.75</v>
+      </c>
       <c r="AC323" t="s">
         <v>35</v>
       </c>
@@ -16223,6 +17459,10 @@
       <c r="O324" t="s">
         <v>33</v>
       </c>
+      <c r="P324">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
       <c r="AC324" t="s">
         <v>35</v>
       </c>
@@ -16270,6 +17510,10 @@
       <c r="O325" t="s">
         <v>33</v>
       </c>
+      <c r="P325">
+        <f t="shared" si="4"/>
+        <v>100.25</v>
+      </c>
       <c r="AC325" t="s">
         <v>35</v>
       </c>
@@ -16317,6 +17561,10 @@
       <c r="O326" t="s">
         <v>33</v>
       </c>
+      <c r="P326">
+        <f t="shared" si="4"/>
+        <v>97.25</v>
+      </c>
       <c r="AC326" t="s">
         <v>35</v>
       </c>
@@ -16364,6 +17612,10 @@
       <c r="O327" t="s">
         <v>33</v>
       </c>
+      <c r="P327">
+        <f t="shared" si="4"/>
+        <v>95.25</v>
+      </c>
       <c r="AC327" t="s">
         <v>35</v>
       </c>
@@ -16411,6 +17663,10 @@
       <c r="O328" t="s">
         <v>33</v>
       </c>
+      <c r="P328">
+        <f t="shared" si="4"/>
+        <v>92.25</v>
+      </c>
       <c r="AC328" t="s">
         <v>35</v>
       </c>
@@ -16458,6 +17714,10 @@
       <c r="O329" t="s">
         <v>33</v>
       </c>
+      <c r="P329">
+        <f t="shared" si="4"/>
+        <v>89.5</v>
+      </c>
       <c r="AC329" t="s">
         <v>35</v>
       </c>
@@ -16505,6 +17765,10 @@
       <c r="O330" t="s">
         <v>33</v>
       </c>
+      <c r="P330">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
       <c r="AC330" t="s">
         <v>35</v>
       </c>
@@ -16552,6 +17816,10 @@
       <c r="O331" t="s">
         <v>33</v>
       </c>
+      <c r="P331">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
       <c r="AC331" t="s">
         <v>35</v>
       </c>
@@ -16599,6 +17867,10 @@
       <c r="O332" t="s">
         <v>33</v>
       </c>
+      <c r="P332">
+        <f t="shared" si="4"/>
+        <v>83.25</v>
+      </c>
       <c r="AC332" t="s">
         <v>35</v>
       </c>
@@ -16646,6 +17918,10 @@
       <c r="O333" t="s">
         <v>33</v>
       </c>
+      <c r="P333">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
       <c r="AC333" t="s">
         <v>35</v>
       </c>
@@ -16693,6 +17969,10 @@
       <c r="O334" t="s">
         <v>33</v>
       </c>
+      <c r="P334">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
       <c r="AC334" t="s">
         <v>35</v>
       </c>
@@ -16740,6 +18020,10 @@
       <c r="O335" t="s">
         <v>33</v>
       </c>
+      <c r="P335">
+        <f t="shared" si="4"/>
+        <v>80.25</v>
+      </c>
       <c r="AC335" t="s">
         <v>35</v>
       </c>
@@ -16787,6 +18071,10 @@
       <c r="O336" t="s">
         <v>33</v>
       </c>
+      <c r="P336">
+        <f t="shared" si="4"/>
+        <v>82.25</v>
+      </c>
       <c r="AC336" t="s">
         <v>35</v>
       </c>
@@ -16834,6 +18122,10 @@
       <c r="O337" t="s">
         <v>33</v>
       </c>
+      <c r="P337">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
       <c r="AC337" t="s">
         <v>35</v>
       </c>
@@ -16887,6 +18179,10 @@
       <c r="O338" t="s">
         <v>33</v>
       </c>
+      <c r="P338">
+        <f t="shared" ref="P338:P401" si="5">AVERAGE(N336,N337,N339,N340)</f>
+        <v>85.25</v>
+      </c>
       <c r="AC338" t="s">
         <v>35</v>
       </c>
@@ -16934,6 +18230,10 @@
       <c r="O339" t="s">
         <v>33</v>
       </c>
+      <c r="P339">
+        <f t="shared" si="5"/>
+        <v>86.25</v>
+      </c>
       <c r="AC339" t="s">
         <v>35</v>
       </c>
@@ -16981,6 +18281,10 @@
       <c r="O340" t="s">
         <v>33</v>
       </c>
+      <c r="P340">
+        <f t="shared" si="5"/>
+        <v>88.25</v>
+      </c>
       <c r="AC340" t="s">
         <v>35</v>
       </c>
@@ -17028,6 +18332,10 @@
       <c r="O341" t="s">
         <v>33</v>
       </c>
+      <c r="P341">
+        <f t="shared" si="5"/>
+        <v>90.75</v>
+      </c>
       <c r="AC341" t="s">
         <v>35</v>
       </c>
@@ -17075,6 +18383,10 @@
       <c r="O342" t="s">
         <v>33</v>
       </c>
+      <c r="P342">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
       <c r="AC342" t="s">
         <v>35</v>
       </c>
@@ -17122,6 +18434,10 @@
       <c r="O343" t="s">
         <v>33</v>
       </c>
+      <c r="P343">
+        <f t="shared" si="5"/>
+        <v>94.75</v>
+      </c>
       <c r="AC343" t="s">
         <v>35</v>
       </c>
@@ -17169,6 +18485,10 @@
       <c r="O344" t="s">
         <v>33</v>
       </c>
+      <c r="P344">
+        <f t="shared" si="5"/>
+        <v>96.75</v>
+      </c>
       <c r="AC344" t="s">
         <v>35</v>
       </c>
@@ -17216,6 +18536,10 @@
       <c r="O345" t="s">
         <v>33</v>
       </c>
+      <c r="P345">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
       <c r="AC345" t="s">
         <v>35</v>
       </c>
@@ -17263,6 +18587,10 @@
       <c r="O346" t="s">
         <v>33</v>
       </c>
+      <c r="P346">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
       <c r="AC346" t="s">
         <v>35</v>
       </c>
@@ -17310,6 +18638,10 @@
       <c r="O347" t="s">
         <v>33</v>
       </c>
+      <c r="P347">
+        <f t="shared" si="5"/>
+        <v>106.75</v>
+      </c>
       <c r="AC347" t="s">
         <v>35</v>
       </c>
@@ -17357,6 +18689,10 @@
       <c r="O348" t="s">
         <v>33</v>
       </c>
+      <c r="P348">
+        <f t="shared" si="5"/>
+        <v>108.5</v>
+      </c>
       <c r="AC348" t="s">
         <v>35</v>
       </c>
@@ -17404,6 +18740,10 @@
       <c r="O349" t="s">
         <v>33</v>
       </c>
+      <c r="P349">
+        <f t="shared" si="5"/>
+        <v>109.5</v>
+      </c>
       <c r="AC349" t="s">
         <v>35</v>
       </c>
@@ -17451,6 +18791,10 @@
       <c r="O350" t="s">
         <v>33</v>
       </c>
+      <c r="P350">
+        <f t="shared" si="5"/>
+        <v>109.75</v>
+      </c>
       <c r="AC350" t="s">
         <v>35</v>
       </c>
@@ -17498,6 +18842,10 @@
       <c r="O351" t="s">
         <v>33</v>
       </c>
+      <c r="P351">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
       <c r="AC351" t="s">
         <v>35</v>
       </c>
@@ -17545,6 +18893,10 @@
       <c r="O352" t="s">
         <v>33</v>
       </c>
+      <c r="P352">
+        <f t="shared" si="5"/>
+        <v>106.5</v>
+      </c>
       <c r="AC352" t="s">
         <v>35</v>
       </c>
@@ -17592,6 +18944,10 @@
       <c r="O353" t="s">
         <v>33</v>
       </c>
+      <c r="P353">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
       <c r="AC353" t="s">
         <v>35</v>
       </c>
@@ -17639,6 +18995,10 @@
       <c r="O354" t="s">
         <v>33</v>
       </c>
+      <c r="P354">
+        <f t="shared" si="5"/>
+        <v>106.75</v>
+      </c>
       <c r="AC354" t="s">
         <v>35</v>
       </c>
@@ -17686,6 +19046,10 @@
       <c r="O355" t="s">
         <v>33</v>
       </c>
+      <c r="P355">
+        <f t="shared" si="5"/>
+        <v>105.5</v>
+      </c>
       <c r="AC355" t="s">
         <v>35</v>
       </c>
@@ -17733,6 +19097,10 @@
       <c r="O356" t="s">
         <v>33</v>
       </c>
+      <c r="P356">
+        <f t="shared" si="5"/>
+        <v>107.25</v>
+      </c>
       <c r="AC356" t="s">
         <v>35</v>
       </c>
@@ -17780,6 +19148,10 @@
       <c r="O357" t="s">
         <v>33</v>
       </c>
+      <c r="P357">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
       <c r="AC357" t="s">
         <v>35</v>
       </c>
@@ -17827,6 +19199,10 @@
       <c r="O358" t="s">
         <v>33</v>
       </c>
+      <c r="P358">
+        <f t="shared" si="5"/>
+        <v>106.5</v>
+      </c>
       <c r="AC358" t="s">
         <v>35</v>
       </c>
@@ -17874,6 +19250,10 @@
       <c r="O359" t="s">
         <v>33</v>
       </c>
+      <c r="P359">
+        <f t="shared" si="5"/>
+        <v>107.5</v>
+      </c>
       <c r="AC359" t="s">
         <v>35</v>
       </c>
@@ -17921,6 +19301,10 @@
       <c r="O360" t="s">
         <v>33</v>
       </c>
+      <c r="P360">
+        <f t="shared" si="5"/>
+        <v>109.75</v>
+      </c>
       <c r="AC360" t="s">
         <v>35</v>
       </c>
@@ -17968,6 +19352,10 @@
       <c r="O361" t="s">
         <v>33</v>
       </c>
+      <c r="P361">
+        <f t="shared" si="5"/>
+        <v>107.25</v>
+      </c>
       <c r="AC361" t="s">
         <v>35</v>
       </c>
@@ -18015,6 +19403,10 @@
       <c r="O362" t="s">
         <v>33</v>
       </c>
+      <c r="P362">
+        <f t="shared" si="5"/>
+        <v>107.5</v>
+      </c>
       <c r="AC362" t="s">
         <v>35</v>
       </c>
@@ -18062,6 +19454,10 @@
       <c r="O363" t="s">
         <v>33</v>
       </c>
+      <c r="P363">
+        <f t="shared" si="5"/>
+        <v>111.75</v>
+      </c>
       <c r="AC363" t="s">
         <v>35</v>
       </c>
@@ -18115,6 +19511,10 @@
       <c r="O364" t="s">
         <v>33</v>
       </c>
+      <c r="P364">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
       <c r="AC364" t="s">
         <v>35</v>
       </c>
@@ -18162,6 +19562,10 @@
       <c r="O365" t="s">
         <v>33</v>
       </c>
+      <c r="P365">
+        <f t="shared" si="5"/>
+        <v>112.25</v>
+      </c>
       <c r="AC365" t="s">
         <v>35</v>
       </c>
@@ -18209,6 +19613,10 @@
       <c r="O366" t="s">
         <v>33</v>
       </c>
+      <c r="P366">
+        <f t="shared" si="5"/>
+        <v>113.25</v>
+      </c>
       <c r="AC366" t="s">
         <v>35</v>
       </c>
@@ -18256,6 +19664,10 @@
       <c r="O367" t="s">
         <v>33</v>
       </c>
+      <c r="P367">
+        <f t="shared" si="5"/>
+        <v>113.5</v>
+      </c>
       <c r="AC367" t="s">
         <v>35</v>
       </c>
@@ -18303,6 +19715,10 @@
       <c r="O368" t="s">
         <v>33</v>
       </c>
+      <c r="P368">
+        <f t="shared" si="5"/>
+        <v>114.75</v>
+      </c>
       <c r="AC368" t="s">
         <v>35</v>
       </c>
@@ -18350,6 +19766,10 @@
       <c r="O369" t="s">
         <v>33</v>
       </c>
+      <c r="P369">
+        <f t="shared" si="5"/>
+        <v>117.75</v>
+      </c>
       <c r="AC369" t="s">
         <v>35</v>
       </c>
@@ -18397,6 +19817,10 @@
       <c r="O370" t="s">
         <v>33</v>
       </c>
+      <c r="P370">
+        <f t="shared" si="5"/>
+        <v>119.25</v>
+      </c>
       <c r="AC370" t="s">
         <v>35</v>
       </c>
@@ -18444,6 +19868,10 @@
       <c r="O371" t="s">
         <v>33</v>
       </c>
+      <c r="P371">
+        <f t="shared" si="5"/>
+        <v>118.25</v>
+      </c>
       <c r="AC371" t="s">
         <v>35</v>
       </c>
@@ -18491,6 +19919,10 @@
       <c r="O372" t="s">
         <v>33</v>
       </c>
+      <c r="P372">
+        <f t="shared" si="5"/>
+        <v>121.5</v>
+      </c>
       <c r="AC372" t="s">
         <v>35</v>
       </c>
@@ -18538,6 +19970,10 @@
       <c r="O373" t="s">
         <v>33</v>
       </c>
+      <c r="P373">
+        <f t="shared" si="5"/>
+        <v>123.75</v>
+      </c>
       <c r="AC373" t="s">
         <v>35</v>
       </c>
@@ -18585,6 +20021,10 @@
       <c r="O374" t="s">
         <v>33</v>
       </c>
+      <c r="P374">
+        <f t="shared" si="5"/>
+        <v>121.25</v>
+      </c>
       <c r="AC374" t="s">
         <v>35</v>
       </c>
@@ -18632,6 +20072,10 @@
       <c r="O375" t="s">
         <v>33</v>
       </c>
+      <c r="P375">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
       <c r="AC375" t="s">
         <v>35</v>
       </c>
@@ -18679,6 +20123,10 @@
       <c r="O376" t="s">
         <v>33</v>
       </c>
+      <c r="P376">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
       <c r="AC376" t="s">
         <v>35</v>
       </c>
@@ -18726,6 +20174,10 @@
       <c r="O377" t="s">
         <v>33</v>
       </c>
+      <c r="P377">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
       <c r="AC377" t="s">
         <v>35</v>
       </c>
@@ -18773,6 +20225,10 @@
       <c r="O378" t="s">
         <v>33</v>
       </c>
+      <c r="P378">
+        <f t="shared" si="5"/>
+        <v>108.25</v>
+      </c>
       <c r="AC378" t="s">
         <v>35</v>
       </c>
@@ -18820,6 +20276,10 @@
       <c r="O379" t="s">
         <v>33</v>
       </c>
+      <c r="P379">
+        <f t="shared" si="5"/>
+        <v>107.75</v>
+      </c>
       <c r="AC379" t="s">
         <v>35</v>
       </c>
@@ -18867,6 +20327,10 @@
       <c r="O380" t="s">
         <v>33</v>
       </c>
+      <c r="P380">
+        <f t="shared" si="5"/>
+        <v>106.5</v>
+      </c>
       <c r="AC380" t="s">
         <v>35</v>
       </c>
@@ -18914,6 +20378,10 @@
       <c r="O381" t="s">
         <v>33</v>
       </c>
+      <c r="P381">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
       <c r="AC381" t="s">
         <v>35</v>
       </c>
@@ -18961,6 +20429,10 @@
       <c r="O382" t="s">
         <v>33</v>
       </c>
+      <c r="P382">
+        <f t="shared" si="5"/>
+        <v>102.5</v>
+      </c>
       <c r="AC382" t="s">
         <v>35</v>
       </c>
@@ -19008,6 +20480,10 @@
       <c r="O383" t="s">
         <v>33</v>
       </c>
+      <c r="P383">
+        <f t="shared" si="5"/>
+        <v>104.25</v>
+      </c>
       <c r="AC383" t="s">
         <v>35</v>
       </c>
@@ -19055,6 +20531,10 @@
       <c r="O384" t="s">
         <v>33</v>
       </c>
+      <c r="P384">
+        <f t="shared" si="5"/>
+        <v>101.75</v>
+      </c>
       <c r="AC384" t="s">
         <v>35</v>
       </c>
@@ -19102,6 +20582,10 @@
       <c r="O385" t="s">
         <v>33</v>
       </c>
+      <c r="P385">
+        <f t="shared" si="5"/>
+        <v>100.5</v>
+      </c>
       <c r="AC385" t="s">
         <v>35</v>
       </c>
@@ -19149,6 +20633,10 @@
       <c r="O386" t="s">
         <v>33</v>
       </c>
+      <c r="P386">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
       <c r="AC386" t="s">
         <v>35</v>
       </c>
@@ -19196,6 +20684,10 @@
       <c r="O387" t="s">
         <v>33</v>
       </c>
+      <c r="P387">
+        <f t="shared" si="5"/>
+        <v>98.75</v>
+      </c>
       <c r="AC387" t="s">
         <v>35</v>
       </c>
@@ -19243,6 +20735,10 @@
       <c r="O388" t="s">
         <v>33</v>
       </c>
+      <c r="P388">
+        <f t="shared" si="5"/>
+        <v>96.75</v>
+      </c>
       <c r="AC388" t="s">
         <v>35</v>
       </c>
@@ -19290,6 +20786,10 @@
       <c r="O389" t="s">
         <v>33</v>
       </c>
+      <c r="P389">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
       <c r="AC389" t="s">
         <v>35</v>
       </c>
@@ -19343,6 +20843,10 @@
       <c r="O390" t="s">
         <v>33</v>
       </c>
+      <c r="P390">
+        <f t="shared" si="5"/>
+        <v>98.75</v>
+      </c>
       <c r="AC390" t="s">
         <v>35</v>
       </c>
@@ -19390,6 +20894,10 @@
       <c r="O391" t="s">
         <v>33</v>
       </c>
+      <c r="P391">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
       <c r="AC391" t="s">
         <v>35</v>
       </c>
@@ -19437,6 +20945,10 @@
       <c r="O392" t="s">
         <v>33</v>
       </c>
+      <c r="P392">
+        <f t="shared" si="5"/>
+        <v>102.75</v>
+      </c>
       <c r="AC392" t="s">
         <v>35</v>
       </c>
@@ -19484,6 +20996,10 @@
       <c r="O393" t="s">
         <v>33</v>
       </c>
+      <c r="P393">
+        <f t="shared" si="5"/>
+        <v>105.5</v>
+      </c>
       <c r="AC393" t="s">
         <v>35</v>
       </c>
@@ -19531,6 +21047,10 @@
       <c r="O394" t="s">
         <v>33</v>
       </c>
+      <c r="P394">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
       <c r="AC394" t="s">
         <v>35</v>
       </c>
@@ -19578,6 +21098,10 @@
       <c r="O395" t="s">
         <v>33</v>
       </c>
+      <c r="P395">
+        <f t="shared" si="5"/>
+        <v>110.5</v>
+      </c>
       <c r="AC395" t="s">
         <v>35</v>
       </c>
@@ -19625,6 +21149,10 @@
       <c r="O396" t="s">
         <v>33</v>
       </c>
+      <c r="P396">
+        <f t="shared" si="5"/>
+        <v>108.5</v>
+      </c>
       <c r="AC396" t="s">
         <v>35</v>
       </c>
@@ -19672,6 +21200,10 @@
       <c r="O397" t="s">
         <v>33</v>
       </c>
+      <c r="P397">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
       <c r="AC397" t="s">
         <v>35</v>
       </c>
@@ -19719,6 +21251,10 @@
       <c r="O398" t="s">
         <v>33</v>
       </c>
+      <c r="P398">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
       <c r="AC398" t="s">
         <v>35</v>
       </c>
@@ -19766,6 +21302,10 @@
       <c r="O399" t="s">
         <v>33</v>
       </c>
+      <c r="P399">
+        <f t="shared" si="5"/>
+        <v>104.75</v>
+      </c>
       <c r="AC399" t="s">
         <v>35</v>
       </c>
@@ -19813,6 +21353,10 @@
       <c r="O400" t="s">
         <v>33</v>
       </c>
+      <c r="P400">
+        <f t="shared" si="5"/>
+        <v>101.75</v>
+      </c>
       <c r="AC400" t="s">
         <v>35</v>
       </c>
@@ -19860,6 +21404,10 @@
       <c r="O401" t="s">
         <v>33</v>
       </c>
+      <c r="P401">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
       <c r="AC401" t="s">
         <v>35</v>
       </c>
@@ -19907,6 +21455,10 @@
       <c r="O402" t="s">
         <v>33</v>
       </c>
+      <c r="P402">
+        <f t="shared" ref="P402:P465" si="6">AVERAGE(N400,N401,N403,N404)</f>
+        <v>101</v>
+      </c>
       <c r="AC402" t="s">
         <v>35</v>
       </c>
@@ -19954,6 +21506,10 @@
       <c r="O403" t="s">
         <v>33</v>
       </c>
+      <c r="P403">
+        <f t="shared" si="6"/>
+        <v>99.75</v>
+      </c>
       <c r="AC403" t="s">
         <v>35</v>
       </c>
@@ -20001,6 +21557,10 @@
       <c r="O404" t="s">
         <v>33</v>
       </c>
+      <c r="P404">
+        <f t="shared" si="6"/>
+        <v>97.75</v>
+      </c>
       <c r="AC404" t="s">
         <v>35</v>
       </c>
@@ -20048,6 +21608,10 @@
       <c r="O405" t="s">
         <v>33</v>
       </c>
+      <c r="P405">
+        <f t="shared" si="6"/>
+        <v>96.5</v>
+      </c>
       <c r="AC405" t="s">
         <v>35</v>
       </c>
@@ -20095,6 +21659,10 @@
       <c r="O406" t="s">
         <v>33</v>
       </c>
+      <c r="P406">
+        <f t="shared" si="6"/>
+        <v>96.25</v>
+      </c>
       <c r="AC406" t="s">
         <v>35</v>
       </c>
@@ -20142,6 +21710,10 @@
       <c r="O407" t="s">
         <v>33</v>
       </c>
+      <c r="P407">
+        <f t="shared" si="6"/>
+        <v>94.75</v>
+      </c>
       <c r="AC407" t="s">
         <v>35</v>
       </c>
@@ -20195,6 +21767,10 @@
       <c r="O408" t="s">
         <v>33</v>
       </c>
+      <c r="P408">
+        <f t="shared" si="6"/>
+        <v>92.25</v>
+      </c>
       <c r="AC408" t="s">
         <v>35</v>
       </c>
@@ -20242,6 +21818,10 @@
       <c r="O409" t="s">
         <v>33</v>
       </c>
+      <c r="P409">
+        <f t="shared" si="6"/>
+        <v>90.75</v>
+      </c>
       <c r="AC409" t="s">
         <v>35</v>
       </c>
@@ -20289,6 +21869,10 @@
       <c r="O410" t="s">
         <v>33</v>
       </c>
+      <c r="P410">
+        <f t="shared" si="6"/>
+        <v>89.25</v>
+      </c>
       <c r="AC410" t="s">
         <v>35</v>
       </c>
@@ -20336,6 +21920,10 @@
       <c r="O411" t="s">
         <v>33</v>
       </c>
+      <c r="P411">
+        <f t="shared" si="6"/>
+        <v>89.25</v>
+      </c>
       <c r="AC411" t="s">
         <v>35</v>
       </c>
@@ -20383,6 +21971,10 @@
       <c r="O412" t="s">
         <v>33</v>
       </c>
+      <c r="P412">
+        <f t="shared" si="6"/>
+        <v>89.5</v>
+      </c>
       <c r="AC412" t="s">
         <v>35</v>
       </c>
@@ -20430,6 +22022,10 @@
       <c r="O413" t="s">
         <v>33</v>
       </c>
+      <c r="P413">
+        <f t="shared" si="6"/>
+        <v>88.5</v>
+      </c>
       <c r="AC413" t="s">
         <v>35</v>
       </c>
@@ -20477,6 +22073,10 @@
       <c r="O414" t="s">
         <v>33</v>
       </c>
+      <c r="P414">
+        <f t="shared" si="6"/>
+        <v>89.25</v>
+      </c>
       <c r="AC414" t="s">
         <v>35</v>
       </c>
@@ -20524,6 +22124,10 @@
       <c r="O415" t="s">
         <v>33</v>
       </c>
+      <c r="P415">
+        <f t="shared" si="6"/>
+        <v>92.5</v>
+      </c>
       <c r="AC415" t="s">
         <v>35</v>
       </c>
@@ -20571,6 +22175,10 @@
       <c r="O416" t="s">
         <v>33</v>
       </c>
+      <c r="P416">
+        <f t="shared" si="6"/>
+        <v>94.5</v>
+      </c>
       <c r="AC416" t="s">
         <v>35</v>
       </c>
@@ -20618,6 +22226,10 @@
       <c r="O417" t="s">
         <v>33</v>
       </c>
+      <c r="P417">
+        <f t="shared" si="6"/>
+        <v>97.25</v>
+      </c>
       <c r="AC417" t="s">
         <v>35</v>
       </c>
@@ -20665,6 +22277,10 @@
       <c r="O418" t="s">
         <v>33</v>
       </c>
+      <c r="P418">
+        <f t="shared" si="6"/>
+        <v>104.25</v>
+      </c>
       <c r="AC418" t="s">
         <v>35</v>
       </c>
@@ -20712,6 +22328,10 @@
       <c r="O419" t="s">
         <v>33</v>
       </c>
+      <c r="P419">
+        <f t="shared" si="6"/>
+        <v>109.75</v>
+      </c>
       <c r="AC419" t="s">
         <v>35</v>
       </c>
@@ -20759,6 +22379,10 @@
       <c r="O420" t="s">
         <v>33</v>
       </c>
+      <c r="P420">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
       <c r="AC420" t="s">
         <v>35</v>
       </c>
@@ -20806,6 +22430,10 @@
       <c r="O421" t="s">
         <v>33</v>
       </c>
+      <c r="P421">
+        <f t="shared" si="6"/>
+        <v>119.75</v>
+      </c>
       <c r="AC421" t="s">
         <v>35</v>
       </c>
@@ -20853,6 +22481,10 @@
       <c r="O422" t="s">
         <v>33</v>
       </c>
+      <c r="P422">
+        <f t="shared" si="6"/>
+        <v>122.25</v>
+      </c>
       <c r="AC422" t="s">
         <v>35</v>
       </c>
@@ -20900,6 +22532,10 @@
       <c r="O423" t="s">
         <v>33</v>
       </c>
+      <c r="P423">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
       <c r="AC423" t="s">
         <v>35</v>
       </c>
@@ -20947,6 +22583,10 @@
       <c r="O424" t="s">
         <v>33</v>
       </c>
+      <c r="P424">
+        <f t="shared" si="6"/>
+        <v>121.75</v>
+      </c>
       <c r="AC424" t="s">
         <v>35</v>
       </c>
@@ -20994,6 +22634,10 @@
       <c r="O425" t="s">
         <v>33</v>
       </c>
+      <c r="P425">
+        <f t="shared" si="6"/>
+        <v>119.75</v>
+      </c>
       <c r="AC425" t="s">
         <v>35</v>
       </c>
@@ -21041,6 +22685,10 @@
       <c r="O426" t="s">
         <v>33</v>
       </c>
+      <c r="P426">
+        <f t="shared" si="6"/>
+        <v>113.5</v>
+      </c>
       <c r="AC426" t="s">
         <v>35</v>
       </c>
@@ -21088,6 +22736,10 @@
       <c r="O427" t="s">
         <v>33</v>
       </c>
+      <c r="P427">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
       <c r="AC427" t="s">
         <v>35</v>
       </c>
@@ -21135,6 +22787,10 @@
       <c r="O428" t="s">
         <v>33</v>
       </c>
+      <c r="P428">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
       <c r="AC428" t="s">
         <v>35</v>
       </c>
@@ -21182,6 +22838,10 @@
       <c r="O429" t="s">
         <v>33</v>
       </c>
+      <c r="P429">
+        <f t="shared" si="6"/>
+        <v>97.5</v>
+      </c>
       <c r="AC429" t="s">
         <v>35</v>
       </c>
@@ -21229,6 +22889,10 @@
       <c r="O430" t="s">
         <v>33</v>
       </c>
+      <c r="P430">
+        <f t="shared" si="6"/>
+        <v>93.5</v>
+      </c>
       <c r="AC430" t="s">
         <v>35</v>
       </c>
@@ -21276,6 +22940,10 @@
       <c r="O431" t="s">
         <v>33</v>
       </c>
+      <c r="P431">
+        <f t="shared" si="6"/>
+        <v>93.75</v>
+      </c>
       <c r="AC431" t="s">
         <v>35</v>
       </c>
@@ -21323,6 +22991,10 @@
       <c r="O432" t="s">
         <v>33</v>
       </c>
+      <c r="P432">
+        <f t="shared" si="6"/>
+        <v>95.5</v>
+      </c>
       <c r="AC432" t="s">
         <v>35</v>
       </c>
@@ -21370,6 +23042,10 @@
       <c r="O433" t="s">
         <v>33</v>
       </c>
+      <c r="P433">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
       <c r="AC433" t="s">
         <v>35</v>
       </c>
@@ -21417,6 +23093,10 @@
       <c r="O434" t="s">
         <v>33</v>
       </c>
+      <c r="P434">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
       <c r="AC434" t="s">
         <v>35</v>
       </c>
@@ -21464,6 +23144,10 @@
       <c r="O435" t="s">
         <v>33</v>
       </c>
+      <c r="P435">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
       <c r="AC435" t="s">
         <v>35</v>
       </c>
@@ -21511,6 +23195,10 @@
       <c r="O436" t="s">
         <v>33</v>
       </c>
+      <c r="P436">
+        <f t="shared" si="6"/>
+        <v>103.25</v>
+      </c>
       <c r="AC436" t="s">
         <v>35</v>
       </c>
@@ -21558,6 +23246,10 @@
       <c r="O437" t="s">
         <v>33</v>
       </c>
+      <c r="P437">
+        <f t="shared" si="6"/>
+        <v>101.75</v>
+      </c>
       <c r="AC437" t="s">
         <v>35</v>
       </c>
@@ -21605,6 +23297,10 @@
       <c r="O438" t="s">
         <v>33</v>
       </c>
+      <c r="P438">
+        <f t="shared" si="6"/>
+        <v>100.5</v>
+      </c>
       <c r="AC438" t="s">
         <v>35</v>
       </c>
@@ -21652,6 +23348,10 @@
       <c r="O439" t="s">
         <v>33</v>
       </c>
+      <c r="P439">
+        <f t="shared" si="6"/>
+        <v>99.5</v>
+      </c>
       <c r="AC439" t="s">
         <v>35</v>
       </c>
@@ -21699,6 +23399,10 @@
       <c r="O440" t="s">
         <v>33</v>
       </c>
+      <c r="P440">
+        <f t="shared" si="6"/>
+        <v>96.75</v>
+      </c>
       <c r="AC440" t="s">
         <v>35</v>
       </c>
@@ -21752,6 +23456,10 @@
       <c r="O441" t="s">
         <v>33</v>
       </c>
+      <c r="P441">
+        <f t="shared" si="6"/>
+        <v>95.25</v>
+      </c>
       <c r="AC441" t="s">
         <v>35</v>
       </c>
@@ -21799,6 +23507,10 @@
       <c r="O442" t="s">
         <v>33</v>
       </c>
+      <c r="P442">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
       <c r="AC442" t="s">
         <v>35</v>
       </c>
@@ -21846,6 +23558,10 @@
       <c r="O443" t="s">
         <v>33</v>
       </c>
+      <c r="P443">
+        <f t="shared" si="6"/>
+        <v>94.25</v>
+      </c>
       <c r="AC443" t="s">
         <v>35</v>
       </c>
@@ -21893,6 +23609,10 @@
       <c r="O444" t="s">
         <v>33</v>
       </c>
+      <c r="P444">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
       <c r="AC444" t="s">
         <v>35</v>
       </c>
@@ -21940,6 +23660,10 @@
       <c r="O445" t="s">
         <v>33</v>
       </c>
+      <c r="P445">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
       <c r="AC445" t="s">
         <v>35</v>
       </c>
@@ -21987,6 +23711,10 @@
       <c r="O446" t="s">
         <v>33</v>
       </c>
+      <c r="P446">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
       <c r="AC446" t="s">
         <v>35</v>
       </c>
@@ -22034,6 +23762,10 @@
       <c r="O447" t="s">
         <v>33</v>
       </c>
+      <c r="P447">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
       <c r="AC447" t="s">
         <v>35</v>
       </c>
@@ -22081,6 +23813,10 @@
       <c r="O448" t="s">
         <v>33</v>
       </c>
+      <c r="P448">
+        <f t="shared" si="6"/>
+        <v>108.25</v>
+      </c>
       <c r="AC448" t="s">
         <v>35</v>
       </c>
@@ -22128,6 +23864,10 @@
       <c r="O449" t="s">
         <v>33</v>
       </c>
+      <c r="P449">
+        <f t="shared" si="6"/>
+        <v>113.25</v>
+      </c>
       <c r="AC449" t="s">
         <v>35</v>
       </c>
@@ -22175,6 +23915,10 @@
       <c r="O450" t="s">
         <v>33</v>
       </c>
+      <c r="P450">
+        <f t="shared" si="6"/>
+        <v>114.25</v>
+      </c>
       <c r="AC450" t="s">
         <v>35</v>
       </c>
@@ -22222,6 +23966,10 @@
       <c r="O451" t="s">
         <v>33</v>
       </c>
+      <c r="P451">
+        <f t="shared" si="6"/>
+        <v>117.5</v>
+      </c>
       <c r="AC451" t="s">
         <v>35</v>
       </c>
@@ -22269,6 +24017,10 @@
       <c r="O452" t="s">
         <v>33</v>
       </c>
+      <c r="P452">
+        <f t="shared" si="6"/>
+        <v>118.5</v>
+      </c>
       <c r="AC452" t="s">
         <v>35</v>
       </c>
@@ -22316,6 +24068,10 @@
       <c r="O453" t="s">
         <v>33</v>
       </c>
+      <c r="P453">
+        <f t="shared" si="6"/>
+        <v>111.25</v>
+      </c>
       <c r="AC453" t="s">
         <v>35</v>
       </c>
@@ -22363,6 +24119,10 @@
       <c r="O454" t="s">
         <v>33</v>
       </c>
+      <c r="P454">
+        <f t="shared" si="6"/>
+        <v>104.75</v>
+      </c>
       <c r="AC454" t="s">
         <v>35</v>
       </c>
@@ -22410,6 +24170,10 @@
       <c r="O455" t="s">
         <v>33</v>
       </c>
+      <c r="P455">
+        <f t="shared" si="6"/>
+        <v>100.75</v>
+      </c>
       <c r="AC455" t="s">
         <v>35</v>
       </c>
@@ -22457,6 +24221,10 @@
       <c r="O456" t="s">
         <v>33</v>
       </c>
+      <c r="P456">
+        <f t="shared" si="6"/>
+        <v>96.75</v>
+      </c>
       <c r="AC456" t="s">
         <v>35</v>
       </c>
@@ -22504,6 +24272,10 @@
       <c r="O457" t="s">
         <v>33</v>
       </c>
+      <c r="P457">
+        <f t="shared" si="6"/>
+        <v>98.5</v>
+      </c>
       <c r="AC457" t="s">
         <v>35</v>
       </c>
@@ -22551,6 +24323,10 @@
       <c r="O458" t="s">
         <v>33</v>
       </c>
+      <c r="P458">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
       <c r="AC458" t="s">
         <v>35</v>
       </c>
@@ -22598,6 +24374,10 @@
       <c r="O459" t="s">
         <v>33</v>
       </c>
+      <c r="P459">
+        <f t="shared" si="6"/>
+        <v>100.5</v>
+      </c>
       <c r="AC459" t="s">
         <v>35</v>
       </c>
@@ -22645,6 +24425,10 @@
       <c r="O460" t="s">
         <v>33</v>
       </c>
+      <c r="P460">
+        <f t="shared" si="6"/>
+        <v>105.75</v>
+      </c>
       <c r="AC460" t="s">
         <v>35</v>
       </c>
@@ -22692,6 +24476,10 @@
       <c r="O461" t="s">
         <v>33</v>
       </c>
+      <c r="P461">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
       <c r="AC461" t="s">
         <v>35</v>
       </c>
@@ -22739,6 +24527,10 @@
       <c r="O462" t="s">
         <v>33</v>
       </c>
+      <c r="P462">
+        <f t="shared" si="6"/>
+        <v>105.75</v>
+      </c>
       <c r="AC462" t="s">
         <v>35</v>
       </c>
@@ -22786,6 +24578,10 @@
       <c r="O463" t="s">
         <v>33</v>
       </c>
+      <c r="P463">
+        <f t="shared" si="6"/>
+        <v>103.75</v>
+      </c>
       <c r="AC463" t="s">
         <v>35</v>
       </c>
@@ -22833,6 +24629,10 @@
       <c r="O464" t="s">
         <v>33</v>
       </c>
+      <c r="P464">
+        <f t="shared" si="6"/>
+        <v>102.75</v>
+      </c>
       <c r="AC464" t="s">
         <v>35</v>
       </c>
@@ -22880,6 +24680,10 @@
       <c r="O465" t="s">
         <v>33</v>
       </c>
+      <c r="P465">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
       <c r="AC465" t="s">
         <v>35</v>
       </c>
@@ -22927,6 +24731,10 @@
       <c r="O466" t="s">
         <v>33</v>
       </c>
+      <c r="P466">
+        <f t="shared" ref="P466:P529" si="7">AVERAGE(N464,N465,N467,N468)</f>
+        <v>101</v>
+      </c>
       <c r="AC466" t="s">
         <v>35</v>
       </c>
@@ -22974,6 +24782,10 @@
       <c r="O467" t="s">
         <v>33</v>
       </c>
+      <c r="P467">
+        <f t="shared" si="7"/>
+        <v>100.25</v>
+      </c>
       <c r="AC467" t="s">
         <v>35</v>
       </c>
@@ -23021,6 +24833,10 @@
       <c r="O468" t="s">
         <v>33</v>
       </c>
+      <c r="P468">
+        <f t="shared" si="7"/>
+        <v>99.75</v>
+      </c>
       <c r="AC468" t="s">
         <v>35</v>
       </c>
@@ -23068,6 +24884,10 @@
       <c r="O469" t="s">
         <v>33</v>
       </c>
+      <c r="P469">
+        <f t="shared" si="7"/>
+        <v>98.75</v>
+      </c>
       <c r="AC469" t="s">
         <v>35</v>
       </c>
@@ -23115,6 +24935,10 @@
       <c r="O470" t="s">
         <v>33</v>
       </c>
+      <c r="P470">
+        <f t="shared" si="7"/>
+        <v>96.5</v>
+      </c>
       <c r="AC470" t="s">
         <v>35</v>
       </c>
@@ -23162,6 +24986,10 @@
       <c r="O471" t="s">
         <v>33</v>
       </c>
+      <c r="P471">
+        <f t="shared" si="7"/>
+        <v>94.5</v>
+      </c>
       <c r="AC471" t="s">
         <v>35</v>
       </c>
@@ -23209,6 +25037,10 @@
       <c r="O472" t="s">
         <v>33</v>
       </c>
+      <c r="P472">
+        <f t="shared" si="7"/>
+        <v>94.5</v>
+      </c>
       <c r="AC472" t="s">
         <v>35</v>
       </c>
@@ -23256,6 +25088,10 @@
       <c r="O473" t="s">
         <v>33</v>
       </c>
+      <c r="P473">
+        <f t="shared" si="7"/>
+        <v>90.75</v>
+      </c>
       <c r="AC473" t="s">
         <v>35</v>
       </c>
@@ -23303,6 +25139,10 @@
       <c r="O474" t="s">
         <v>33</v>
       </c>
+      <c r="P474">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
       <c r="AC474" t="s">
         <v>35</v>
       </c>
@@ -23350,6 +25190,10 @@
       <c r="O475" t="s">
         <v>33</v>
       </c>
+      <c r="P475">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
       <c r="AC475" t="s">
         <v>35</v>
       </c>
@@ -23397,6 +25241,10 @@
       <c r="O476" t="s">
         <v>33</v>
       </c>
+      <c r="P476">
+        <f t="shared" si="7"/>
+        <v>83.75</v>
+      </c>
       <c r="AC476" t="s">
         <v>35</v>
       </c>
@@ -23444,6 +25292,10 @@
       <c r="O477" t="s">
         <v>33</v>
       </c>
+      <c r="P477">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
       <c r="AC477" t="s">
         <v>35</v>
       </c>
@@ -23491,6 +25343,10 @@
       <c r="O478" t="s">
         <v>33</v>
       </c>
+      <c r="P478">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
       <c r="AC478" t="s">
         <v>35</v>
       </c>
@@ -23538,6 +25394,10 @@
       <c r="O479" t="s">
         <v>33</v>
       </c>
+      <c r="P479">
+        <f t="shared" si="7"/>
+        <v>78.5</v>
+      </c>
       <c r="AC479" t="s">
         <v>35</v>
       </c>
@@ -23585,6 +25445,10 @@
       <c r="O480" t="s">
         <v>33</v>
       </c>
+      <c r="P480">
+        <f t="shared" si="7"/>
+        <v>79.5</v>
+      </c>
       <c r="AC480" t="s">
         <v>35</v>
       </c>
@@ -23632,6 +25496,10 @@
       <c r="O481" t="s">
         <v>33</v>
       </c>
+      <c r="P481">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
       <c r="AC481" t="s">
         <v>35</v>
       </c>
@@ -23679,6 +25547,10 @@
       <c r="O482" t="s">
         <v>33</v>
       </c>
+      <c r="P482">
+        <f t="shared" si="7"/>
+        <v>86.75</v>
+      </c>
       <c r="AC482" t="s">
         <v>35</v>
       </c>
@@ -23726,6 +25598,10 @@
       <c r="O483" t="s">
         <v>33</v>
       </c>
+      <c r="P483">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
       <c r="AC483" t="s">
         <v>35</v>
       </c>
@@ -23773,6 +25649,10 @@
       <c r="O484" t="s">
         <v>33</v>
       </c>
+      <c r="P484">
+        <f t="shared" si="7"/>
+        <v>93.25</v>
+      </c>
       <c r="AC484" t="s">
         <v>35</v>
       </c>
@@ -23820,6 +25700,10 @@
       <c r="O485" t="s">
         <v>33</v>
       </c>
+      <c r="P485">
+        <f t="shared" si="7"/>
+        <v>97.25</v>
+      </c>
       <c r="AC485" t="s">
         <v>35</v>
       </c>
@@ -23867,6 +25751,10 @@
       <c r="O486" t="s">
         <v>33</v>
       </c>
+      <c r="P486">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
       <c r="AC486" t="s">
         <v>35</v>
       </c>
@@ -23914,6 +25802,10 @@
       <c r="O487" t="s">
         <v>33</v>
       </c>
+      <c r="P487">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
       <c r="AC487" t="s">
         <v>35</v>
       </c>
@@ -23961,6 +25853,10 @@
       <c r="O488" t="s">
         <v>33</v>
       </c>
+      <c r="P488">
+        <f t="shared" si="7"/>
+        <v>96.75</v>
+      </c>
       <c r="AC488" t="s">
         <v>35</v>
       </c>
@@ -24008,6 +25904,10 @@
       <c r="O489" t="s">
         <v>33</v>
       </c>
+      <c r="P489">
+        <f t="shared" si="7"/>
+        <v>93.25</v>
+      </c>
       <c r="AC489" t="s">
         <v>35</v>
       </c>
@@ -24055,6 +25955,10 @@
       <c r="O490" t="s">
         <v>33</v>
       </c>
+      <c r="P490">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
       <c r="AC490" t="s">
         <v>35</v>
       </c>
@@ -24102,6 +26006,10 @@
       <c r="O491" t="s">
         <v>33</v>
       </c>
+      <c r="P491">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
       <c r="AC491" t="s">
         <v>35</v>
       </c>
@@ -24149,6 +26057,10 @@
       <c r="O492" t="s">
         <v>33</v>
       </c>
+      <c r="P492">
+        <f t="shared" si="7"/>
+        <v>81.5</v>
+      </c>
       <c r="AC492" t="s">
         <v>35</v>
       </c>
@@ -24196,6 +26108,10 @@
       <c r="O493" t="s">
         <v>33</v>
       </c>
+      <c r="P493">
+        <f t="shared" si="7"/>
+        <v>78.75</v>
+      </c>
       <c r="AC493" t="s">
         <v>35</v>
       </c>
@@ -24243,6 +26159,10 @@
       <c r="O494" t="s">
         <v>33</v>
       </c>
+      <c r="P494">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
       <c r="AC494" t="s">
         <v>35</v>
       </c>
@@ -24290,6 +26210,10 @@
       <c r="O495" t="s">
         <v>33</v>
       </c>
+      <c r="P495">
+        <f t="shared" si="7"/>
+        <v>71.5</v>
+      </c>
       <c r="AC495" t="s">
         <v>35</v>
       </c>
@@ -24337,6 +26261,10 @@
       <c r="O496" t="s">
         <v>33</v>
       </c>
+      <c r="P496">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
       <c r="AC496" t="s">
         <v>35</v>
       </c>
@@ -24384,6 +26312,10 @@
       <c r="O497" t="s">
         <v>33</v>
       </c>
+      <c r="P497">
+        <f t="shared" si="7"/>
+        <v>74.25</v>
+      </c>
       <c r="AC497" t="s">
         <v>35</v>
       </c>
@@ -24431,6 +26363,10 @@
       <c r="O498" t="s">
         <v>33</v>
       </c>
+      <c r="P498">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
       <c r="AC498" t="s">
         <v>35</v>
       </c>
@@ -24478,6 +26414,10 @@
       <c r="O499" t="s">
         <v>33</v>
       </c>
+      <c r="P499">
+        <f t="shared" si="7"/>
+        <v>76.5</v>
+      </c>
       <c r="AC499" t="s">
         <v>35</v>
       </c>
@@ -24525,6 +26465,10 @@
       <c r="O500" t="s">
         <v>33</v>
       </c>
+      <c r="P500">
+        <f t="shared" si="7"/>
+        <v>80.5</v>
+      </c>
       <c r="AC500" t="s">
         <v>35</v>
       </c>
@@ -24572,6 +26516,10 @@
       <c r="O501" t="s">
         <v>33</v>
       </c>
+      <c r="P501">
+        <f t="shared" si="7"/>
+        <v>82.25</v>
+      </c>
       <c r="AC501" t="s">
         <v>35</v>
       </c>
@@ -24619,6 +26567,10 @@
       <c r="O502" t="s">
         <v>33</v>
       </c>
+      <c r="P502">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
       <c r="AC502" t="s">
         <v>35</v>
       </c>
@@ -24666,6 +26618,10 @@
       <c r="O503" t="s">
         <v>33</v>
       </c>
+      <c r="P503">
+        <f t="shared" si="7"/>
+        <v>82.5</v>
+      </c>
       <c r="AC503" t="s">
         <v>35</v>
       </c>
@@ -24713,6 +26669,10 @@
       <c r="O504" t="s">
         <v>33</v>
       </c>
+      <c r="P504">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
       <c r="AC504" t="s">
         <v>35</v>
       </c>
@@ -24760,6 +26720,10 @@
       <c r="O505" t="s">
         <v>33</v>
       </c>
+      <c r="P505">
+        <f t="shared" si="7"/>
+        <v>87.5</v>
+      </c>
       <c r="AC505" t="s">
         <v>35</v>
       </c>
@@ -24807,6 +26771,10 @@
       <c r="O506" t="s">
         <v>33</v>
       </c>
+      <c r="P506">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
       <c r="AC506" t="s">
         <v>35</v>
       </c>
@@ -24854,6 +26822,10 @@
       <c r="O507" t="s">
         <v>33</v>
       </c>
+      <c r="P507">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
       <c r="AC507" t="s">
         <v>35</v>
       </c>
@@ -24901,6 +26873,10 @@
       <c r="O508" t="s">
         <v>33</v>
       </c>
+      <c r="P508">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
       <c r="AC508" t="s">
         <v>35</v>
       </c>
@@ -24948,6 +26924,10 @@
       <c r="O509" t="s">
         <v>33</v>
       </c>
+      <c r="P509">
+        <f t="shared" si="7"/>
+        <v>80.5</v>
+      </c>
       <c r="AC509" t="s">
         <v>35</v>
       </c>
@@ -24995,6 +26975,10 @@
       <c r="O510" t="s">
         <v>33</v>
       </c>
+      <c r="P510">
+        <f t="shared" si="7"/>
+        <v>75.25</v>
+      </c>
       <c r="AC510" t="s">
         <v>35</v>
       </c>
@@ -25042,6 +27026,10 @@
       <c r="O511" t="s">
         <v>33</v>
       </c>
+      <c r="P511">
+        <f t="shared" si="7"/>
+        <v>76.25</v>
+      </c>
       <c r="AC511" t="s">
         <v>35</v>
       </c>
@@ -25089,6 +27077,10 @@
       <c r="O512" t="s">
         <v>33</v>
       </c>
+      <c r="P512">
+        <f t="shared" si="7"/>
+        <v>78.75</v>
+      </c>
       <c r="AC512" t="s">
         <v>35</v>
       </c>
@@ -25136,6 +27128,10 @@
       <c r="O513" t="s">
         <v>33</v>
       </c>
+      <c r="P513">
+        <f t="shared" si="7"/>
+        <v>79.75</v>
+      </c>
       <c r="AC513" t="s">
         <v>35</v>
       </c>
@@ -25183,6 +27179,10 @@
       <c r="O514" t="s">
         <v>33</v>
       </c>
+      <c r="P514">
+        <f t="shared" si="7"/>
+        <v>84.25</v>
+      </c>
       <c r="AC514" t="s">
         <v>35</v>
       </c>
@@ -25230,6 +27230,10 @@
       <c r="O515" t="s">
         <v>33</v>
       </c>
+      <c r="P515">
+        <f t="shared" si="7"/>
+        <v>88.5</v>
+      </c>
       <c r="AC515" t="s">
         <v>35</v>
       </c>
@@ -25277,6 +27281,10 @@
       <c r="O516" t="s">
         <v>33</v>
       </c>
+      <c r="P516">
+        <f t="shared" si="7"/>
+        <v>89.5</v>
+      </c>
       <c r="AC516" t="s">
         <v>35</v>
       </c>
@@ -25324,6 +27332,10 @@
       <c r="O517" t="s">
         <v>33</v>
       </c>
+      <c r="P517">
+        <f t="shared" si="7"/>
+        <v>89.25</v>
+      </c>
       <c r="AC517" t="s">
         <v>35</v>
       </c>
@@ -25371,6 +27383,10 @@
       <c r="O518" t="s">
         <v>33</v>
       </c>
+      <c r="P518">
+        <f t="shared" si="7"/>
+        <v>89.75</v>
+      </c>
       <c r="AC518" t="s">
         <v>35</v>
       </c>
@@ -25418,6 +27434,10 @@
       <c r="O519" t="s">
         <v>33</v>
       </c>
+      <c r="P519">
+        <f t="shared" si="7"/>
+        <v>90.25</v>
+      </c>
       <c r="AC519" t="s">
         <v>35</v>
       </c>
@@ -25465,6 +27485,10 @@
       <c r="O520" t="s">
         <v>33</v>
       </c>
+      <c r="P520">
+        <f t="shared" si="7"/>
+        <v>87.75</v>
+      </c>
       <c r="AC520" t="s">
         <v>35</v>
       </c>
@@ -25512,6 +27536,10 @@
       <c r="O521" t="s">
         <v>33</v>
       </c>
+      <c r="P521">
+        <f t="shared" si="7"/>
+        <v>82.5</v>
+      </c>
       <c r="AC521" t="s">
         <v>35</v>
       </c>
@@ -25559,6 +27587,10 @@
       <c r="O522" t="s">
         <v>33</v>
       </c>
+      <c r="P522">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
       <c r="AC522" t="s">
         <v>35</v>
       </c>
@@ -25606,6 +27638,10 @@
       <c r="O523" t="s">
         <v>33</v>
       </c>
+      <c r="P523">
+        <f t="shared" si="7"/>
+        <v>76.25</v>
+      </c>
       <c r="AC523" t="s">
         <v>35</v>
       </c>
@@ -25653,6 +27689,10 @@
       <c r="O524" t="s">
         <v>33</v>
       </c>
+      <c r="P524">
+        <f t="shared" si="7"/>
+        <v>72.25</v>
+      </c>
       <c r="AC524" t="s">
         <v>35</v>
       </c>
@@ -25700,6 +27740,10 @@
       <c r="O525" t="s">
         <v>33</v>
       </c>
+      <c r="P525">
+        <f t="shared" si="7"/>
+        <v>74.75</v>
+      </c>
       <c r="AC525" t="s">
         <v>35</v>
       </c>
@@ -25747,6 +27791,10 @@
       <c r="O526" t="s">
         <v>33</v>
       </c>
+      <c r="P526">
+        <f t="shared" si="7"/>
+        <v>78.5</v>
+      </c>
       <c r="AC526" t="s">
         <v>35</v>
       </c>
@@ -25794,6 +27842,10 @@
       <c r="O527" t="s">
         <v>33</v>
       </c>
+      <c r="P527">
+        <f t="shared" si="7"/>
+        <v>77.25</v>
+      </c>
       <c r="AC527" t="s">
         <v>35</v>
       </c>
@@ -25841,6 +27893,10 @@
       <c r="O528" t="s">
         <v>33</v>
       </c>
+      <c r="P528">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
       <c r="AC528" t="s">
         <v>35</v>
       </c>
@@ -25888,6 +27944,10 @@
       <c r="O529" t="s">
         <v>33</v>
       </c>
+      <c r="P529">
+        <f t="shared" si="7"/>
+        <v>83.25</v>
+      </c>
       <c r="AC529" t="s">
         <v>35</v>
       </c>
@@ -25935,6 +27995,10 @@
       <c r="O530" t="s">
         <v>33</v>
       </c>
+      <c r="P530">
+        <f t="shared" ref="P530:P593" si="8">AVERAGE(N528,N529,N531,N532)</f>
+        <v>82</v>
+      </c>
       <c r="AC530" t="s">
         <v>35</v>
       </c>
@@ -25982,6 +28046,10 @@
       <c r="O531" t="s">
         <v>33</v>
       </c>
+      <c r="P531">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
       <c r="AC531" t="s">
         <v>35</v>
       </c>
@@ -26029,6 +28097,10 @@
       <c r="O532" t="s">
         <v>33</v>
       </c>
+      <c r="P532">
+        <f t="shared" si="8"/>
+        <v>81.5</v>
+      </c>
       <c r="AC532" t="s">
         <v>35</v>
       </c>
@@ -26076,6 +28148,10 @@
       <c r="O533" t="s">
         <v>33</v>
       </c>
+      <c r="P533">
+        <f t="shared" si="8"/>
+        <v>83.5</v>
+      </c>
       <c r="AC533" t="s">
         <v>35</v>
       </c>
@@ -26123,6 +28199,10 @@
       <c r="O534" t="s">
         <v>33</v>
       </c>
+      <c r="P534">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
       <c r="AC534" t="s">
         <v>35</v>
       </c>
@@ -26170,6 +28250,10 @@
       <c r="O535" t="s">
         <v>33</v>
       </c>
+      <c r="P535">
+        <f t="shared" si="8"/>
+        <v>86.75</v>
+      </c>
       <c r="AC535" t="s">
         <v>35</v>
       </c>
@@ -26217,6 +28301,10 @@
       <c r="O536" t="s">
         <v>33</v>
       </c>
+      <c r="P536">
+        <f t="shared" si="8"/>
+        <v>86.5</v>
+      </c>
       <c r="AC536" t="s">
         <v>35</v>
       </c>
@@ -26270,6 +28358,10 @@
       <c r="O537" t="s">
         <v>33</v>
       </c>
+      <c r="P537">
+        <f t="shared" si="8"/>
+        <v>88.5</v>
+      </c>
       <c r="AC537" t="s">
         <v>35</v>
       </c>
@@ -26317,6 +28409,10 @@
       <c r="O538" t="s">
         <v>33</v>
       </c>
+      <c r="P538">
+        <f t="shared" si="8"/>
+        <v>92.25</v>
+      </c>
       <c r="AC538" t="s">
         <v>35</v>
       </c>
@@ -26364,6 +28460,10 @@
       <c r="O539" t="s">
         <v>33</v>
       </c>
+      <c r="P539">
+        <f t="shared" si="8"/>
+        <v>95.75</v>
+      </c>
       <c r="AC539" t="s">
         <v>35</v>
       </c>
@@ -26411,6 +28511,10 @@
       <c r="O540" t="s">
         <v>33</v>
       </c>
+      <c r="P540">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
       <c r="AC540" t="s">
         <v>35</v>
       </c>
@@ -26458,6 +28562,10 @@
       <c r="O541" t="s">
         <v>33</v>
       </c>
+      <c r="P541">
+        <f t="shared" si="8"/>
+        <v>109.25</v>
+      </c>
       <c r="AC541" t="s">
         <v>35</v>
       </c>
@@ -26505,6 +28613,10 @@
       <c r="O542" t="s">
         <v>33</v>
       </c>
+      <c r="P542">
+        <f t="shared" si="8"/>
+        <v>118.25</v>
+      </c>
       <c r="AC542" t="s">
         <v>35</v>
       </c>
@@ -26552,6 +28664,10 @@
       <c r="O543" t="s">
         <v>33</v>
       </c>
+      <c r="P543">
+        <f t="shared" si="8"/>
+        <v>124.75</v>
+      </c>
       <c r="AC543" t="s">
         <v>35</v>
       </c>
@@ -26599,6 +28715,10 @@
       <c r="O544" t="s">
         <v>33</v>
       </c>
+      <c r="P544">
+        <f t="shared" si="8"/>
+        <v>129.75</v>
+      </c>
       <c r="AC544" t="s">
         <v>35</v>
       </c>
@@ -26646,6 +28766,10 @@
       <c r="O545" t="s">
         <v>33</v>
       </c>
+      <c r="P545">
+        <f t="shared" si="8"/>
+        <v>133.25</v>
+      </c>
       <c r="AC545" t="s">
         <v>35</v>
       </c>
@@ -26693,6 +28817,10 @@
       <c r="O546" t="s">
         <v>33</v>
       </c>
+      <c r="P546">
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
       <c r="AC546" t="s">
         <v>35</v>
       </c>
@@ -26740,6 +28868,10 @@
       <c r="O547" t="s">
         <v>33</v>
       </c>
+      <c r="P547">
+        <f t="shared" si="8"/>
+        <v>135.75</v>
+      </c>
       <c r="AC547" t="s">
         <v>35</v>
       </c>
@@ -26787,6 +28919,10 @@
       <c r="O548" t="s">
         <v>33</v>
       </c>
+      <c r="P548">
+        <f t="shared" si="8"/>
+        <v>134.5</v>
+      </c>
       <c r="AC548" t="s">
         <v>35</v>
       </c>
@@ -26834,6 +28970,10 @@
       <c r="O549" t="s">
         <v>33</v>
       </c>
+      <c r="P549">
+        <f t="shared" si="8"/>
+        <v>129.75</v>
+      </c>
       <c r="AC549" t="s">
         <v>35</v>
       </c>
@@ -26881,6 +29021,10 @@
       <c r="O550" t="s">
         <v>33</v>
       </c>
+      <c r="P550">
+        <f t="shared" si="8"/>
+        <v>129.25</v>
+      </c>
       <c r="AC550" t="s">
         <v>35</v>
       </c>
@@ -26928,6 +29072,10 @@
       <c r="O551" t="s">
         <v>33</v>
       </c>
+      <c r="P551">
+        <f t="shared" si="8"/>
+        <v>127.75</v>
+      </c>
       <c r="AC551" t="s">
         <v>35</v>
       </c>
@@ -26975,6 +29123,10 @@
       <c r="O552" t="s">
         <v>33</v>
       </c>
+      <c r="P552">
+        <f t="shared" si="8"/>
+        <v>123.75</v>
+      </c>
       <c r="AC552" t="s">
         <v>35</v>
       </c>
@@ -27022,6 +29174,10 @@
       <c r="O553" t="s">
         <v>33</v>
       </c>
+      <c r="P553">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
       <c r="AC553" t="s">
         <v>35</v>
       </c>
@@ -27069,6 +29225,10 @@
       <c r="O554" t="s">
         <v>33</v>
       </c>
+      <c r="P554">
+        <f t="shared" si="8"/>
+        <v>116.75</v>
+      </c>
       <c r="AC554" t="s">
         <v>35</v>
       </c>
@@ -27116,6 +29276,10 @@
       <c r="O555" t="s">
         <v>33</v>
       </c>
+      <c r="P555">
+        <f t="shared" si="8"/>
+        <v>113.25</v>
+      </c>
       <c r="AC555" t="s">
         <v>35</v>
       </c>
@@ -27163,6 +29327,10 @@
       <c r="O556" t="s">
         <v>33</v>
       </c>
+      <c r="P556">
+        <f t="shared" si="8"/>
+        <v>113.25</v>
+      </c>
       <c r="AC556" t="s">
         <v>35</v>
       </c>
@@ -27210,6 +29378,10 @@
       <c r="O557" t="s">
         <v>33</v>
       </c>
+      <c r="P557">
+        <f t="shared" si="8"/>
+        <v>112.5</v>
+      </c>
       <c r="AC557" t="s">
         <v>35</v>
       </c>
@@ -27257,6 +29429,10 @@
       <c r="O558" t="s">
         <v>33</v>
       </c>
+      <c r="P558">
+        <f t="shared" si="8"/>
+        <v>110.25</v>
+      </c>
       <c r="AC558" t="s">
         <v>35</v>
       </c>
@@ -27304,6 +29480,10 @@
       <c r="O559" t="s">
         <v>33</v>
       </c>
+      <c r="P559">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
       <c r="AC559" t="s">
         <v>35</v>
       </c>
@@ -27351,6 +29531,10 @@
       <c r="O560" t="s">
         <v>33</v>
       </c>
+      <c r="P560">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
       <c r="AC560" t="s">
         <v>35</v>
       </c>
@@ -27398,6 +29582,10 @@
       <c r="O561" t="s">
         <v>33</v>
       </c>
+      <c r="P561">
+        <f t="shared" si="8"/>
+        <v>112.75</v>
+      </c>
       <c r="AC561" t="s">
         <v>35</v>
       </c>
@@ -27445,6 +29633,10 @@
       <c r="O562" t="s">
         <v>33</v>
       </c>
+      <c r="P562">
+        <f t="shared" si="8"/>
+        <v>106.75</v>
+      </c>
       <c r="AC562" t="s">
         <v>35</v>
       </c>
@@ -27492,6 +29684,10 @@
       <c r="O563" t="s">
         <v>33</v>
       </c>
+      <c r="P563">
+        <f t="shared" si="8"/>
+        <v>106.25</v>
+      </c>
       <c r="AC563" t="s">
         <v>35</v>
       </c>
@@ -27539,6 +29735,10 @@
       <c r="O564" t="s">
         <v>33</v>
       </c>
+      <c r="P564">
+        <f t="shared" si="8"/>
+        <v>106.5</v>
+      </c>
       <c r="AC564" t="s">
         <v>35</v>
       </c>
@@ -27586,6 +29786,10 @@
       <c r="O565" t="s">
         <v>33</v>
       </c>
+      <c r="P565">
+        <f t="shared" si="8"/>
+        <v>98.75</v>
+      </c>
       <c r="AC565" t="s">
         <v>35</v>
       </c>
@@ -27633,6 +29837,10 @@
       <c r="O566" t="s">
         <v>33</v>
       </c>
+      <c r="P566">
+        <f t="shared" si="8"/>
+        <v>95.5</v>
+      </c>
       <c r="AC566" t="s">
         <v>35</v>
       </c>
@@ -27680,6 +29888,10 @@
       <c r="O567" t="s">
         <v>33</v>
       </c>
+      <c r="P567">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
       <c r="AC567" t="s">
         <v>35</v>
       </c>
@@ -27733,6 +29945,10 @@
       <c r="O568" t="s">
         <v>33</v>
       </c>
+      <c r="P568">
+        <f t="shared" si="8"/>
+        <v>95.75</v>
+      </c>
       <c r="AC568" t="s">
         <v>35</v>
       </c>
@@ -27780,6 +29996,10 @@
       <c r="O569" t="s">
         <v>33</v>
       </c>
+      <c r="P569">
+        <f t="shared" si="8"/>
+        <v>96.75</v>
+      </c>
       <c r="AC569" t="s">
         <v>35</v>
       </c>
@@ -27827,6 +30047,10 @@
       <c r="O570" t="s">
         <v>33</v>
       </c>
+      <c r="P570">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
       <c r="AC570" t="s">
         <v>35</v>
       </c>
@@ -27874,6 +30098,10 @@
       <c r="O571" t="s">
         <v>33</v>
       </c>
+      <c r="P571">
+        <f t="shared" si="8"/>
+        <v>106.5</v>
+      </c>
       <c r="AC571" t="s">
         <v>35</v>
       </c>
@@ -27921,6 +30149,10 @@
       <c r="O572" t="s">
         <v>33</v>
       </c>
+      <c r="P572">
+        <f t="shared" si="8"/>
+        <v>112.75</v>
+      </c>
       <c r="AC572" t="s">
         <v>35</v>
       </c>
@@ -27968,6 +30200,10 @@
       <c r="O573" t="s">
         <v>33</v>
       </c>
+      <c r="P573">
+        <f t="shared" si="8"/>
+        <v>118.25</v>
+      </c>
       <c r="AC573" t="s">
         <v>35</v>
       </c>
@@ -28015,6 +30251,10 @@
       <c r="O574" t="s">
         <v>33</v>
       </c>
+      <c r="P574">
+        <f t="shared" si="8"/>
+        <v>121.75</v>
+      </c>
       <c r="AC574" t="s">
         <v>35</v>
       </c>
@@ -28062,6 +30302,10 @@
       <c r="O575" t="s">
         <v>33</v>
       </c>
+      <c r="P575">
+        <f t="shared" si="8"/>
+        <v>122.5</v>
+      </c>
       <c r="AC575" t="s">
         <v>35</v>
       </c>
@@ -28109,6 +30353,10 @@
       <c r="O576" t="s">
         <v>33</v>
       </c>
+      <c r="P576">
+        <f t="shared" si="8"/>
+        <v>120.75</v>
+      </c>
       <c r="AC576" t="s">
         <v>35</v>
       </c>
@@ -28156,6 +30404,10 @@
       <c r="O577" t="s">
         <v>33</v>
       </c>
+      <c r="P577">
+        <f t="shared" si="8"/>
+        <v>119.25</v>
+      </c>
       <c r="AC577" t="s">
         <v>35</v>
       </c>
@@ -28203,6 +30455,10 @@
       <c r="O578" t="s">
         <v>33</v>
       </c>
+      <c r="P578">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
       <c r="AC578" t="s">
         <v>35</v>
       </c>
@@ -28250,6 +30506,10 @@
       <c r="O579" t="s">
         <v>33</v>
       </c>
+      <c r="P579">
+        <f t="shared" si="8"/>
+        <v>114.25</v>
+      </c>
       <c r="AC579" t="s">
         <v>35</v>
       </c>
@@ -28297,6 +30557,10 @@
       <c r="O580" t="s">
         <v>33</v>
       </c>
+      <c r="P580">
+        <f t="shared" si="8"/>
+        <v>113.75</v>
+      </c>
       <c r="AC580" t="s">
         <v>35</v>
       </c>
@@ -28344,6 +30608,10 @@
       <c r="O581" t="s">
         <v>33</v>
       </c>
+      <c r="P581">
+        <f t="shared" si="8"/>
+        <v>112.75</v>
+      </c>
       <c r="AC581" t="s">
         <v>35</v>
       </c>
@@ -28391,6 +30659,10 @@
       <c r="O582" t="s">
         <v>33</v>
       </c>
+      <c r="P582">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
       <c r="AC582" t="s">
         <v>35</v>
       </c>
@@ -28438,6 +30710,10 @@
       <c r="O583" t="s">
         <v>33</v>
       </c>
+      <c r="P583">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
       <c r="AC583" t="s">
         <v>35</v>
       </c>
@@ -28485,6 +30761,10 @@
       <c r="O584" t="s">
         <v>33</v>
       </c>
+      <c r="P584">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
       <c r="AC584" t="s">
         <v>35</v>
       </c>
@@ -28532,6 +30812,10 @@
       <c r="O585" t="s">
         <v>33</v>
       </c>
+      <c r="P585">
+        <f t="shared" si="8"/>
+        <v>99.75</v>
+      </c>
       <c r="AC585" t="s">
         <v>35</v>
       </c>
@@ -28579,6 +30863,10 @@
       <c r="O586" t="s">
         <v>33</v>
       </c>
+      <c r="P586">
+        <f t="shared" si="8"/>
+        <v>93.75</v>
+      </c>
       <c r="AC586" t="s">
         <v>35</v>
       </c>
@@ -28626,6 +30914,10 @@
       <c r="O587" t="s">
         <v>33</v>
       </c>
+      <c r="P587">
+        <f t="shared" si="8"/>
+        <v>88.5</v>
+      </c>
       <c r="AC587" t="s">
         <v>35</v>
       </c>
@@ -28673,6 +30965,10 @@
       <c r="O588" t="s">
         <v>33</v>
       </c>
+      <c r="P588">
+        <f t="shared" si="8"/>
+        <v>85.75</v>
+      </c>
       <c r="AC588" t="s">
         <v>35</v>
       </c>
@@ -28720,6 +31016,10 @@
       <c r="O589" t="s">
         <v>33</v>
       </c>
+      <c r="P589">
+        <f t="shared" si="8"/>
+        <v>81.5</v>
+      </c>
       <c r="AC589" t="s">
         <v>35</v>
       </c>
@@ -28767,6 +31067,10 @@
       <c r="O590" t="s">
         <v>33</v>
       </c>
+      <c r="P590">
+        <f t="shared" si="8"/>
+        <v>77.75</v>
+      </c>
       <c r="AC590" t="s">
         <v>35</v>
       </c>
@@ -28820,6 +31124,10 @@
       <c r="O591" t="s">
         <v>33</v>
       </c>
+      <c r="P591">
+        <f t="shared" si="8"/>
+        <v>82.25</v>
+      </c>
       <c r="AC591" t="s">
         <v>35</v>
       </c>
@@ -28867,6 +31175,10 @@
       <c r="O592" t="s">
         <v>33</v>
       </c>
+      <c r="P592">
+        <f t="shared" si="8"/>
+        <v>89.5</v>
+      </c>
       <c r="AC592" t="s">
         <v>35</v>
       </c>
@@ -28914,6 +31226,10 @@
       <c r="O593" t="s">
         <v>33</v>
       </c>
+      <c r="P593">
+        <f t="shared" si="8"/>
+        <v>94.5</v>
+      </c>
       <c r="AC593" t="s">
         <v>35</v>
       </c>
@@ -28961,6 +31277,10 @@
       <c r="O594" t="s">
         <v>33</v>
       </c>
+      <c r="P594">
+        <f t="shared" ref="P594:P657" si="9">AVERAGE(N592,N593,N595,N596)</f>
+        <v>99</v>
+      </c>
       <c r="AC594" t="s">
         <v>35</v>
       </c>
@@ -29008,6 +31328,10 @@
       <c r="O595" t="s">
         <v>33</v>
       </c>
+      <c r="P595">
+        <f t="shared" si="9"/>
+        <v>106.25</v>
+      </c>
       <c r="AC595" t="s">
         <v>35</v>
       </c>
@@ -29055,6 +31379,10 @@
       <c r="O596" t="s">
         <v>33</v>
       </c>
+      <c r="P596">
+        <f t="shared" si="9"/>
+        <v>115.75</v>
+      </c>
       <c r="AC596" t="s">
         <v>35</v>
       </c>
@@ -29102,6 +31430,10 @@
       <c r="O597" t="s">
         <v>33</v>
       </c>
+      <c r="P597">
+        <f t="shared" si="9"/>
+        <v>120.5</v>
+      </c>
       <c r="AC597" t="s">
         <v>35</v>
       </c>
@@ -29149,6 +31481,10 @@
       <c r="O598" t="s">
         <v>33</v>
       </c>
+      <c r="P598">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
       <c r="AC598" t="s">
         <v>35</v>
       </c>
@@ -29196,6 +31532,10 @@
       <c r="O599" t="s">
         <v>33</v>
       </c>
+      <c r="P599">
+        <f t="shared" si="9"/>
+        <v>132.5</v>
+      </c>
       <c r="AC599" t="s">
         <v>35</v>
       </c>
@@ -29243,6 +31583,10 @@
       <c r="O600" t="s">
         <v>33</v>
       </c>
+      <c r="P600">
+        <f t="shared" si="9"/>
+        <v>138.5</v>
+      </c>
       <c r="AC600" t="s">
         <v>35</v>
       </c>
@@ -29290,6 +31634,10 @@
       <c r="O601" t="s">
         <v>33</v>
       </c>
+      <c r="P601">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
       <c r="AC601" t="s">
         <v>35</v>
       </c>
@@ -29337,6 +31685,10 @@
       <c r="O602" t="s">
         <v>33</v>
       </c>
+      <c r="P602">
+        <f t="shared" si="9"/>
+        <v>134.5</v>
+      </c>
       <c r="AC602" t="s">
         <v>35</v>
       </c>
@@ -29384,6 +31736,10 @@
       <c r="O603" t="s">
         <v>33</v>
       </c>
+      <c r="P603">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
       <c r="AC603" t="s">
         <v>35</v>
       </c>
@@ -29431,6 +31787,10 @@
       <c r="O604" t="s">
         <v>33</v>
       </c>
+      <c r="P604">
+        <f t="shared" si="9"/>
+        <v>119.5</v>
+      </c>
       <c r="AC604" t="s">
         <v>35</v>
       </c>
@@ -29478,6 +31838,10 @@
       <c r="O605" t="s">
         <v>33</v>
       </c>
+      <c r="P605">
+        <f t="shared" si="9"/>
+        <v>109.25</v>
+      </c>
       <c r="AC605" t="s">
         <v>35</v>
       </c>
@@ -29525,6 +31889,10 @@
       <c r="O606" t="s">
         <v>33</v>
       </c>
+      <c r="P606">
+        <f t="shared" si="9"/>
+        <v>103.25</v>
+      </c>
       <c r="AC606" t="s">
         <v>35</v>
       </c>
@@ -29572,6 +31940,10 @@
       <c r="O607" t="s">
         <v>33</v>
       </c>
+      <c r="P607">
+        <f t="shared" si="9"/>
+        <v>97.25</v>
+      </c>
       <c r="AC607" t="s">
         <v>35</v>
       </c>
@@ -29619,6 +31991,10 @@
       <c r="O608" t="s">
         <v>33</v>
       </c>
+      <c r="P608">
+        <f t="shared" si="9"/>
+        <v>92.25</v>
+      </c>
       <c r="AC608" t="s">
         <v>35</v>
       </c>
@@ -29666,6 +32042,10 @@
       <c r="O609" t="s">
         <v>33</v>
       </c>
+      <c r="P609">
+        <f t="shared" si="9"/>
+        <v>90.75</v>
+      </c>
       <c r="AC609" t="s">
         <v>35</v>
       </c>
@@ -29713,6 +32093,10 @@
       <c r="O610" t="s">
         <v>33</v>
       </c>
+      <c r="P610">
+        <f t="shared" si="9"/>
+        <v>89.75</v>
+      </c>
       <c r="AC610" t="s">
         <v>35</v>
       </c>
@@ -29760,6 +32144,10 @@
       <c r="O611" t="s">
         <v>33</v>
       </c>
+      <c r="P611">
+        <f t="shared" si="9"/>
+        <v>88.75</v>
+      </c>
       <c r="AC611" t="s">
         <v>35</v>
       </c>
@@ -29807,6 +32195,10 @@
       <c r="O612" t="s">
         <v>33</v>
       </c>
+      <c r="P612">
+        <f t="shared" si="9"/>
+        <v>90.25</v>
+      </c>
       <c r="AC612" t="s">
         <v>35</v>
       </c>
@@ -29854,6 +32246,10 @@
       <c r="O613" t="s">
         <v>33</v>
       </c>
+      <c r="P613">
+        <f t="shared" si="9"/>
+        <v>93.25</v>
+      </c>
       <c r="AC613" t="s">
         <v>35</v>
       </c>
@@ -29901,6 +32297,10 @@
       <c r="O614" t="s">
         <v>33</v>
       </c>
+      <c r="P614">
+        <f t="shared" si="9"/>
+        <v>94.25</v>
+      </c>
       <c r="AC614" t="s">
         <v>35</v>
       </c>
@@ -29948,6 +32348,10 @@
       <c r="O615" t="s">
         <v>33</v>
       </c>
+      <c r="P615">
+        <f t="shared" si="9"/>
+        <v>95.5</v>
+      </c>
       <c r="AC615" t="s">
         <v>35</v>
       </c>
@@ -29995,6 +32399,10 @@
       <c r="O616" t="s">
         <v>33</v>
       </c>
+      <c r="P616">
+        <f t="shared" si="9"/>
+        <v>97.25</v>
+      </c>
       <c r="AC616" t="s">
         <v>35</v>
       </c>
@@ -30042,6 +32450,10 @@
       <c r="O617" t="s">
         <v>33</v>
       </c>
+      <c r="P617">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
       <c r="AC617" t="s">
         <v>35</v>
       </c>
@@ -30095,6 +32507,10 @@
       <c r="O618" t="s">
         <v>33</v>
       </c>
+      <c r="P618">
+        <f t="shared" si="9"/>
+        <v>96.5</v>
+      </c>
       <c r="AC618" t="s">
         <v>35</v>
       </c>
@@ -30142,6 +32558,10 @@
       <c r="O619" t="s">
         <v>33</v>
       </c>
+      <c r="P619">
+        <f t="shared" si="9"/>
+        <v>96.75</v>
+      </c>
       <c r="AC619" t="s">
         <v>35</v>
       </c>
@@ -30189,6 +32609,10 @@
       <c r="O620" t="s">
         <v>33</v>
       </c>
+      <c r="P620">
+        <f t="shared" si="9"/>
+        <v>98.25</v>
+      </c>
       <c r="AC620" t="s">
         <v>35</v>
       </c>
@@ -30236,6 +32660,10 @@
       <c r="O621" t="s">
         <v>33</v>
       </c>
+      <c r="P621">
+        <f t="shared" si="9"/>
+        <v>99.5</v>
+      </c>
       <c r="AC621" t="s">
         <v>35</v>
       </c>
@@ -30283,6 +32711,10 @@
       <c r="O622" t="s">
         <v>33</v>
       </c>
+      <c r="P622">
+        <f t="shared" si="9"/>
+        <v>100.25</v>
+      </c>
       <c r="AC622" t="s">
         <v>35</v>
       </c>
@@ -30330,6 +32762,10 @@
       <c r="O623" t="s">
         <v>33</v>
       </c>
+      <c r="P623">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
       <c r="AC623" t="s">
         <v>35</v>
       </c>
@@ -30377,6 +32813,10 @@
       <c r="O624" t="s">
         <v>33</v>
       </c>
+      <c r="P624">
+        <f t="shared" si="9"/>
+        <v>105.25</v>
+      </c>
       <c r="AC624" t="s">
         <v>35</v>
       </c>
@@ -30424,6 +32864,10 @@
       <c r="O625" t="s">
         <v>33</v>
       </c>
+      <c r="P625">
+        <f t="shared" si="9"/>
+        <v>106.25</v>
+      </c>
       <c r="AC625" t="s">
         <v>35</v>
       </c>
@@ -30471,6 +32915,10 @@
       <c r="O626" t="s">
         <v>33</v>
       </c>
+      <c r="P626">
+        <f t="shared" si="9"/>
+        <v>108.25</v>
+      </c>
       <c r="AC626" t="s">
         <v>35</v>
       </c>
@@ -30518,6 +32966,10 @@
       <c r="O627" t="s">
         <v>33</v>
       </c>
+      <c r="P627">
+        <f t="shared" si="9"/>
+        <v>108.75</v>
+      </c>
       <c r="AC627" t="s">
         <v>35</v>
       </c>
@@ -30565,6 +33017,10 @@
       <c r="O628" t="s">
         <v>33</v>
       </c>
+      <c r="P628">
+        <f t="shared" si="9"/>
+        <v>108.25</v>
+      </c>
       <c r="AC628" t="s">
         <v>35</v>
       </c>
@@ -30612,6 +33068,10 @@
       <c r="O629" t="s">
         <v>33</v>
       </c>
+      <c r="P629">
+        <f t="shared" si="9"/>
+        <v>107.5</v>
+      </c>
       <c r="AC629" t="s">
         <v>35</v>
       </c>
@@ -30659,6 +33119,10 @@
       <c r="O630" t="s">
         <v>33</v>
       </c>
+      <c r="P630">
+        <f t="shared" si="9"/>
+        <v>104.25</v>
+      </c>
       <c r="AC630" t="s">
         <v>35</v>
       </c>
@@ -30706,6 +33170,10 @@
       <c r="O631" t="s">
         <v>33</v>
       </c>
+      <c r="P631">
+        <f t="shared" si="9"/>
+        <v>103.5</v>
+      </c>
       <c r="AC631" t="s">
         <v>35</v>
       </c>
@@ -30753,6 +33221,10 @@
       <c r="O632" t="s">
         <v>33</v>
       </c>
+      <c r="P632">
+        <f t="shared" si="9"/>
+        <v>104.25</v>
+      </c>
       <c r="AC632" t="s">
         <v>35</v>
       </c>
@@ -30800,6 +33272,10 @@
       <c r="O633" t="s">
         <v>33</v>
       </c>
+      <c r="P633">
+        <f t="shared" si="9"/>
+        <v>102.25</v>
+      </c>
       <c r="AC633" t="s">
         <v>35</v>
       </c>
@@ -30847,6 +33323,10 @@
       <c r="O634" t="s">
         <v>33</v>
       </c>
+      <c r="P634">
+        <f t="shared" si="9"/>
+        <v>102.75</v>
+      </c>
       <c r="AC634" t="s">
         <v>35</v>
       </c>
@@ -30894,6 +33374,10 @@
       <c r="O635" t="s">
         <v>33</v>
       </c>
+      <c r="P635">
+        <f t="shared" si="9"/>
+        <v>104.25</v>
+      </c>
       <c r="AC635" t="s">
         <v>35</v>
       </c>
@@ -30941,6 +33425,10 @@
       <c r="O636" t="s">
         <v>33</v>
       </c>
+      <c r="P636">
+        <f t="shared" si="9"/>
+        <v>105.75</v>
+      </c>
       <c r="AC636" t="s">
         <v>35</v>
       </c>
@@ -30988,6 +33476,10 @@
       <c r="O637" t="s">
         <v>33</v>
       </c>
+      <c r="P637">
+        <f t="shared" si="9"/>
+        <v>107.75</v>
+      </c>
       <c r="AC637" t="s">
         <v>35</v>
       </c>
@@ -31035,6 +33527,10 @@
       <c r="O638" t="s">
         <v>33</v>
       </c>
+      <c r="P638">
+        <f t="shared" si="9"/>
+        <v>107.5</v>
+      </c>
       <c r="AC638" t="s">
         <v>35</v>
       </c>
@@ -31082,6 +33578,10 @@
       <c r="O639" t="s">
         <v>33</v>
       </c>
+      <c r="P639">
+        <f t="shared" si="9"/>
+        <v>108.75</v>
+      </c>
       <c r="AC639" t="s">
         <v>35</v>
       </c>
@@ -31129,6 +33629,10 @@
       <c r="O640" t="s">
         <v>33</v>
       </c>
+      <c r="P640">
+        <f t="shared" si="9"/>
+        <v>111.5</v>
+      </c>
       <c r="AC640" t="s">
         <v>35</v>
       </c>
@@ -31176,6 +33680,10 @@
       <c r="O641" t="s">
         <v>33</v>
       </c>
+      <c r="P641">
+        <f t="shared" si="9"/>
+        <v>113.25</v>
+      </c>
       <c r="AC641" t="s">
         <v>35</v>
       </c>
@@ -31223,6 +33731,10 @@
       <c r="O642" t="s">
         <v>33</v>
       </c>
+      <c r="P642">
+        <f t="shared" si="9"/>
+        <v>113.75</v>
+      </c>
       <c r="AC642" t="s">
         <v>35</v>
       </c>
@@ -31270,6 +33782,10 @@
       <c r="O643" t="s">
         <v>33</v>
       </c>
+      <c r="P643">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
       <c r="AC643" t="s">
         <v>35</v>
       </c>
@@ -31317,6 +33833,10 @@
       <c r="O644" t="s">
         <v>33</v>
       </c>
+      <c r="P644">
+        <f t="shared" si="9"/>
+        <v>113.75</v>
+      </c>
       <c r="AC644" t="s">
         <v>35</v>
       </c>
@@ -31364,6 +33884,10 @@
       <c r="O645" t="s">
         <v>33</v>
       </c>
+      <c r="P645">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
       <c r="AC645" t="s">
         <v>35</v>
       </c>
@@ -31411,6 +33935,10 @@
       <c r="O646" t="s">
         <v>33</v>
       </c>
+      <c r="P646">
+        <f t="shared" si="9"/>
+        <v>112.5</v>
+      </c>
       <c r="AC646" t="s">
         <v>35</v>
       </c>
@@ -31458,6 +33986,10 @@
       <c r="O647" t="s">
         <v>33</v>
       </c>
+      <c r="P647">
+        <f t="shared" si="9"/>
+        <v>106.75</v>
+      </c>
       <c r="AC647" t="s">
         <v>35</v>
       </c>
@@ -31505,6 +34037,10 @@
       <c r="O648" t="s">
         <v>33</v>
       </c>
+      <c r="P648">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
       <c r="AC648" t="s">
         <v>35</v>
       </c>
@@ -31552,6 +34088,10 @@
       <c r="O649" t="s">
         <v>33</v>
       </c>
+      <c r="P649">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
       <c r="AC649" t="s">
         <v>35</v>
       </c>
@@ -31599,6 +34139,10 @@
       <c r="O650" t="s">
         <v>33</v>
       </c>
+      <c r="P650">
+        <f t="shared" si="9"/>
+        <v>94.5</v>
+      </c>
       <c r="AC650" t="s">
         <v>35</v>
       </c>
@@ -31646,6 +34190,10 @@
       <c r="O651" t="s">
         <v>33</v>
       </c>
+      <c r="P651">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
       <c r="AC651" t="s">
         <v>35</v>
       </c>
@@ -31693,6 +34241,10 @@
       <c r="O652" t="s">
         <v>33</v>
       </c>
+      <c r="P652">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
       <c r="AC652" t="s">
         <v>35</v>
       </c>
@@ -31740,6 +34292,10 @@
       <c r="O653" t="s">
         <v>33</v>
       </c>
+      <c r="P653">
+        <f t="shared" si="9"/>
+        <v>99.5</v>
+      </c>
       <c r="AC653" t="s">
         <v>35</v>
       </c>
@@ -31787,6 +34343,10 @@
       <c r="O654" t="s">
         <v>33</v>
       </c>
+      <c r="P654">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
       <c r="AC654" t="s">
         <v>35</v>
       </c>
@@ -31834,6 +34394,10 @@
       <c r="O655" t="s">
         <v>33</v>
       </c>
+      <c r="P655">
+        <f t="shared" si="9"/>
+        <v>106.75</v>
+      </c>
       <c r="AC655" t="s">
         <v>35</v>
       </c>
@@ -31881,6 +34445,10 @@
       <c r="O656" t="s">
         <v>33</v>
       </c>
+      <c r="P656">
+        <f t="shared" si="9"/>
+        <v>112.75</v>
+      </c>
       <c r="AC656" t="s">
         <v>35</v>
       </c>
@@ -31928,6 +34496,10 @@
       <c r="O657" t="s">
         <v>33</v>
       </c>
+      <c r="P657">
+        <f t="shared" si="9"/>
+        <v>113.75</v>
+      </c>
       <c r="AC657" t="s">
         <v>35</v>
       </c>
@@ -31975,6 +34547,10 @@
       <c r="O658" t="s">
         <v>33</v>
       </c>
+      <c r="P658">
+        <f t="shared" ref="P658:P721" si="10">AVERAGE(N656,N657,N659,N660)</f>
+        <v>112.5</v>
+      </c>
       <c r="AC658" t="s">
         <v>35</v>
       </c>
@@ -32022,6 +34598,10 @@
       <c r="O659" t="s">
         <v>33</v>
       </c>
+      <c r="P659">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
       <c r="AC659" t="s">
         <v>35</v>
       </c>
@@ -32069,6 +34649,10 @@
       <c r="O660" t="s">
         <v>33</v>
       </c>
+      <c r="P660">
+        <f t="shared" si="10"/>
+        <v>111.25</v>
+      </c>
       <c r="AC660" t="s">
         <v>35</v>
       </c>
@@ -32116,6 +34700,10 @@
       <c r="O661" t="s">
         <v>33</v>
       </c>
+      <c r="P661">
+        <f t="shared" si="10"/>
+        <v>108.5</v>
+      </c>
       <c r="AC661" t="s">
         <v>35</v>
       </c>
@@ -32163,6 +34751,10 @@
       <c r="O662" t="s">
         <v>33</v>
       </c>
+      <c r="P662">
+        <f t="shared" si="10"/>
+        <v>106.25</v>
+      </c>
       <c r="AC662" t="s">
         <v>35</v>
       </c>
@@ -32210,6 +34802,10 @@
       <c r="O663" t="s">
         <v>33</v>
       </c>
+      <c r="P663">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
       <c r="AC663" t="s">
         <v>35</v>
       </c>
@@ -32257,6 +34853,10 @@
       <c r="O664" t="s">
         <v>33</v>
       </c>
+      <c r="P664">
+        <f t="shared" si="10"/>
+        <v>100.5</v>
+      </c>
       <c r="AC664" t="s">
         <v>35</v>
       </c>
@@ -32304,6 +34904,10 @@
       <c r="O665" t="s">
         <v>33</v>
       </c>
+      <c r="P665">
+        <f t="shared" si="10"/>
+        <v>98.75</v>
+      </c>
       <c r="AC665" t="s">
         <v>35</v>
       </c>
@@ -32351,6 +34955,10 @@
       <c r="O666" t="s">
         <v>33</v>
       </c>
+      <c r="P666">
+        <f t="shared" si="10"/>
+        <v>96.25</v>
+      </c>
       <c r="AC666" t="s">
         <v>35</v>
       </c>
@@ -32398,6 +35006,10 @@
       <c r="O667" t="s">
         <v>33</v>
       </c>
+      <c r="P667">
+        <f t="shared" si="10"/>
+        <v>92.5</v>
+      </c>
       <c r="AC667" t="s">
         <v>35</v>
       </c>
@@ -32445,6 +35057,10 @@
       <c r="O668" t="s">
         <v>33</v>
       </c>
+      <c r="P668">
+        <f t="shared" si="10"/>
+        <v>90.5</v>
+      </c>
       <c r="AC668" t="s">
         <v>35</v>
       </c>
@@ -32492,6 +35108,10 @@
       <c r="O669" t="s">
         <v>33</v>
       </c>
+      <c r="P669">
+        <f t="shared" si="10"/>
+        <v>87.5</v>
+      </c>
       <c r="AC669" t="s">
         <v>35</v>
       </c>
@@ -32539,6 +35159,10 @@
       <c r="O670" t="s">
         <v>33</v>
       </c>
+      <c r="P670">
+        <f t="shared" si="10"/>
+        <v>83.75</v>
+      </c>
       <c r="AC670" t="s">
         <v>35</v>
       </c>
@@ -32586,6 +35210,10 @@
       <c r="O671" t="s">
         <v>33</v>
       </c>
+      <c r="P671">
+        <f t="shared" si="10"/>
+        <v>83.25</v>
+      </c>
       <c r="AC671" t="s">
         <v>35</v>
       </c>
@@ -32633,6 +35261,10 @@
       <c r="O672" t="s">
         <v>33</v>
       </c>
+      <c r="P672">
+        <f t="shared" si="10"/>
+        <v>82.75</v>
+      </c>
       <c r="AC672" t="s">
         <v>35</v>
       </c>
@@ -32680,6 +35312,10 @@
       <c r="O673" t="s">
         <v>33</v>
       </c>
+      <c r="P673">
+        <f t="shared" si="10"/>
+        <v>79.25</v>
+      </c>
       <c r="AC673" t="s">
         <v>35</v>
       </c>
@@ -32727,6 +35363,10 @@
       <c r="O674" t="s">
         <v>33</v>
       </c>
+      <c r="P674">
+        <f t="shared" si="10"/>
+        <v>76.25</v>
+      </c>
       <c r="AC674" t="s">
         <v>35</v>
       </c>
@@ -32774,6 +35414,10 @@
       <c r="O675" t="s">
         <v>33</v>
       </c>
+      <c r="P675">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
       <c r="AC675" t="s">
         <v>35</v>
       </c>
@@ -32827,6 +35471,10 @@
       <c r="O676" t="s">
         <v>33</v>
       </c>
+      <c r="P676">
+        <f t="shared" si="10"/>
+        <v>77.25</v>
+      </c>
       <c r="AC676" t="s">
         <v>35</v>
       </c>
@@ -32874,6 +35522,10 @@
       <c r="O677" t="s">
         <v>33</v>
       </c>
+      <c r="P677">
+        <f t="shared" si="10"/>
+        <v>75.75</v>
+      </c>
       <c r="AC677" t="s">
         <v>35</v>
       </c>
@@ -32921,6 +35573,10 @@
       <c r="O678" t="s">
         <v>33</v>
       </c>
+      <c r="P678">
+        <f t="shared" si="10"/>
+        <v>77.5</v>
+      </c>
       <c r="AC678" t="s">
         <v>35</v>
       </c>
@@ -32968,6 +35624,10 @@
       <c r="O679" t="s">
         <v>33</v>
       </c>
+      <c r="P679">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
       <c r="AC679" t="s">
         <v>35</v>
       </c>
@@ -33015,6 +35675,10 @@
       <c r="O680" t="s">
         <v>33</v>
       </c>
+      <c r="P680">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
       <c r="AC680" t="s">
         <v>35</v>
       </c>
@@ -33062,6 +35726,10 @@
       <c r="O681" t="s">
         <v>33</v>
       </c>
+      <c r="P681">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
       <c r="AC681" t="s">
         <v>35</v>
       </c>
@@ -33109,6 +35777,10 @@
       <c r="O682" t="s">
         <v>33</v>
       </c>
+      <c r="P682">
+        <f t="shared" si="10"/>
+        <v>88.75</v>
+      </c>
       <c r="AC682" t="s">
         <v>35</v>
       </c>
@@ -33156,6 +35828,10 @@
       <c r="O683" t="s">
         <v>33</v>
       </c>
+      <c r="P683">
+        <f t="shared" si="10"/>
+        <v>89.75</v>
+      </c>
       <c r="AC683" t="s">
         <v>35</v>
       </c>
@@ -33203,6 +35879,10 @@
       <c r="O684" t="s">
         <v>33</v>
       </c>
+      <c r="P684">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
       <c r="AC684" t="s">
         <v>35</v>
       </c>
@@ -33250,6 +35930,10 @@
       <c r="O685" t="s">
         <v>33</v>
       </c>
+      <c r="P685">
+        <f t="shared" si="10"/>
+        <v>88.75</v>
+      </c>
       <c r="AC685" t="s">
         <v>35</v>
       </c>
@@ -33297,6 +35981,10 @@
       <c r="O686" t="s">
         <v>33</v>
       </c>
+      <c r="P686">
+        <f t="shared" si="10"/>
+        <v>87.25</v>
+      </c>
       <c r="AC686" t="s">
         <v>35</v>
       </c>
@@ -33344,6 +36032,10 @@
       <c r="O687" t="s">
         <v>33</v>
       </c>
+      <c r="P687">
+        <f t="shared" si="10"/>
+        <v>84.75</v>
+      </c>
       <c r="AC687" t="s">
         <v>35</v>
       </c>
@@ -33391,6 +36083,10 @@
       <c r="O688" t="s">
         <v>33</v>
       </c>
+      <c r="P688">
+        <f t="shared" si="10"/>
+        <v>82.75</v>
+      </c>
       <c r="AC688" t="s">
         <v>35</v>
       </c>
@@ -33438,6 +36134,10 @@
       <c r="O689" t="s">
         <v>33</v>
       </c>
+      <c r="P689">
+        <f t="shared" si="10"/>
+        <v>83.5</v>
+      </c>
       <c r="AC689" t="s">
         <v>35</v>
       </c>
@@ -33485,6 +36185,10 @@
       <c r="O690" t="s">
         <v>33</v>
       </c>
+      <c r="P690">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
       <c r="AC690" t="s">
         <v>35</v>
       </c>
@@ -33532,6 +36236,10 @@
       <c r="O691" t="s">
         <v>33</v>
       </c>
+      <c r="P691">
+        <f t="shared" si="10"/>
+        <v>83.75</v>
+      </c>
       <c r="AC691" t="s">
         <v>35</v>
       </c>
@@ -33579,6 +36287,10 @@
       <c r="O692" t="s">
         <v>33</v>
       </c>
+      <c r="P692">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
       <c r="AC692" t="s">
         <v>35</v>
       </c>
@@ -33626,6 +36338,10 @@
       <c r="O693" t="s">
         <v>33</v>
       </c>
+      <c r="P693">
+        <f t="shared" si="10"/>
+        <v>86.5</v>
+      </c>
       <c r="AC693" t="s">
         <v>35</v>
       </c>
@@ -33679,6 +36395,10 @@
       <c r="O694" t="s">
         <v>33</v>
       </c>
+      <c r="P694">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
       <c r="AC694" t="s">
         <v>35</v>
       </c>
@@ -33726,6 +36446,10 @@
       <c r="O695" t="s">
         <v>33</v>
       </c>
+      <c r="P695">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
       <c r="AC695" t="s">
         <v>35</v>
       </c>
@@ -33773,6 +36497,10 @@
       <c r="O696" t="s">
         <v>33</v>
       </c>
+      <c r="P696">
+        <f t="shared" si="10"/>
+        <v>95.75</v>
+      </c>
       <c r="AC696" t="s">
         <v>35</v>
       </c>
@@ -33820,6 +36548,10 @@
       <c r="O697" t="s">
         <v>33</v>
       </c>
+      <c r="P697">
+        <f t="shared" si="10"/>
+        <v>103.75</v>
+      </c>
       <c r="AC697" t="s">
         <v>35</v>
       </c>
@@ -33867,6 +36599,10 @@
       <c r="O698" t="s">
         <v>33</v>
       </c>
+      <c r="P698">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
       <c r="AC698" t="s">
         <v>35</v>
       </c>
@@ -33914,6 +36650,10 @@
       <c r="O699" t="s">
         <v>33</v>
       </c>
+      <c r="P699">
+        <f t="shared" si="10"/>
+        <v>124.75</v>
+      </c>
       <c r="AC699" t="s">
         <v>35</v>
       </c>
@@ -33961,6 +36701,10 @@
       <c r="O700" t="s">
         <v>33</v>
       </c>
+      <c r="P700">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
       <c r="AC700" t="s">
         <v>35</v>
       </c>
@@ -34008,6 +36752,10 @@
       <c r="O701" t="s">
         <v>33</v>
       </c>
+      <c r="P701">
+        <f t="shared" si="10"/>
+        <v>142.75</v>
+      </c>
       <c r="AC701" t="s">
         <v>35</v>
       </c>
@@ -34055,6 +36803,10 @@
       <c r="O702" t="s">
         <v>33</v>
       </c>
+      <c r="P702">
+        <f t="shared" si="10"/>
+        <v>145.75</v>
+      </c>
       <c r="AC702" t="s">
         <v>35</v>
       </c>
@@ -34102,6 +36854,10 @@
       <c r="O703" t="s">
         <v>33</v>
       </c>
+      <c r="P703">
+        <f t="shared" si="10"/>
+        <v>145.25</v>
+      </c>
       <c r="AC703" t="s">
         <v>35</v>
       </c>
@@ -34149,6 +36905,10 @@
       <c r="O704" t="s">
         <v>33</v>
       </c>
+      <c r="P704">
+        <f t="shared" si="10"/>
+        <v>144.75</v>
+      </c>
       <c r="AC704" t="s">
         <v>35</v>
       </c>
@@ -34196,6 +36956,10 @@
       <c r="O705" t="s">
         <v>33</v>
       </c>
+      <c r="P705">
+        <f t="shared" si="10"/>
+        <v>143.75</v>
+      </c>
       <c r="AC705" t="s">
         <v>35</v>
       </c>
@@ -34243,6 +37007,10 @@
       <c r="O706" t="s">
         <v>33</v>
       </c>
+      <c r="P706">
+        <f t="shared" si="10"/>
+        <v>142.75</v>
+      </c>
       <c r="AC706" t="s">
         <v>35</v>
       </c>
@@ -34290,6 +37058,10 @@
       <c r="O707" t="s">
         <v>33</v>
       </c>
+      <c r="P707">
+        <f t="shared" si="10"/>
+        <v>143.5</v>
+      </c>
       <c r="AC707" t="s">
         <v>35</v>
       </c>
@@ -34337,6 +37109,10 @@
       <c r="O708" t="s">
         <v>33</v>
       </c>
+      <c r="P708">
+        <f t="shared" si="10"/>
+        <v>144.25</v>
+      </c>
       <c r="AC708" t="s">
         <v>35</v>
       </c>
@@ -34384,6 +37160,10 @@
       <c r="O709" t="s">
         <v>33</v>
       </c>
+      <c r="P709">
+        <f t="shared" si="10"/>
+        <v>143</v>
+      </c>
       <c r="AC709" t="s">
         <v>35</v>
       </c>
@@ -34431,6 +37211,10 @@
       <c r="O710" t="s">
         <v>33</v>
       </c>
+      <c r="P710">
+        <f t="shared" si="10"/>
+        <v>142.75</v>
+      </c>
       <c r="AC710" t="s">
         <v>35</v>
       </c>
@@ -34478,6 +37262,10 @@
       <c r="O711" t="s">
         <v>33</v>
       </c>
+      <c r="P711">
+        <f t="shared" si="10"/>
+        <v>140.25</v>
+      </c>
       <c r="AC711" t="s">
         <v>35</v>
       </c>
@@ -34525,6 +37313,10 @@
       <c r="O712" t="s">
         <v>33</v>
       </c>
+      <c r="P712">
+        <f t="shared" si="10"/>
+        <v>130.5</v>
+      </c>
       <c r="AC712" t="s">
         <v>35</v>
       </c>
@@ -34572,6 +37364,10 @@
       <c r="O713" t="s">
         <v>33</v>
       </c>
+      <c r="P713">
+        <f t="shared" si="10"/>
+        <v>123.5</v>
+      </c>
       <c r="AC713" t="s">
         <v>35</v>
       </c>
@@ -34619,6 +37415,10 @@
       <c r="O714" t="s">
         <v>33</v>
       </c>
+      <c r="P714">
+        <f t="shared" si="10"/>
+        <v>119.75</v>
+      </c>
       <c r="AC714" t="s">
         <v>35</v>
       </c>
@@ -34666,6 +37466,10 @@
       <c r="O715" t="s">
         <v>33</v>
       </c>
+      <c r="P715">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
       <c r="AC715" t="s">
         <v>35</v>
       </c>
@@ -34713,6 +37517,10 @@
       <c r="O716" t="s">
         <v>33</v>
       </c>
+      <c r="P716">
+        <f t="shared" si="10"/>
+        <v>107.25</v>
+      </c>
       <c r="AC716" t="s">
         <v>35</v>
       </c>
@@ -34760,6 +37568,10 @@
       <c r="O717" t="s">
         <v>33</v>
       </c>
+      <c r="P717">
+        <f t="shared" si="10"/>
+        <v>107.25</v>
+      </c>
       <c r="AC717" t="s">
         <v>35</v>
       </c>
@@ -34807,6 +37619,10 @@
       <c r="O718" t="s">
         <v>33</v>
       </c>
+      <c r="P718">
+        <f t="shared" si="10"/>
+        <v>109.5</v>
+      </c>
       <c r="AC718" t="s">
         <v>35</v>
       </c>
@@ -34854,6 +37670,10 @@
       <c r="O719" t="s">
         <v>33</v>
       </c>
+      <c r="P719">
+        <f t="shared" si="10"/>
+        <v>111.75</v>
+      </c>
       <c r="AC719" t="s">
         <v>35</v>
       </c>
@@ -34901,6 +37721,10 @@
       <c r="O720" t="s">
         <v>33</v>
       </c>
+      <c r="P720">
+        <f t="shared" si="10"/>
+        <v>113.75</v>
+      </c>
       <c r="AC720" t="s">
         <v>35</v>
       </c>
@@ -34948,6 +37772,10 @@
       <c r="O721" t="s">
         <v>33</v>
       </c>
+      <c r="P721">
+        <f t="shared" si="10"/>
+        <v>119.25</v>
+      </c>
       <c r="AC721" t="s">
         <v>35</v>
       </c>
@@ -34995,6 +37823,10 @@
       <c r="O722" t="s">
         <v>33</v>
       </c>
+      <c r="P722">
+        <f t="shared" ref="P722:P785" si="11">AVERAGE(N720,N721,N723,N724)</f>
+        <v>122.5</v>
+      </c>
       <c r="AC722" t="s">
         <v>35</v>
       </c>
@@ -35042,6 +37874,10 @@
       <c r="O723" t="s">
         <v>33</v>
       </c>
+      <c r="P723">
+        <f t="shared" si="11"/>
+        <v>122.5</v>
+      </c>
       <c r="AC723" t="s">
         <v>35</v>
       </c>
@@ -35089,6 +37925,10 @@
       <c r="O724" t="s">
         <v>33</v>
       </c>
+      <c r="P724">
+        <f t="shared" si="11"/>
+        <v>124</v>
+      </c>
       <c r="AC724" t="s">
         <v>35</v>
       </c>
@@ -35136,6 +37976,10 @@
       <c r="O725" t="s">
         <v>33</v>
       </c>
+      <c r="P725">
+        <f t="shared" si="11"/>
+        <v>123.75</v>
+      </c>
       <c r="AC725" t="s">
         <v>35</v>
       </c>
@@ -35183,6 +38027,10 @@
       <c r="O726" t="s">
         <v>33</v>
       </c>
+      <c r="P726">
+        <f t="shared" si="11"/>
+        <v>121.25</v>
+      </c>
       <c r="AC726" t="s">
         <v>35</v>
       </c>
@@ -35230,6 +38078,10 @@
       <c r="O727" t="s">
         <v>33</v>
       </c>
+      <c r="P727">
+        <f t="shared" si="11"/>
+        <v>119.75</v>
+      </c>
       <c r="AC727" t="s">
         <v>35</v>
       </c>
@@ -35277,6 +38129,10 @@
       <c r="O728" t="s">
         <v>33</v>
       </c>
+      <c r="P728">
+        <f t="shared" si="11"/>
+        <v>116.75</v>
+      </c>
       <c r="AC728" t="s">
         <v>35</v>
       </c>
@@ -35324,6 +38180,10 @@
       <c r="O729" t="s">
         <v>33</v>
       </c>
+      <c r="P729">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
       <c r="AC729" t="s">
         <v>35</v>
       </c>
@@ -35371,6 +38231,10 @@
       <c r="O730" t="s">
         <v>33</v>
       </c>
+      <c r="P730">
+        <f t="shared" si="11"/>
+        <v>108.25</v>
+      </c>
       <c r="AC730" t="s">
         <v>35</v>
       </c>
@@ -35418,6 +38282,10 @@
       <c r="O731" t="s">
         <v>33</v>
       </c>
+      <c r="P731">
+        <f t="shared" si="11"/>
+        <v>106.75</v>
+      </c>
       <c r="AC731" t="s">
         <v>35</v>
       </c>
@@ -35465,6 +38333,10 @@
       <c r="O732" t="s">
         <v>33</v>
       </c>
+      <c r="P732">
+        <f t="shared" si="11"/>
+        <v>106.5</v>
+      </c>
       <c r="AC732" t="s">
         <v>35</v>
       </c>
@@ -35512,6 +38384,10 @@
       <c r="O733" t="s">
         <v>33</v>
       </c>
+      <c r="P733">
+        <f t="shared" si="11"/>
+        <v>111.5</v>
+      </c>
       <c r="AC733" t="s">
         <v>35</v>
       </c>
@@ -35559,6 +38435,10 @@
       <c r="O734" t="s">
         <v>33</v>
       </c>
+      <c r="P734">
+        <f t="shared" si="11"/>
+        <v>114.75</v>
+      </c>
       <c r="AC734" t="s">
         <v>35</v>
       </c>
@@ -35606,6 +38486,10 @@
       <c r="O735" t="s">
         <v>33</v>
       </c>
+      <c r="P735">
+        <f t="shared" si="11"/>
+        <v>118.25</v>
+      </c>
       <c r="AC735" t="s">
         <v>35</v>
       </c>
@@ -35653,6 +38537,10 @@
       <c r="O736" t="s">
         <v>33</v>
       </c>
+      <c r="P736">
+        <f t="shared" si="11"/>
+        <v>124.75</v>
+      </c>
       <c r="AC736" t="s">
         <v>35</v>
       </c>
@@ -35700,6 +38588,10 @@
       <c r="O737" t="s">
         <v>33</v>
       </c>
+      <c r="P737">
+        <f t="shared" si="11"/>
+        <v>125.25</v>
+      </c>
       <c r="AC737" t="s">
         <v>35</v>
       </c>
@@ -35747,6 +38639,10 @@
       <c r="O738" t="s">
         <v>33</v>
       </c>
+      <c r="P738">
+        <f t="shared" si="11"/>
+        <v>122.5</v>
+      </c>
       <c r="AC738" t="s">
         <v>35</v>
       </c>
@@ -35794,6 +38690,10 @@
       <c r="O739" t="s">
         <v>33</v>
       </c>
+      <c r="P739">
+        <f t="shared" si="11"/>
+        <v>120.75</v>
+      </c>
       <c r="AC739" t="s">
         <v>35</v>
       </c>
@@ -35841,6 +38741,10 @@
       <c r="O740" t="s">
         <v>33</v>
       </c>
+      <c r="P740">
+        <f t="shared" si="11"/>
+        <v>115.75</v>
+      </c>
       <c r="AC740" t="s">
         <v>35</v>
       </c>
@@ -35888,6 +38792,10 @@
       <c r="O741" t="s">
         <v>33</v>
       </c>
+      <c r="P741">
+        <f t="shared" si="11"/>
+        <v>110.25</v>
+      </c>
       <c r="AC741" t="s">
         <v>35</v>
       </c>
@@ -35935,6 +38843,10 @@
       <c r="O742" t="s">
         <v>33</v>
       </c>
+      <c r="P742">
+        <f t="shared" si="11"/>
+        <v>109.5</v>
+      </c>
       <c r="AC742" t="s">
         <v>35</v>
       </c>
@@ -35982,6 +38894,10 @@
       <c r="O743" t="s">
         <v>33</v>
       </c>
+      <c r="P743">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
       <c r="AC743" t="s">
         <v>35</v>
       </c>
@@ -36029,6 +38945,10 @@
       <c r="O744" t="s">
         <v>33</v>
       </c>
+      <c r="P744">
+        <f t="shared" si="11"/>
+        <v>109</v>
+      </c>
       <c r="AC744" t="s">
         <v>35</v>
       </c>
@@ -36076,6 +38996,10 @@
       <c r="O745" t="s">
         <v>33</v>
       </c>
+      <c r="P745">
+        <f t="shared" si="11"/>
+        <v>110.75</v>
+      </c>
       <c r="AC745" t="s">
         <v>35</v>
       </c>
@@ -36123,6 +39047,10 @@
       <c r="O746" t="s">
         <v>33</v>
       </c>
+      <c r="P746">
+        <f t="shared" si="11"/>
+        <v>114.25</v>
+      </c>
       <c r="AC746" t="s">
         <v>35</v>
       </c>
@@ -36170,6 +39098,10 @@
       <c r="O747" t="s">
         <v>33</v>
       </c>
+      <c r="P747">
+        <f t="shared" si="11"/>
+        <v>115.75</v>
+      </c>
       <c r="AC747" t="s">
         <v>35</v>
       </c>
@@ -36217,6 +39149,10 @@
       <c r="O748" t="s">
         <v>33</v>
       </c>
+      <c r="P748">
+        <f t="shared" si="11"/>
+        <v>115.25</v>
+      </c>
       <c r="AC748" t="s">
         <v>35</v>
       </c>
@@ -36264,6 +39200,10 @@
       <c r="O749" t="s">
         <v>33</v>
       </c>
+      <c r="P749">
+        <f t="shared" si="11"/>
+        <v>114.25</v>
+      </c>
       <c r="AC749" t="s">
         <v>35</v>
       </c>
@@ -36311,6 +39251,10 @@
       <c r="O750" t="s">
         <v>33</v>
       </c>
+      <c r="P750">
+        <f t="shared" si="11"/>
+        <v>113.5</v>
+      </c>
       <c r="AC750" t="s">
         <v>35</v>
       </c>
@@ -36358,6 +39302,10 @@
       <c r="O751" t="s">
         <v>33</v>
       </c>
+      <c r="P751">
+        <f t="shared" si="11"/>
+        <v>110.75</v>
+      </c>
       <c r="AC751" t="s">
         <v>35</v>
       </c>
@@ -36405,6 +39353,10 @@
       <c r="O752" t="s">
         <v>33</v>
       </c>
+      <c r="P752">
+        <f t="shared" si="11"/>
+        <v>109.5</v>
+      </c>
       <c r="AC752" t="s">
         <v>35</v>
       </c>
@@ -36452,6 +39404,10 @@
       <c r="O753" t="s">
         <v>33</v>
       </c>
+      <c r="P753">
+        <f t="shared" si="11"/>
+        <v>113.5</v>
+      </c>
       <c r="AC753" t="s">
         <v>35</v>
       </c>
@@ -36499,6 +39455,10 @@
       <c r="O754" t="s">
         <v>33</v>
       </c>
+      <c r="P754">
+        <f t="shared" si="11"/>
+        <v>114</v>
+      </c>
       <c r="AC754" t="s">
         <v>35</v>
       </c>
@@ -36546,6 +39506,10 @@
       <c r="O755" t="s">
         <v>33</v>
       </c>
+      <c r="P755">
+        <f t="shared" si="11"/>
+        <v>111.75</v>
+      </c>
       <c r="AC755" t="s">
         <v>35</v>
       </c>
@@ -36593,6 +39557,10 @@
       <c r="O756" t="s">
         <v>33</v>
       </c>
+      <c r="P756">
+        <f t="shared" si="11"/>
+        <v>116.75</v>
+      </c>
       <c r="AC756" t="s">
         <v>35</v>
       </c>
@@ -36640,6 +39608,10 @@
       <c r="O757" t="s">
         <v>33</v>
       </c>
+      <c r="P757">
+        <f t="shared" si="11"/>
+        <v>119.5</v>
+      </c>
       <c r="AC757" t="s">
         <v>35</v>
       </c>
@@ -36687,6 +39659,10 @@
       <c r="O758" t="s">
         <v>33</v>
       </c>
+      <c r="P758">
+        <f t="shared" si="11"/>
+        <v>117.25</v>
+      </c>
       <c r="AC758" t="s">
         <v>35</v>
       </c>
@@ -36734,6 +39710,10 @@
       <c r="O759" t="s">
         <v>33</v>
       </c>
+      <c r="P759">
+        <f t="shared" si="11"/>
+        <v>119.5</v>
+      </c>
       <c r="AC759" t="s">
         <v>35</v>
       </c>
@@ -36781,6 +39761,10 @@
       <c r="O760" t="s">
         <v>33</v>
       </c>
+      <c r="P760">
+        <f t="shared" si="11"/>
+        <v>120.25</v>
+      </c>
       <c r="AC760" t="s">
         <v>35</v>
       </c>
@@ -36828,6 +39812,10 @@
       <c r="O761" t="s">
         <v>33</v>
       </c>
+      <c r="P761">
+        <f t="shared" si="11"/>
+        <v>119.5</v>
+      </c>
       <c r="AC761" t="s">
         <v>35</v>
       </c>
@@ -36875,6 +39863,10 @@
       <c r="O762" t="s">
         <v>33</v>
       </c>
+      <c r="P762">
+        <f t="shared" si="11"/>
+        <v>121.5</v>
+      </c>
       <c r="AC762" t="s">
         <v>35</v>
       </c>
@@ -36922,6 +39914,10 @@
       <c r="O763" t="s">
         <v>33</v>
       </c>
+      <c r="P763">
+        <f t="shared" si="11"/>
+        <v>120.5</v>
+      </c>
       <c r="AC763" t="s">
         <v>35</v>
       </c>
@@ -36969,6 +39965,10 @@
       <c r="O764" t="s">
         <v>33</v>
       </c>
+      <c r="P764">
+        <f t="shared" si="11"/>
+        <v>119.25</v>
+      </c>
       <c r="AC764" t="s">
         <v>35</v>
       </c>
@@ -37016,6 +40016,10 @@
       <c r="O765" t="s">
         <v>33</v>
       </c>
+      <c r="P765">
+        <f t="shared" si="11"/>
+        <v>120.25</v>
+      </c>
       <c r="AC765" t="s">
         <v>35</v>
       </c>
@@ -37063,6 +40067,10 @@
       <c r="O766" t="s">
         <v>33</v>
       </c>
+      <c r="P766">
+        <f t="shared" si="11"/>
+        <v>119.5</v>
+      </c>
       <c r="AC766" t="s">
         <v>35</v>
       </c>
@@ -37110,6 +40118,10 @@
       <c r="O767" t="s">
         <v>33</v>
       </c>
+      <c r="P767">
+        <f t="shared" si="11"/>
+        <v>118.75</v>
+      </c>
       <c r="AC767" t="s">
         <v>35</v>
       </c>
@@ -37157,6 +40169,10 @@
       <c r="O768" t="s">
         <v>33</v>
       </c>
+      <c r="P768">
+        <f t="shared" si="11"/>
+        <v>119</v>
+      </c>
       <c r="AC768" t="s">
         <v>35</v>
       </c>
@@ -37204,6 +40220,10 @@
       <c r="O769" t="s">
         <v>33</v>
       </c>
+      <c r="P769">
+        <f t="shared" si="11"/>
+        <v>117.75</v>
+      </c>
       <c r="AC769" t="s">
         <v>35</v>
       </c>
@@ -37251,6 +40271,10 @@
       <c r="O770" t="s">
         <v>33</v>
       </c>
+      <c r="P770">
+        <f t="shared" si="11"/>
+        <v>114</v>
+      </c>
       <c r="AC770" t="s">
         <v>35</v>
       </c>
@@ -37298,6 +40322,10 @@
       <c r="O771" t="s">
         <v>33</v>
       </c>
+      <c r="P771">
+        <f t="shared" si="11"/>
+        <v>109.75</v>
+      </c>
       <c r="AC771" t="s">
         <v>35</v>
       </c>
@@ -37345,6 +40373,10 @@
       <c r="O772" t="s">
         <v>33</v>
       </c>
+      <c r="P772">
+        <f t="shared" si="11"/>
+        <v>106.75</v>
+      </c>
       <c r="AC772" t="s">
         <v>35</v>
       </c>
@@ -37392,6 +40424,10 @@
       <c r="O773" t="s">
         <v>33</v>
       </c>
+      <c r="P773">
+        <f t="shared" si="11"/>
+        <v>103.25</v>
+      </c>
       <c r="AC773" t="s">
         <v>35</v>
       </c>
@@ -37439,6 +40475,10 @@
       <c r="O774" t="s">
         <v>33</v>
       </c>
+      <c r="P774">
+        <f t="shared" si="11"/>
+        <v>99.75</v>
+      </c>
       <c r="AC774" t="s">
         <v>35</v>
       </c>
@@ -37486,6 +40526,10 @@
       <c r="O775" t="s">
         <v>33</v>
       </c>
+      <c r="P775">
+        <f t="shared" si="11"/>
+        <v>98.25</v>
+      </c>
       <c r="AC775" t="s">
         <v>35</v>
       </c>
@@ -37533,6 +40577,10 @@
       <c r="O776" t="s">
         <v>33</v>
       </c>
+      <c r="P776">
+        <f t="shared" si="11"/>
+        <v>98</v>
+      </c>
       <c r="AC776" t="s">
         <v>35</v>
       </c>
@@ -37580,6 +40628,10 @@
       <c r="O777" t="s">
         <v>33</v>
       </c>
+      <c r="P777">
+        <f t="shared" si="11"/>
+        <v>98.25</v>
+      </c>
       <c r="AC777" t="s">
         <v>35</v>
       </c>
@@ -37627,6 +40679,10 @@
       <c r="O778" t="s">
         <v>33</v>
       </c>
+      <c r="P778">
+        <f t="shared" si="11"/>
+        <v>98.5</v>
+      </c>
       <c r="AC778" t="s">
         <v>35</v>
       </c>
@@ -37674,6 +40730,10 @@
       <c r="O779" t="s">
         <v>33</v>
       </c>
+      <c r="P779">
+        <f t="shared" si="11"/>
+        <v>98.5</v>
+      </c>
       <c r="AC779" t="s">
         <v>35</v>
       </c>
@@ -37721,6 +40781,10 @@
       <c r="O780" t="s">
         <v>33</v>
       </c>
+      <c r="P780">
+        <f t="shared" si="11"/>
+        <v>98.5</v>
+      </c>
       <c r="AC780" t="s">
         <v>35</v>
       </c>
@@ -37768,6 +40832,10 @@
       <c r="O781" t="s">
         <v>33</v>
       </c>
+      <c r="P781">
+        <f t="shared" si="11"/>
+        <v>98.25</v>
+      </c>
       <c r="AC781" t="s">
         <v>35</v>
       </c>
@@ -37815,6 +40883,10 @@
       <c r="O782" t="s">
         <v>33</v>
       </c>
+      <c r="P782">
+        <f t="shared" si="11"/>
+        <v>98</v>
+      </c>
       <c r="AC782" t="s">
         <v>35</v>
       </c>
@@ -37862,6 +40934,10 @@
       <c r="O783" t="s">
         <v>33</v>
       </c>
+      <c r="P783">
+        <f t="shared" si="11"/>
+        <v>97.75</v>
+      </c>
       <c r="AC783" t="s">
         <v>35</v>
       </c>
@@ -37909,6 +40985,10 @@
       <c r="O784" t="s">
         <v>33</v>
       </c>
+      <c r="P784">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
       <c r="AC784" t="s">
         <v>35</v>
       </c>
@@ -37956,6 +41036,10 @@
       <c r="O785" t="s">
         <v>33</v>
       </c>
+      <c r="P785">
+        <f t="shared" si="11"/>
+        <v>96.25</v>
+      </c>
       <c r="AC785" t="s">
         <v>35</v>
       </c>
@@ -38003,6 +41087,10 @@
       <c r="O786" t="s">
         <v>33</v>
       </c>
+      <c r="P786">
+        <f t="shared" ref="P786:P849" si="12">AVERAGE(N784,N785,N787,N788)</f>
+        <v>96.25</v>
+      </c>
       <c r="AC786" t="s">
         <v>35</v>
       </c>
@@ -38050,6 +41138,10 @@
       <c r="O787" t="s">
         <v>33</v>
       </c>
+      <c r="P787">
+        <f t="shared" si="12"/>
+        <v>96.75</v>
+      </c>
       <c r="AC787" t="s">
         <v>35</v>
       </c>
@@ -38097,6 +41189,10 @@
       <c r="O788" t="s">
         <v>33</v>
       </c>
+      <c r="P788">
+        <f t="shared" si="12"/>
+        <v>96.25</v>
+      </c>
       <c r="AC788" t="s">
         <v>35</v>
       </c>
@@ -38144,6 +41240,10 @@
       <c r="O789" t="s">
         <v>33</v>
       </c>
+      <c r="P789">
+        <f t="shared" si="12"/>
+        <v>94.75</v>
+      </c>
       <c r="AC789" t="s">
         <v>35</v>
       </c>
@@ -38191,6 +41291,10 @@
       <c r="O790" t="s">
         <v>33</v>
       </c>
+      <c r="P790">
+        <f t="shared" si="12"/>
+        <v>94.25</v>
+      </c>
       <c r="AC790" t="s">
         <v>35</v>
       </c>
@@ -38238,6 +41342,10 @@
       <c r="O791" t="s">
         <v>33</v>
       </c>
+      <c r="P791">
+        <f t="shared" si="12"/>
+        <v>93.75</v>
+      </c>
       <c r="AC791" t="s">
         <v>35</v>
       </c>
@@ -38285,6 +41393,10 @@
       <c r="O792" t="s">
         <v>33</v>
       </c>
+      <c r="P792">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
       <c r="AC792" t="s">
         <v>35</v>
       </c>
@@ -38332,6 +41444,10 @@
       <c r="O793" t="s">
         <v>33</v>
       </c>
+      <c r="P793">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
       <c r="AC793" t="s">
         <v>35</v>
       </c>
@@ -38379,6 +41495,10 @@
       <c r="O794" t="s">
         <v>33</v>
       </c>
+      <c r="P794">
+        <f t="shared" si="12"/>
+        <v>90.5</v>
+      </c>
       <c r="AC794" t="s">
         <v>35</v>
       </c>
@@ -38426,6 +41546,10 @@
       <c r="O795" t="s">
         <v>33</v>
       </c>
+      <c r="P795">
+        <f t="shared" si="12"/>
+        <v>90.5</v>
+      </c>
       <c r="AC795" t="s">
         <v>35</v>
       </c>
@@ -38473,6 +41597,10 @@
       <c r="O796" t="s">
         <v>33</v>
       </c>
+      <c r="P796">
+        <f t="shared" si="12"/>
+        <v>91.75</v>
+      </c>
       <c r="AC796" t="s">
         <v>35</v>
       </c>
@@ -38520,6 +41648,10 @@
       <c r="O797" t="s">
         <v>33</v>
       </c>
+      <c r="P797">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
       <c r="AC797" t="s">
         <v>35</v>
       </c>
@@ -38567,6 +41699,10 @@
       <c r="O798" t="s">
         <v>33</v>
       </c>
+      <c r="P798">
+        <f t="shared" si="12"/>
+        <v>93.5</v>
+      </c>
       <c r="AC798" t="s">
         <v>35</v>
       </c>
@@ -38614,6 +41750,10 @@
       <c r="O799" t="s">
         <v>33</v>
       </c>
+      <c r="P799">
+        <f t="shared" si="12"/>
+        <v>97.5</v>
+      </c>
       <c r="AC799" t="s">
         <v>35</v>
       </c>
@@ -38661,6 +41801,10 @@
       <c r="O800" t="s">
         <v>33</v>
       </c>
+      <c r="P800">
+        <f t="shared" si="12"/>
+        <v>98.5</v>
+      </c>
       <c r="AC800" t="s">
         <v>35</v>
       </c>
@@ -38708,6 +41852,10 @@
       <c r="O801" t="s">
         <v>33</v>
       </c>
+      <c r="P801">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
       <c r="AC801" t="s">
         <v>35</v>
       </c>
@@ -38755,6 +41903,10 @@
       <c r="O802" t="s">
         <v>33</v>
       </c>
+      <c r="P802">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
       <c r="AC802" t="s">
         <v>35</v>
       </c>
@@ -38802,6 +41954,10 @@
       <c r="O803" t="s">
         <v>33</v>
       </c>
+      <c r="P803">
+        <f t="shared" si="12"/>
+        <v>97.75</v>
+      </c>
       <c r="AC803" t="s">
         <v>35</v>
       </c>
@@ -38849,6 +42005,10 @@
       <c r="O804" t="s">
         <v>33</v>
       </c>
+      <c r="P804">
+        <f t="shared" si="12"/>
+        <v>94.5</v>
+      </c>
       <c r="AC804" t="s">
         <v>35</v>
       </c>
@@ -38896,6 +42056,10 @@
       <c r="O805" t="s">
         <v>33</v>
       </c>
+      <c r="P805">
+        <f t="shared" si="12"/>
+        <v>91.75</v>
+      </c>
       <c r="AC805" t="s">
         <v>35</v>
       </c>
@@ -38943,6 +42107,10 @@
       <c r="O806" t="s">
         <v>33</v>
       </c>
+      <c r="P806">
+        <f t="shared" si="12"/>
+        <v>89.25</v>
+      </c>
       <c r="AC806" t="s">
         <v>35</v>
       </c>
@@ -38990,6 +42158,10 @@
       <c r="O807" t="s">
         <v>33</v>
       </c>
+      <c r="P807">
+        <f t="shared" si="12"/>
+        <v>88.25</v>
+      </c>
       <c r="AC807" t="s">
         <v>35</v>
       </c>
@@ -39037,6 +42209,10 @@
       <c r="O808" t="s">
         <v>33</v>
       </c>
+      <c r="P808">
+        <f t="shared" si="12"/>
+        <v>86.5</v>
+      </c>
       <c r="AC808" t="s">
         <v>35</v>
       </c>
@@ -39084,6 +42260,10 @@
       <c r="O809" t="s">
         <v>33</v>
       </c>
+      <c r="P809">
+        <f t="shared" si="12"/>
+        <v>83.5</v>
+      </c>
       <c r="AC809" t="s">
         <v>35</v>
       </c>
@@ -39131,6 +42311,10 @@
       <c r="O810" t="s">
         <v>33</v>
       </c>
+      <c r="P810">
+        <f t="shared" si="12"/>
+        <v>82.75</v>
+      </c>
       <c r="AC810" t="s">
         <v>35</v>
       </c>
@@ -39178,6 +42362,10 @@
       <c r="O811" t="s">
         <v>33</v>
       </c>
+      <c r="P811">
+        <f t="shared" si="12"/>
+        <v>81.5</v>
+      </c>
       <c r="AC811" t="s">
         <v>35</v>
       </c>
@@ -39225,6 +42413,10 @@
       <c r="O812" t="s">
         <v>33</v>
       </c>
+      <c r="P812">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
       <c r="AC812" t="s">
         <v>35</v>
       </c>
@@ -39272,6 +42464,10 @@
       <c r="O813" t="s">
         <v>33</v>
       </c>
+      <c r="P813">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
       <c r="AC813" t="s">
         <v>35</v>
       </c>
@@ -39319,6 +42515,10 @@
       <c r="O814" t="s">
         <v>33</v>
       </c>
+      <c r="P814">
+        <f t="shared" si="12"/>
+        <v>78.25</v>
+      </c>
       <c r="AC814" t="s">
         <v>35</v>
       </c>
@@ -39366,6 +42566,10 @@
       <c r="O815" t="s">
         <v>33</v>
       </c>
+      <c r="P815">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
       <c r="AC815" t="s">
         <v>35</v>
       </c>
@@ -39413,6 +42617,10 @@
       <c r="O816" t="s">
         <v>33</v>
       </c>
+      <c r="P816">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
       <c r="AC816" t="s">
         <v>35</v>
       </c>
@@ -39460,6 +42668,10 @@
       <c r="O817" t="s">
         <v>33</v>
       </c>
+      <c r="P817">
+        <f t="shared" si="12"/>
+        <v>82.25</v>
+      </c>
       <c r="AC817" t="s">
         <v>35</v>
       </c>
@@ -39507,6 +42719,10 @@
       <c r="O818" t="s">
         <v>33</v>
       </c>
+      <c r="P818">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
       <c r="AC818" t="s">
         <v>35</v>
       </c>
@@ -39554,6 +42770,10 @@
       <c r="O819" t="s">
         <v>33</v>
       </c>
+      <c r="P819">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
       <c r="AC819" t="s">
         <v>35</v>
       </c>
@@ -39601,6 +42821,10 @@
       <c r="O820" t="s">
         <v>33</v>
       </c>
+      <c r="P820">
+        <f t="shared" si="12"/>
+        <v>85.5</v>
+      </c>
       <c r="AC820" t="s">
         <v>35</v>
       </c>
@@ -39648,6 +42872,10 @@
       <c r="O821" t="s">
         <v>33</v>
       </c>
+      <c r="P821">
+        <f t="shared" si="12"/>
+        <v>88.25</v>
+      </c>
       <c r="AC821" t="s">
         <v>35</v>
       </c>
@@ -39695,6 +42923,10 @@
       <c r="O822" t="s">
         <v>33</v>
       </c>
+      <c r="P822">
+        <f t="shared" si="12"/>
+        <v>89.5</v>
+      </c>
       <c r="AC822" t="s">
         <v>35</v>
       </c>
@@ -39742,6 +42974,10 @@
       <c r="O823" t="s">
         <v>33</v>
       </c>
+      <c r="P823">
+        <f t="shared" si="12"/>
+        <v>89.75</v>
+      </c>
       <c r="AC823" t="s">
         <v>35</v>
       </c>
@@ -39789,6 +43025,10 @@
       <c r="O824" t="s">
         <v>33</v>
       </c>
+      <c r="P824">
+        <f t="shared" si="12"/>
+        <v>91.25</v>
+      </c>
       <c r="AC824" t="s">
         <v>35</v>
       </c>
@@ -39836,6 +43076,10 @@
       <c r="O825" t="s">
         <v>33</v>
       </c>
+      <c r="P825">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
       <c r="AC825" t="s">
         <v>35</v>
       </c>
@@ -39883,6 +43127,10 @@
       <c r="O826" t="s">
         <v>33</v>
       </c>
+      <c r="P826">
+        <f t="shared" si="12"/>
+        <v>93.5</v>
+      </c>
       <c r="AC826" t="s">
         <v>35</v>
       </c>
@@ -39930,6 +43178,10 @@
       <c r="O827" t="s">
         <v>33</v>
       </c>
+      <c r="P827">
+        <f t="shared" si="12"/>
+        <v>93.75</v>
+      </c>
       <c r="AC827" t="s">
         <v>35</v>
       </c>
@@ -39977,6 +43229,10 @@
       <c r="O828" t="s">
         <v>33</v>
       </c>
+      <c r="P828">
+        <f t="shared" si="12"/>
+        <v>95</v>
+      </c>
       <c r="AC828" t="s">
         <v>35</v>
       </c>
@@ -40024,6 +43280,10 @@
       <c r="O829" t="s">
         <v>33</v>
       </c>
+      <c r="P829">
+        <f t="shared" si="12"/>
+        <v>96.25</v>
+      </c>
       <c r="AC829" t="s">
         <v>35</v>
       </c>
@@ -40071,6 +43331,10 @@
       <c r="O830" t="s">
         <v>33</v>
       </c>
+      <c r="P830">
+        <f t="shared" si="12"/>
+        <v>95.25</v>
+      </c>
       <c r="AC830" t="s">
         <v>35</v>
       </c>
@@ -40118,6 +43382,10 @@
       <c r="O831" t="s">
         <v>33</v>
       </c>
+      <c r="P831">
+        <f t="shared" si="12"/>
+        <v>94.75</v>
+      </c>
       <c r="AC831" t="s">
         <v>35</v>
       </c>
@@ -40165,6 +43433,10 @@
       <c r="O832" t="s">
         <v>33</v>
       </c>
+      <c r="P832">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
       <c r="AC832" t="s">
         <v>35</v>
       </c>
@@ -40212,6 +43484,10 @@
       <c r="O833" t="s">
         <v>33</v>
       </c>
+      <c r="P833">
+        <f t="shared" si="12"/>
+        <v>99.5</v>
+      </c>
       <c r="AC833" t="s">
         <v>35</v>
       </c>
@@ -40259,6 +43535,10 @@
       <c r="O834" t="s">
         <v>33</v>
       </c>
+      <c r="P834">
+        <f t="shared" si="12"/>
+        <v>96.5</v>
+      </c>
       <c r="AC834" t="s">
         <v>35</v>
       </c>
@@ -40306,6 +43586,10 @@
       <c r="O835" t="s">
         <v>33</v>
       </c>
+      <c r="P835">
+        <f t="shared" si="12"/>
+        <v>94.25</v>
+      </c>
       <c r="AC835" t="s">
         <v>35</v>
       </c>
@@ -40353,6 +43637,10 @@
       <c r="O836" t="s">
         <v>33</v>
       </c>
+      <c r="P836">
+        <f t="shared" si="12"/>
+        <v>94.25</v>
+      </c>
       <c r="AC836" t="s">
         <v>35</v>
       </c>
@@ -40400,6 +43688,10 @@
       <c r="O837" t="s">
         <v>33</v>
       </c>
+      <c r="P837">
+        <f t="shared" si="12"/>
+        <v>94.25</v>
+      </c>
       <c r="AC837" t="s">
         <v>35</v>
       </c>
@@ -40447,6 +43739,10 @@
       <c r="O838" t="s">
         <v>33</v>
       </c>
+      <c r="P838">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
       <c r="AC838" t="s">
         <v>35</v>
       </c>
@@ -40494,6 +43790,10 @@
       <c r="O839" t="s">
         <v>33</v>
       </c>
+      <c r="P839">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
       <c r="AC839" t="s">
         <v>35</v>
       </c>
@@ -40541,6 +43841,10 @@
       <c r="O840" t="s">
         <v>33</v>
       </c>
+      <c r="P840">
+        <f t="shared" si="12"/>
+        <v>91.5</v>
+      </c>
       <c r="AC840" t="s">
         <v>35</v>
       </c>
@@ -40588,6 +43892,10 @@
       <c r="O841" t="s">
         <v>33</v>
       </c>
+      <c r="P841">
+        <f t="shared" si="12"/>
+        <v>91.75</v>
+      </c>
       <c r="AC841" t="s">
         <v>35</v>
       </c>
@@ -40635,6 +43943,10 @@
       <c r="O842" t="s">
         <v>33</v>
       </c>
+      <c r="P842">
+        <f t="shared" si="12"/>
+        <v>92.5</v>
+      </c>
       <c r="AC842" t="s">
         <v>35</v>
       </c>
@@ -40682,6 +43994,10 @@
       <c r="O843" t="s">
         <v>33</v>
       </c>
+      <c r="P843">
+        <f t="shared" si="12"/>
+        <v>90.75</v>
+      </c>
       <c r="AC843" t="s">
         <v>35</v>
       </c>
@@ -40729,6 +44045,10 @@
       <c r="O844" t="s">
         <v>33</v>
       </c>
+      <c r="P844">
+        <f t="shared" si="12"/>
+        <v>89.75</v>
+      </c>
       <c r="AC844" t="s">
         <v>35</v>
       </c>
@@ -40776,6 +44096,10 @@
       <c r="O845" t="s">
         <v>33</v>
       </c>
+      <c r="P845">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
       <c r="AC845" t="s">
         <v>35</v>
       </c>
@@ -40823,6 +44147,10 @@
       <c r="O846" t="s">
         <v>33</v>
       </c>
+      <c r="P846">
+        <f t="shared" si="12"/>
+        <v>90.75</v>
+      </c>
       <c r="AC846" t="s">
         <v>35</v>
       </c>
@@ -40870,6 +44198,10 @@
       <c r="O847" t="s">
         <v>33</v>
       </c>
+      <c r="P847">
+        <f t="shared" si="12"/>
+        <v>90.25</v>
+      </c>
       <c r="AC847" t="s">
         <v>35</v>
       </c>
@@ -40917,6 +44249,10 @@
       <c r="O848" t="s">
         <v>33</v>
       </c>
+      <c r="P848">
+        <f t="shared" si="12"/>
+        <v>90.75</v>
+      </c>
       <c r="AC848" t="s">
         <v>35</v>
       </c>
@@ -40964,6 +44300,10 @@
       <c r="O849" t="s">
         <v>33</v>
       </c>
+      <c r="P849">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
       <c r="AC849" t="s">
         <v>35</v>
       </c>
@@ -41011,6 +44351,10 @@
       <c r="O850" t="s">
         <v>33</v>
       </c>
+      <c r="P850">
+        <f t="shared" ref="P850:P891" si="13">AVERAGE(N848,N849,N851,N852)</f>
+        <v>89.75</v>
+      </c>
       <c r="AC850" t="s">
         <v>35</v>
       </c>
@@ -41058,6 +44402,10 @@
       <c r="O851" t="s">
         <v>33</v>
       </c>
+      <c r="P851">
+        <f t="shared" si="13"/>
+        <v>89.25</v>
+      </c>
       <c r="AC851" t="s">
         <v>35</v>
       </c>
@@ -41105,6 +44453,10 @@
       <c r="O852" t="s">
         <v>33</v>
       </c>
+      <c r="P852">
+        <f t="shared" si="13"/>
+        <v>91.25</v>
+      </c>
       <c r="AC852" t="s">
         <v>35</v>
       </c>
@@ -41152,6 +44504,10 @@
       <c r="O853" t="s">
         <v>33</v>
       </c>
+      <c r="P853">
+        <f t="shared" si="13"/>
+        <v>91.25</v>
+      </c>
       <c r="AC853" t="s">
         <v>35</v>
       </c>
@@ -41199,6 +44555,10 @@
       <c r="O854" t="s">
         <v>33</v>
       </c>
+      <c r="P854">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
       <c r="AC854" t="s">
         <v>35</v>
       </c>
@@ -41246,6 +44606,10 @@
       <c r="O855" t="s">
         <v>33</v>
       </c>
+      <c r="P855">
+        <f t="shared" si="13"/>
+        <v>90.25</v>
+      </c>
       <c r="AC855" t="s">
         <v>35</v>
       </c>
@@ -41293,6 +44657,10 @@
       <c r="O856" t="s">
         <v>33</v>
       </c>
+      <c r="P856">
+        <f t="shared" si="13"/>
+        <v>88.75</v>
+      </c>
       <c r="AC856" t="s">
         <v>35</v>
       </c>
@@ -41340,6 +44708,10 @@
       <c r="O857" t="s">
         <v>33</v>
       </c>
+      <c r="P857">
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
       <c r="AC857" t="s">
         <v>35</v>
       </c>
@@ -41387,6 +44759,10 @@
       <c r="O858" t="s">
         <v>33</v>
       </c>
+      <c r="P858">
+        <f t="shared" si="13"/>
+        <v>82.75</v>
+      </c>
       <c r="AC858" t="s">
         <v>35</v>
       </c>
@@ -41434,6 +44810,10 @@
       <c r="O859" t="s">
         <v>33</v>
       </c>
+      <c r="P859">
+        <f t="shared" si="13"/>
+        <v>81.5</v>
+      </c>
       <c r="AC859" t="s">
         <v>35</v>
       </c>
@@ -41481,6 +44861,10 @@
       <c r="O860" t="s">
         <v>33</v>
       </c>
+      <c r="P860">
+        <f t="shared" si="13"/>
+        <v>79.25</v>
+      </c>
       <c r="AC860" t="s">
         <v>35</v>
       </c>
@@ -41528,6 +44912,10 @@
       <c r="O861" t="s">
         <v>33</v>
       </c>
+      <c r="P861">
+        <f t="shared" si="13"/>
+        <v>78.25</v>
+      </c>
       <c r="AC861" t="s">
         <v>35</v>
       </c>
@@ -41575,6 +44963,10 @@
       <c r="O862" t="s">
         <v>33</v>
       </c>
+      <c r="P862">
+        <f t="shared" si="13"/>
+        <v>78.75</v>
+      </c>
       <c r="AC862" t="s">
         <v>35</v>
       </c>
@@ -41622,6 +45014,10 @@
       <c r="O863" t="s">
         <v>33</v>
       </c>
+      <c r="P863">
+        <f t="shared" si="13"/>
+        <v>77.75</v>
+      </c>
       <c r="AC863" t="s">
         <v>35</v>
       </c>
@@ -41675,6 +45071,10 @@
       <c r="O864" t="s">
         <v>33</v>
       </c>
+      <c r="P864">
+        <f t="shared" si="13"/>
+        <v>75.25</v>
+      </c>
       <c r="AC864" t="s">
         <v>35</v>
       </c>
@@ -41722,6 +45122,10 @@
       <c r="O865" t="s">
         <v>33</v>
       </c>
+      <c r="P865">
+        <f t="shared" si="13"/>
+        <v>74.5</v>
+      </c>
       <c r="AC865" t="s">
         <v>35</v>
       </c>
@@ -41769,6 +45173,10 @@
       <c r="O866" t="s">
         <v>33</v>
       </c>
+      <c r="P866">
+        <f t="shared" si="13"/>
+        <v>76.25</v>
+      </c>
       <c r="AC866" t="s">
         <v>35</v>
       </c>
@@ -41816,6 +45224,10 @@
       <c r="O867" t="s">
         <v>33</v>
       </c>
+      <c r="P867">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
       <c r="AC867" t="s">
         <v>35</v>
       </c>
@@ -41863,6 +45275,10 @@
       <c r="O868" t="s">
         <v>33</v>
       </c>
+      <c r="P868">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
       <c r="AC868" t="s">
         <v>35</v>
       </c>
@@ -41910,6 +45326,10 @@
       <c r="O869" t="s">
         <v>33</v>
       </c>
+      <c r="P869">
+        <f t="shared" si="13"/>
+        <v>89.5</v>
+      </c>
       <c r="AC869" t="s">
         <v>35</v>
       </c>
@@ -41957,6 +45377,10 @@
       <c r="O870" t="s">
         <v>33</v>
       </c>
+      <c r="P870">
+        <f t="shared" si="13"/>
+        <v>100.25</v>
+      </c>
       <c r="AC870" t="s">
         <v>35</v>
       </c>
@@ -42004,6 +45428,10 @@
       <c r="O871" t="s">
         <v>33</v>
       </c>
+      <c r="P871">
+        <f t="shared" si="13"/>
+        <v>108.5</v>
+      </c>
       <c r="AC871" t="s">
         <v>35</v>
       </c>
@@ -42051,6 +45479,10 @@
       <c r="O872" t="s">
         <v>33</v>
       </c>
+      <c r="P872">
+        <f t="shared" si="13"/>
+        <v>117.25</v>
+      </c>
       <c r="AC872" t="s">
         <v>35</v>
       </c>
@@ -42098,6 +45530,10 @@
       <c r="O873" t="s">
         <v>33</v>
       </c>
+      <c r="P873">
+        <f t="shared" si="13"/>
+        <v>126.75</v>
+      </c>
       <c r="AC873" t="s">
         <v>35</v>
       </c>
@@ -42145,6 +45581,10 @@
       <c r="O874" t="s">
         <v>33</v>
       </c>
+      <c r="P874">
+        <f t="shared" si="13"/>
+        <v>131.75</v>
+      </c>
       <c r="AC874" t="s">
         <v>35</v>
       </c>
@@ -42192,6 +45632,10 @@
       <c r="O875" t="s">
         <v>33</v>
       </c>
+      <c r="P875">
+        <f t="shared" si="13"/>
+        <v>134.5</v>
+      </c>
       <c r="AC875" t="s">
         <v>35</v>
       </c>
@@ -42239,6 +45683,10 @@
       <c r="O876" t="s">
         <v>33</v>
       </c>
+      <c r="P876">
+        <f t="shared" si="13"/>
+        <v>139.25</v>
+      </c>
       <c r="AC876" t="s">
         <v>35</v>
       </c>
@@ -42286,6 +45734,10 @@
       <c r="O877" t="s">
         <v>33</v>
       </c>
+      <c r="P877">
+        <f t="shared" si="13"/>
+        <v>142.5</v>
+      </c>
       <c r="AC877" t="s">
         <v>35</v>
       </c>
@@ -42333,6 +45785,10 @@
       <c r="O878" t="s">
         <v>33</v>
       </c>
+      <c r="P878">
+        <f t="shared" si="13"/>
+        <v>144</v>
+      </c>
       <c r="AC878" t="s">
         <v>35</v>
       </c>
@@ -42380,6 +45836,10 @@
       <c r="O879" t="s">
         <v>33</v>
       </c>
+      <c r="P879">
+        <f t="shared" si="13"/>
+        <v>141.5</v>
+      </c>
       <c r="AC879" t="s">
         <v>35</v>
       </c>
@@ -42427,6 +45887,10 @@
       <c r="O880" t="s">
         <v>33</v>
       </c>
+      <c r="P880">
+        <f t="shared" si="13"/>
+        <v>137.5</v>
+      </c>
       <c r="AC880" t="s">
         <v>35</v>
       </c>
@@ -42474,6 +45938,10 @@
       <c r="O881" t="s">
         <v>33</v>
       </c>
+      <c r="P881">
+        <f t="shared" si="13"/>
+        <v>137</v>
+      </c>
       <c r="AC881" t="s">
         <v>35</v>
       </c>
@@ -42521,6 +45989,10 @@
       <c r="O882" t="s">
         <v>33</v>
       </c>
+      <c r="P882">
+        <f t="shared" si="13"/>
+        <v>130.5</v>
+      </c>
       <c r="AC882" t="s">
         <v>35</v>
       </c>
@@ -42568,6 +46040,10 @@
       <c r="O883" t="s">
         <v>33</v>
       </c>
+      <c r="P883">
+        <f t="shared" si="13"/>
+        <v>120.75</v>
+      </c>
       <c r="AC883" t="s">
         <v>35</v>
       </c>
@@ -42615,6 +46091,10 @@
       <c r="O884" t="s">
         <v>33</v>
       </c>
+      <c r="P884">
+        <f t="shared" si="13"/>
+        <v>115.5</v>
+      </c>
       <c r="AC884" t="s">
         <v>35</v>
       </c>
@@ -42662,6 +46142,10 @@
       <c r="O885" t="s">
         <v>33</v>
       </c>
+      <c r="P885">
+        <f t="shared" si="13"/>
+        <v>111.25</v>
+      </c>
       <c r="AC885" t="s">
         <v>35</v>
       </c>
@@ -42709,6 +46193,10 @@
       <c r="O886" t="s">
         <v>33</v>
       </c>
+      <c r="P886">
+        <f t="shared" si="13"/>
+        <v>108.75</v>
+      </c>
       <c r="AC886" t="s">
         <v>35</v>
       </c>
@@ -42756,6 +46244,10 @@
       <c r="O887" t="s">
         <v>33</v>
       </c>
+      <c r="P887">
+        <f t="shared" si="13"/>
+        <v>107.25</v>
+      </c>
       <c r="AC887" t="s">
         <v>35</v>
       </c>
@@ -42803,6 +46295,10 @@
       <c r="O888" t="s">
         <v>33</v>
       </c>
+      <c r="P888">
+        <f t="shared" si="13"/>
+        <v>104.33333333333333</v>
+      </c>
       <c r="AC888" t="s">
         <v>35</v>
       </c>
@@ -42850,6 +46346,10 @@
       <c r="O889" t="s">
         <v>33</v>
       </c>
+      <c r="P889">
+        <f t="shared" si="13"/>
+        <v>104</v>
+      </c>
       <c r="AC889" t="s">
         <v>35</v>
       </c>
@@ -42891,6 +46391,10 @@
       <c r="O890" t="s">
         <v>33</v>
       </c>
+      <c r="P890">
+        <f t="shared" si="13"/>
+        <v>107.5</v>
+      </c>
       <c r="AC890" t="s">
         <v>35</v>
       </c>
@@ -42925,6 +46429,10 @@
       </c>
       <c r="O891" t="s">
         <v>33</v>
+      </c>
+      <c r="P891">
+        <f t="shared" si="13"/>
+        <v>108</v>
       </c>
       <c r="AC891" t="s">
         <v>35</v>

--- a/GU112 CGM raw.xlsx
+++ b/GU112 CGM raw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="14355" windowHeight="7485"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="14355" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="GU112_MODIFIEDSENSORDA" sheetId="1" r:id="rId1"/>
@@ -627,10 +627,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE892"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:P891"/>
+    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
+      <selection activeCell="A887" sqref="A887:XFD887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46207,54 +46210,54 @@
         <v>36</v>
       </c>
     </row>
-    <row r="887" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A887" t="s">
-        <v>31</v>
-      </c>
-      <c r="C887">
+    <row r="887" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A887" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C887" s="3">
         <v>886</v>
       </c>
-      <c r="D887" t="s">
+      <c r="D887" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E887" s="1">
-        <v>41257</v>
-      </c>
-      <c r="F887" s="2">
+      <c r="E887" s="4">
+        <v>41257</v>
+      </c>
+      <c r="F887" s="5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G887">
+      <c r="G887" s="3">
         <v>17.16</v>
       </c>
-      <c r="H887">
-        <v>-0.48</v>
-      </c>
-      <c r="K887">
+      <c r="H887" s="3">
+        <v>-0.48</v>
+      </c>
+      <c r="K887" s="3">
         <v>6.41</v>
       </c>
-      <c r="L887">
-        <v>0</v>
-      </c>
-      <c r="M887">
+      <c r="L887" s="3">
+        <v>0</v>
+      </c>
+      <c r="M887" s="3">
         <v>15.81</v>
       </c>
-      <c r="N887">
+      <c r="N887" s="3">
         <v>101</v>
       </c>
-      <c r="O887" t="s">
-        <v>33</v>
-      </c>
-      <c r="P887">
+      <c r="O887" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P887" s="3">
         <f t="shared" si="13"/>
         <v>107.25</v>
       </c>
-      <c r="AC887" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD887" s="1">
-        <v>41257</v>
-      </c>
-      <c r="AE887" t="s">
+      <c r="AC887" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD887" s="4">
+        <v>41257</v>
+      </c>
+      <c r="AE887" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -46484,5 +46487,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>